--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -40,10 +40,21 @@
     <t>Example</t>
   </si>
   <si>
-    <t>Meaning （English）</t>
-  </si>
-  <si>
     <t>Meaning</t>
+  </si>
+  <si>
+    <r>
+      <t>Meaning</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（中文）</t>
+    </r>
   </si>
   <si>
     <t>level_2</t>
@@ -2448,12 +2459,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2512,44 +2523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2563,10 +2537,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2586,6 +2576,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2594,15 +2599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2610,30 +2609,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2648,7 +2623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2656,10 +2631,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2701,7 +2718,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,127 +2838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2851,37 +2868,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2984,15 +3001,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3004,6 +3012,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3023,17 +3046,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3054,27 +3073,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3083,148 +3100,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3643,8 +3660,8 @@
   <sheetPr/>
   <dimension ref="A1:AE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="L169" sqref="L169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6"/>
@@ -3783,11 +3800,11 @@
       </c>
       <c r="J2" s="25">
         <f ca="1" t="shared" ref="J2:J42" si="0">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="26">
         <f ca="1">IF(J2&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="26">
         <f>IF(LEN(H2)&gt;30,0,1)</f>
@@ -3801,43 +3818,43 @@
       </c>
       <c r="O2" s="26" t="str">
         <f ca="1">T2</f>
-        <v/>
+        <v>L30501001</v>
       </c>
       <c r="P2" s="26" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,H2,""" ?"),"")</f>
-        <v>What is the concept of "The year of the Monkey comes around every 12 years" ?</v>
+        <v/>
       </c>
       <c r="Q2" s="26" t="str">
         <f ca="1">IF(J2=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R2" s="26" t="str">
         <f ca="1">IF(J2=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S2" s="26" t="str">
         <f ca="1">IF(J2=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T2" s="26" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("L3",$F2),"")</f>
-        <v/>
+        <v>L30501001</v>
       </c>
       <c r="U2" s="26" t="str">
         <f ca="1">IF(K2=1,CONCATENATE("What is the meaning of """,G2,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "Every 12 years, the monkey takes center stage" ?</v>
       </c>
       <c r="V2" s="26" t="str">
         <f ca="1">IF(K2=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W2" s="26" t="str">
         <f ca="1">IF(K2=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X2" s="26" t="str">
         <f ca="1">IF(K2=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y2" s="26" t="str">
         <f>IF(L2=1,CONCATENATE("L4",$F2),"")</f>
@@ -4071,11 +4088,11 @@
       </c>
       <c r="J5" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="26">
         <f t="shared" si="2"/>
@@ -4089,43 +4106,43 @@
       </c>
       <c r="O5" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501004</v>
+        <v/>
       </c>
       <c r="P5" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Everything about Truman was late: he became a father at 40, a senator at 58 and president at 60." ?</v>
+        <v/>
       </c>
       <c r="Q5" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R5" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S5" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T5" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501004</v>
       </c>
       <c r="U5" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Everything came late to Truman: a father at 40, a senator at 58 and president at 60" ?</v>
       </c>
       <c r="V5" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W5" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X5" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y5" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4167,11 +4184,11 @@
       </c>
       <c r="J6" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="2"/>
@@ -4185,43 +4202,43 @@
       </c>
       <c r="O6" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20501005</v>
       </c>
       <c r="P6" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The whole world is arguing about whether to wear a mask or not." ?</v>
       </c>
       <c r="Q6" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R6" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S6" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T6" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30501005</v>
+        <v/>
       </c>
       <c r="U6" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "It is a debate heard around the world: to wear or not to wear a face mask." ?</v>
+        <v/>
       </c>
       <c r="V6" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W6" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X6" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y6" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4263,11 +4280,11 @@
       </c>
       <c r="J7" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="2"/>
@@ -4281,43 +4298,43 @@
       </c>
       <c r="O7" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501006</v>
+        <v/>
       </c>
       <c r="P7" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I am old, but but not really bad." ?</v>
+        <v/>
       </c>
       <c r="Q7" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R7" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S7" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T7" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501006</v>
       </c>
       <c r="U7" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I am old. I am 69 years old. Really old is 80" ?</v>
       </c>
       <c r="V7" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W7" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X7" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y7" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4359,11 +4376,11 @@
       </c>
       <c r="J8" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="26">
         <f t="shared" si="2"/>
@@ -4377,43 +4394,43 @@
       </c>
       <c r="O8" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501007</v>
+        <v/>
       </c>
       <c r="P8" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "They are dressed in expensive clothing. But in character, they are cheap." ?</v>
+        <v/>
       </c>
       <c r="Q8" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R8" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S8" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T8" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501007</v>
       </c>
       <c r="U8" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "They came into the courtroom in $500 3-piece suits, $150 custom-made shirts, $200 shoes by Gucci, and a quarter’s worth of character" ?</v>
       </c>
       <c r="V8" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W8" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X8" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y8" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4429,7 +4446,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" ht="35" spans="1:31">
+    <row r="9" ht="47" spans="1:31">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4525,7 +4542,7 @@
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
     </row>
-    <row r="10" ht="47" spans="1:31">
+    <row r="10" ht="24" spans="1:31">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -4551,11 +4568,11 @@
       </c>
       <c r="J10" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="26">
         <f t="shared" si="2"/>
@@ -4569,43 +4586,43 @@
       </c>
       <c r="O10" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501009</v>
+        <v/>
       </c>
       <c r="P10" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Heroes can be humans or animals" ?</v>
+        <v/>
       </c>
       <c r="Q10" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R10" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S10" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T10" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501009</v>
       </c>
       <c r="U10" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Heroes come in all sizes and shapes, some in two legs, some in four" ?</v>
       </c>
       <c r="V10" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W10" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X10" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y10" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4647,11 +4664,11 @@
       </c>
       <c r="J11" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="26">
         <f t="shared" si="2"/>
@@ -4665,43 +4682,43 @@
       </c>
       <c r="O11" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501010</v>
+        <v/>
       </c>
       <c r="P11" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The nursing home is for pets " ?</v>
+        <v/>
       </c>
       <c r="Q11" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R11" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S11" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T11" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501010</v>
       </c>
       <c r="U11" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "A new Japanese nursing home has everything seniors want, from a hair salon and 24-hour medical care and a swimming pool to keep those legs in shape—all four of them" ?</v>
       </c>
       <c r="V11" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W11" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X11" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y11" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4813,7 +4830,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" ht="24" spans="1:31">
+    <row r="13" ht="35" spans="1:31">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -4839,11 +4856,11 @@
       </c>
       <c r="J13" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="2"/>
@@ -4857,43 +4874,43 @@
       </c>
       <c r="O13" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20502012</v>
+        <v/>
       </c>
       <c r="P13" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "help him win an election and carry hin to victory" ?</v>
+        <v/>
       </c>
       <c r="Q13" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R13" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S13" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T13" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30502012</v>
       </c>
       <c r="U13" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "drag him across the finish line" ?</v>
       </c>
       <c r="V13" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W13" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X13" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y13" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5415,11 +5432,11 @@
       </c>
       <c r="J19" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="26">
         <f t="shared" si="2"/>
@@ -5433,43 +5450,43 @@
       </c>
       <c r="O19" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20502018</v>
       </c>
       <c r="P19" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The economy has dropped" ?</v>
       </c>
       <c r="Q19" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R19" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S19" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T19" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30502018</v>
+        <v/>
       </c>
       <c r="U19" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "The economy has fallen off a cliff" ?</v>
+        <v/>
       </c>
       <c r="V19" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W19" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X19" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y19" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5709,11 +5726,11 @@
       </c>
       <c r="J22" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
@@ -5727,43 +5744,43 @@
       </c>
       <c r="O22" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503021</v>
+        <v/>
       </c>
       <c r="P22" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Better people have give me worse names" ?</v>
+        <v/>
       </c>
       <c r="Q22" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R22" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S22" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T22" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503021</v>
       </c>
       <c r="U22" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I have been called worse things by better men" ?</v>
       </c>
       <c r="V22" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W22" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X22" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y22" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5807,11 +5824,11 @@
       </c>
       <c r="J23" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="2"/>
@@ -5825,43 +5842,43 @@
       </c>
       <c r="O23" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503022</v>
       </c>
       <c r="P23" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "A woman with a past is better than a man without a future" ?</v>
       </c>
       <c r="Q23" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R23" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S23" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T23" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503022</v>
+        <v/>
       </c>
       <c r="U23" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "A woman with a past is better than a man without a future" ?</v>
+        <v/>
       </c>
       <c r="V23" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W23" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X23" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y23" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5905,11 +5922,11 @@
       </c>
       <c r="J24" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="26">
         <f t="shared" si="2"/>
@@ -5923,43 +5940,43 @@
       </c>
       <c r="O24" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503023</v>
       </c>
       <c r="P24" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I need some tea but I also need some sympathy" ?</v>
       </c>
       <c r="Q24" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R24" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S24" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T24" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503023</v>
+        <v/>
       </c>
       <c r="U24" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I need some tea and sympathy" ?</v>
+        <v/>
       </c>
       <c r="V24" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W24" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X24" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y24" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6003,11 +6020,11 @@
       </c>
       <c r="J25" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="26">
         <f t="shared" si="2"/>
@@ -6021,43 +6038,43 @@
       </c>
       <c r="O25" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503024</v>
       </c>
       <c r="P25" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I'm proud of every year of my life and  and every wrinkle on my face." ?</v>
       </c>
       <c r="Q25" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R25" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S25" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T25" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503024</v>
+        <v/>
       </c>
       <c r="U25" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I am proud of every year and every wrinkle" ?</v>
+        <v/>
       </c>
       <c r="V25" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W25" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X25" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y25" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6101,11 +6118,11 @@
       </c>
       <c r="J26" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="2"/>
@@ -6119,43 +6136,43 @@
       </c>
       <c r="O26" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503025</v>
       </c>
       <c r="P26" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Very stupid when spending big money, smart when spending small money" ?</v>
       </c>
       <c r="Q26" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R26" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S26" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T26" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503025</v>
+        <v/>
       </c>
       <c r="U26" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Penny wise, pound foolish" ?</v>
+        <v/>
       </c>
       <c r="V26" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W26" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X26" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y26" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6199,11 +6216,11 @@
       </c>
       <c r="J27" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="26">
         <f t="shared" si="2"/>
@@ -6217,43 +6234,43 @@
       </c>
       <c r="O27" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503026</v>
+        <v/>
       </c>
       <c r="P27" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He is impatient and needs milk." ?</v>
+        <v/>
       </c>
       <c r="Q27" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R27" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S27" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T27" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503026</v>
       </c>
       <c r="U27" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He is low on milk and patience" ?</v>
       </c>
       <c r="V27" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W27" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X27" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y27" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6395,11 +6412,11 @@
       </c>
       <c r="J29" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" si="2"/>
@@ -6413,43 +6430,43 @@
       </c>
       <c r="O29" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503028</v>
+        <v/>
       </c>
       <c r="P29" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The terrorist has been killed. The General Moto Co. is kept alive." ?</v>
+        <v/>
       </c>
       <c r="Q29" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R29" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S29" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T29" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503028</v>
       </c>
       <c r="U29" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "“Osama bin Laden is dead, and GM is alive”" ?</v>
       </c>
       <c r="V29" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W29" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X29" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y29" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6591,11 +6608,11 @@
       </c>
       <c r="J31" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="26">
         <f t="shared" si="2"/>
@@ -6609,43 +6626,43 @@
       </c>
       <c r="O31" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503030</v>
       </c>
       <c r="P31" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The media gave positive coverage" ?</v>
       </c>
       <c r="Q31" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R31" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S31" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T31" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503030</v>
+        <v/>
       </c>
       <c r="U31" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "The press splashed approval" ?</v>
+        <v/>
       </c>
       <c r="V31" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W31" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X31" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y31" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6661,7 +6678,7 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
     </row>
-    <row r="32" ht="35" spans="1:31">
+    <row r="32" ht="24" spans="1:31">
       <c r="A32" s="2">
         <v>5</v>
       </c>
@@ -6689,11 +6706,11 @@
       </c>
       <c r="J32" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="26">
         <f t="shared" si="2"/>
@@ -6707,43 +6724,43 @@
       </c>
       <c r="O32" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503031</v>
+        <v/>
       </c>
       <c r="P32" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Become famous." ?</v>
+        <v/>
       </c>
       <c r="Q32" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R32" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S32" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T32" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503031</v>
       </c>
       <c r="U32" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Step out of the anonymity of your life" ?</v>
       </c>
       <c r="V32" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W32" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X32" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y32" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6787,11 +6804,11 @@
       </c>
       <c r="J33" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="26">
         <f t="shared" si="2"/>
@@ -6805,43 +6822,43 @@
       </c>
       <c r="O33" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503032</v>
+        <v/>
       </c>
       <c r="P33" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I accept what cannot be avoided" ?</v>
+        <v/>
       </c>
       <c r="Q33" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R33" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S33" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T33" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503032</v>
       </c>
       <c r="U33" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I bow to the inevitable" ?</v>
       </c>
       <c r="V33" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W33" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X33" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y33" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6885,11 +6902,11 @@
       </c>
       <c r="J34" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="2"/>
@@ -6903,43 +6920,43 @@
       </c>
       <c r="O34" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503033</v>
       </c>
       <c r="P34" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "He hates imprecise things" ?</v>
       </c>
       <c r="Q34" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R34" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S34" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T34" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503033</v>
+        <v/>
       </c>
       <c r="U34" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "He hates inexactitudes" ?</v>
+        <v/>
       </c>
       <c r="V34" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W34" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X34" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y34" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7151,7 +7168,7 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
     </row>
-    <row r="37" ht="35" spans="1:31">
+    <row r="37" ht="24" spans="1:31">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -7249,7 +7266,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" ht="47" spans="1:31">
+    <row r="38" ht="35" spans="1:31">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -7445,7 +7462,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" ht="35" spans="1:31">
+    <row r="40" ht="24" spans="1:31">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -7473,11 +7490,11 @@
       </c>
       <c r="J40" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" si="2"/>
@@ -7491,43 +7508,43 @@
       </c>
       <c r="O40" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504039</v>
+        <v/>
       </c>
       <c r="P40" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "It's no good annoying the boss" ?</v>
+        <v/>
       </c>
       <c r="Q40" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R40" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S40" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T40" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504039</v>
       </c>
       <c r="U40" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "There is no upside to upsetting the boss" ?</v>
       </c>
       <c r="V40" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W40" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X40" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y40" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7571,11 +7588,11 @@
       </c>
       <c r="J41" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="26">
         <f t="shared" si="2"/>
@@ -7589,43 +7606,43 @@
       </c>
       <c r="O41" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504040</v>
       </c>
       <c r="P41" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The responsibility lies with me alone" ?</v>
       </c>
       <c r="Q41" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R41" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S41" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T41" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504040</v>
+        <v/>
       </c>
       <c r="U41" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "The responsibility is mine, and mine alone" ?</v>
+        <v/>
       </c>
       <c r="V41" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W41" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X41" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y41" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7669,11 +7686,11 @@
       </c>
       <c r="J42" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="26">
         <f t="shared" si="2"/>
@@ -7687,43 +7704,43 @@
       </c>
       <c r="O42" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504041</v>
+        <v/>
       </c>
       <c r="P42" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "That's what boys are like" ?</v>
+        <v/>
       </c>
       <c r="Q42" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R42" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S42" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T42" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504041</v>
       </c>
       <c r="U42" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Boys will be boys" ?</v>
       </c>
       <c r="V42" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W42" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X42" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y42" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7767,11 +7784,11 @@
       </c>
       <c r="J43" s="25">
         <f ca="1" t="shared" ref="J37:J100" si="15">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="26">
         <f t="shared" si="2"/>
@@ -7785,43 +7802,43 @@
       </c>
       <c r="O43" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504042</v>
+        <v/>
       </c>
       <c r="P43" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "No excuse for cheating" ?</v>
+        <v/>
       </c>
       <c r="Q43" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R43" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S43" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T43" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504042</v>
       </c>
       <c r="U43" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Cheating is cheating." ?</v>
       </c>
       <c r="V43" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W43" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X43" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y43" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7865,11 +7882,11 @@
       </c>
       <c r="J44" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="26">
         <f t="shared" si="2"/>
@@ -7883,43 +7900,43 @@
       </c>
       <c r="O44" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504043</v>
+        <v/>
       </c>
       <c r="P44" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He is the best lawyer." ?</v>
+        <v/>
       </c>
       <c r="Q44" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R44" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S44" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T44" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504043</v>
       </c>
       <c r="U44" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He is a lawyer’s lawyer" ?</v>
       </c>
       <c r="V44" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W44" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X44" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y44" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8425,7 +8442,7 @@
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
     </row>
-    <row r="50" ht="35" spans="1:31">
+    <row r="50" ht="47" spans="1:31">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -8813,7 +8830,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" ht="24" spans="1:31">
+    <row r="54" ht="35" spans="1:31">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -9223,11 +9240,11 @@
       </c>
       <c r="J58" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="26">
         <f t="shared" si="2"/>
@@ -9241,43 +9258,43 @@
       </c>
       <c r="O58" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505057</v>
       </c>
       <c r="P58" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "If there is blood, there is the leading news." ?</v>
       </c>
       <c r="Q58" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R58" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S58" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T58" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505057</v>
+        <v/>
       </c>
       <c r="U58" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "If it bleeds, it leads" ?</v>
+        <v/>
       </c>
       <c r="V58" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W58" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X58" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y58" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9415,11 +9432,11 @@
       </c>
       <c r="J60" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="2"/>
@@ -9433,43 +9450,43 @@
       </c>
       <c r="O60" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505059</v>
       </c>
       <c r="P60" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "If you don't invest, you don't make money" ?</v>
       </c>
       <c r="Q60" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R60" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S60" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T60" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505059</v>
+        <v/>
       </c>
       <c r="U60" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "If you don’t speculate, you can’t accumulate" ?</v>
+        <v/>
       </c>
       <c r="V60" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W60" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X60" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y60" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9485,7 +9502,7 @@
       <c r="AD60" s="14"/>
       <c r="AE60" s="14"/>
     </row>
-    <row r="61" ht="35" spans="1:31">
+    <row r="61" ht="24" spans="1:31">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -9511,11 +9528,11 @@
       </c>
       <c r="J61" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="26">
         <f t="shared" si="2"/>
@@ -9529,43 +9546,43 @@
       </c>
       <c r="O61" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505060</v>
       </c>
       <c r="P61" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "If the gloves don't fit your hands, you must be acquitted of the crime." ?</v>
       </c>
       <c r="Q61" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R61" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S61" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T61" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505060</v>
+        <v/>
       </c>
       <c r="U61" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "If it doesn't fit, you must acquit" ?</v>
+        <v/>
       </c>
       <c r="V61" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W61" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X61" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y61" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9991,11 +10008,11 @@
       </c>
       <c r="J66" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="26">
         <f t="shared" si="2"/>
@@ -10009,43 +10026,43 @@
       </c>
       <c r="O66" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505065</v>
       </c>
       <c r="P66" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Without money, there is no love," ?</v>
       </c>
       <c r="Q66" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R66" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S66" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T66" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505065</v>
+        <v/>
       </c>
       <c r="U66" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "No money, no honey" ?</v>
+        <v/>
       </c>
       <c r="V66" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W66" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X66" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y66" s="26" t="str">
         <f t="shared" si="11"/>
@@ -10087,11 +10104,11 @@
       </c>
       <c r="J67" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="26">
         <f ca="1" t="shared" ref="K67:K130" si="16">IF(J67&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="26">
         <f t="shared" ref="L67:L130" si="17">IF(LEN(H67)&gt;30,0,1)</f>
@@ -10105,43 +10122,43 @@
       </c>
       <c r="O67" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505066</v>
       </c>
       <c r="P67" s="26" t="str">
         <f ca="1" t="shared" ref="P67:P130" si="18">IF(J67=1,CONCATENATE("What is the concept of """,H67,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "seafood and steak served as a single course" ?</v>
       </c>
       <c r="Q67" s="26" t="str">
         <f ca="1" t="shared" ref="Q67:Q130" si="19">IF(J67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R67" s="26" t="str">
         <f ca="1" t="shared" ref="R67:R130" si="20">IF(J67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S67" s="26" t="str">
         <f ca="1" t="shared" ref="S67:S130" si="21">IF(J67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T67" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505066</v>
+        <v/>
       </c>
       <c r="U67" s="26" t="str">
         <f ca="1" t="shared" ref="U67:U130" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v>What is the meaning of "surf and turf" ?</v>
+        <v/>
       </c>
       <c r="V67" s="26" t="str">
         <f ca="1" t="shared" ref="V67:V130" si="23">IF(K67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W67" s="26" t="str">
         <f ca="1" t="shared" ref="W67:W130" si="24">IF(K67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X67" s="26" t="str">
         <f ca="1" t="shared" ref="X67:X130" si="25">IF(K67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y67" s="26" t="str">
         <f t="shared" ref="Y67:Y130" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -10183,11 +10200,11 @@
       </c>
       <c r="J68" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="26">
         <f t="shared" si="17"/>
@@ -10201,43 +10218,43 @@
       </c>
       <c r="O68" s="26" t="str">
         <f ca="1" t="shared" ref="O68:O131" si="28">IF(J68=1,CONCATENATE("L2",$F68),"")</f>
-        <v>L20505067</v>
+        <v/>
       </c>
       <c r="P68" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "If you delay Britain's exit from EU, then you are betraying the British people." ?</v>
+        <v/>
       </c>
       <c r="Q68" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R68" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S68" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T68" s="26" t="str">
         <f ca="1" t="shared" ref="T68:T131" si="29">IF(K68=1,CONCATENATE("L3",$F68),"")</f>
-        <v/>
+        <v>L30505067</v>
       </c>
       <c r="U68" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "To delay is to betray—Brexit" ?</v>
       </c>
       <c r="V68" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W68" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X68" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y68" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10375,11 +10392,11 @@
       </c>
       <c r="J70" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="26">
         <f t="shared" si="17"/>
@@ -10393,43 +10410,43 @@
       </c>
       <c r="O70" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505069</v>
+        <v/>
       </c>
       <c r="P70" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He that talks much errs much. " ?</v>
+        <v/>
       </c>
       <c r="Q70" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R70" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S70" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T70" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505069</v>
       </c>
       <c r="U70" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Loose lips sink ships" ?</v>
       </c>
       <c r="V70" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W70" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X70" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y70" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10471,11 +10488,11 @@
       </c>
       <c r="J71" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="26">
         <f t="shared" si="17"/>
@@ -10489,43 +10506,43 @@
       </c>
       <c r="O71" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505070</v>
+        <v/>
       </c>
       <c r="P71" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "In the modern economy, we use our knowledge to earn money. " ?</v>
+        <v/>
       </c>
       <c r="Q71" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R71" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S71" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T71" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505070</v>
       </c>
       <c r="U71" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "In the modern economy, we earn by what we learn" ?</v>
       </c>
       <c r="V71" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W71" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X71" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y71" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10567,11 +10584,11 @@
       </c>
       <c r="J72" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="26">
         <f t="shared" si="17"/>
@@ -10585,43 +10602,43 @@
       </c>
       <c r="O72" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20505071</v>
       </c>
       <c r="P72" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Bush used lies about Iraqi Weapons of Mass Destruction to start a war causing a large number of deaths." ?</v>
       </c>
       <c r="Q72" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R72" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S72" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T72" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30505071</v>
+        <v/>
       </c>
       <c r="U72" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Bush lied and people died" ?</v>
+        <v/>
       </c>
       <c r="V72" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W72" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X72" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y72" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10637,7 +10654,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" ht="24" spans="1:31">
+    <row r="73" ht="35" spans="1:31">
       <c r="A73" s="2">
         <v>5</v>
       </c>
@@ -10663,11 +10680,11 @@
       </c>
       <c r="J73" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="26">
         <f t="shared" si="17"/>
@@ -10681,43 +10698,43 @@
       </c>
       <c r="O73" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505072</v>
+        <v/>
       </c>
       <c r="P73" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "a car accident in which there is not a lot of damage " ?</v>
+        <v/>
       </c>
       <c r="Q73" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R73" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S73" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T73" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505072</v>
       </c>
       <c r="U73" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Fender-bender" ?</v>
       </c>
       <c r="V73" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W73" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X73" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y73" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10759,11 +10776,11 @@
       </c>
       <c r="J74" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="26">
         <f t="shared" si="17"/>
@@ -10777,43 +10794,43 @@
       </c>
       <c r="O74" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505073</v>
+        <v/>
       </c>
       <c r="P74" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "You can only succeed if you believe in yourself." ?</v>
+        <v/>
       </c>
       <c r="Q74" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R74" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S74" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T74" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505073</v>
       </c>
       <c r="U74" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "To achieve you must first believe" ?</v>
       </c>
       <c r="V74" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W74" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X74" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y74" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10855,11 +10872,11 @@
       </c>
       <c r="J75" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="26">
         <f t="shared" si="17"/>
@@ -10873,43 +10890,43 @@
       </c>
       <c r="O75" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505074</v>
+        <v/>
       </c>
       <c r="P75" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Don't do break the law unless you are willing and able to accept the punishment." ?</v>
+        <v/>
       </c>
       <c r="Q75" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R75" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S75" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T75" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505074</v>
       </c>
       <c r="U75" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Don't do the crime if you can't do the time" ?</v>
       </c>
       <c r="V75" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W75" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X75" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y75" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10951,11 +10968,11 @@
       </c>
       <c r="J76" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="26">
         <f t="shared" si="17"/>
@@ -10969,43 +10986,43 @@
       </c>
       <c r="O76" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506075</v>
       </c>
       <c r="P76" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Jack Ma is too overconfident." ?</v>
       </c>
       <c r="Q76" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R76" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S76" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T76" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506075</v>
+        <v/>
       </c>
       <c r="U76" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Jack Ma is too big for his boots" ?</v>
+        <v/>
       </c>
       <c r="V76" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W76" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X76" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y76" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11021,7 +11038,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" ht="24" spans="1:31">
+    <row r="77" ht="47" spans="1:31">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -11047,11 +11064,11 @@
       </c>
       <c r="J77" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="26">
         <f t="shared" si="17"/>
@@ -11065,43 +11082,43 @@
       </c>
       <c r="O77" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506076</v>
+        <v/>
       </c>
       <c r="P77" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Without pressure from or partiality to any person or other external influence" ?</v>
+        <v/>
       </c>
       <c r="Q77" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R77" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S77" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T77" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506076</v>
       </c>
       <c r="U77" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "without fear or favor" ?</v>
       </c>
       <c r="V77" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W77" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X77" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y77" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11335,11 +11352,11 @@
       </c>
       <c r="J80" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="26">
         <f t="shared" si="17"/>
@@ -11353,43 +11370,43 @@
       </c>
       <c r="O80" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506079</v>
       </c>
       <c r="P80" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Details determine success or failure." ?</v>
       </c>
       <c r="Q80" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R80" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S80" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T80" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506079</v>
+        <v/>
       </c>
       <c r="U80" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The devil is in the detail" ?</v>
+        <v/>
       </c>
       <c r="V80" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W80" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X80" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y80" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11719,11 +11736,11 @@
       </c>
       <c r="J84" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="26">
         <f t="shared" si="17"/>
@@ -11737,43 +11754,43 @@
       </c>
       <c r="O84" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506083</v>
+        <v/>
       </c>
       <c r="P84" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He is in good health." ?</v>
+        <v/>
       </c>
       <c r="Q84" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R84" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S84" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T84" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506083</v>
       </c>
       <c r="U84" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He is as fit as a fiddle" ?</v>
       </c>
       <c r="V84" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W84" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X84" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y84" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11789,7 +11806,7 @@
       <c r="AD84" s="13"/>
       <c r="AE84" s="13"/>
     </row>
-    <row r="85" ht="35" spans="1:31">
+    <row r="85" ht="47" spans="1:31">
       <c r="A85" s="2">
         <v>5</v>
       </c>
@@ -11815,11 +11832,11 @@
       </c>
       <c r="J85" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="26">
         <f t="shared" si="17"/>
@@ -11833,43 +11850,43 @@
       </c>
       <c r="O85" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506084</v>
+        <v/>
       </c>
       <c r="P85" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "an unofficial court or a court that disregards current laws and conducts unfair trials." ?</v>
+        <v/>
       </c>
       <c r="Q85" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R85" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S85" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T85" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506084</v>
       </c>
       <c r="U85" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "kangaroo court" ?</v>
       </c>
       <c r="V85" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W85" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X85" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y85" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11911,11 +11928,11 @@
       </c>
       <c r="J86" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="26">
         <f t="shared" si="17"/>
@@ -11929,43 +11946,43 @@
       </c>
       <c r="O86" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506085</v>
       </c>
       <c r="P86" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "calm and composed" ?</v>
       </c>
       <c r="Q86" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R86" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S86" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T86" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506085</v>
+        <v/>
       </c>
       <c r="U86" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "cool as a cucumber" ?</v>
+        <v/>
       </c>
       <c r="V86" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W86" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X86" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y86" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12173,7 +12190,7 @@
       <c r="AD88" s="13"/>
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" ht="58" spans="1:31">
+    <row r="89" ht="35" spans="1:31">
       <c r="A89" s="2">
         <v>5</v>
       </c>
@@ -12199,11 +12216,11 @@
       </c>
       <c r="J89" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="26">
         <f t="shared" si="17"/>
@@ -12217,43 +12234,43 @@
       </c>
       <c r="O89" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506088</v>
       </c>
       <c r="P89" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "an unsolved criminal investigation  that has stopped being actively pursued because of a lack of evidence " ?</v>
       </c>
       <c r="Q89" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R89" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S89" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T89" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506088</v>
+        <v/>
       </c>
       <c r="U89" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "cold case" ?</v>
+        <v/>
       </c>
       <c r="V89" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W89" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X89" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y89" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12269,7 +12286,7 @@
       <c r="AD89" s="13"/>
       <c r="AE89" s="13"/>
     </row>
-    <row r="90" ht="24" spans="1:31">
+    <row r="90" ht="35" spans="1:31">
       <c r="A90" s="2">
         <v>5</v>
       </c>
@@ -12295,11 +12312,11 @@
       </c>
       <c r="J90" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="26">
         <f t="shared" si="17"/>
@@ -12313,43 +12330,43 @@
       </c>
       <c r="O90" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506089</v>
+        <v/>
       </c>
       <c r="P90" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "the cheapest, worst, or lowest quality." ?</v>
+        <v/>
       </c>
       <c r="Q90" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R90" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S90" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T90" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506089</v>
       </c>
       <c r="U90" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "bottom of the barrel" ?</v>
       </c>
       <c r="V90" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W90" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X90" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y90" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12487,11 +12504,11 @@
       </c>
       <c r="J92" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="26">
         <f t="shared" si="17"/>
@@ -12505,43 +12522,43 @@
       </c>
       <c r="O92" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506091</v>
       </c>
       <c r="P92" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "consumption to show off" ?</v>
       </c>
       <c r="Q92" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R92" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S92" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T92" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506091</v>
+        <v/>
       </c>
       <c r="U92" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "conspicuous consumption" ?</v>
+        <v/>
       </c>
       <c r="V92" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W92" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X92" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y92" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12653,7 +12670,7 @@
       <c r="AD93" s="14"/>
       <c r="AE93" s="14"/>
     </row>
-    <row r="94" ht="24" spans="1:31">
+    <row r="94" ht="35" spans="1:31">
       <c r="A94" s="2">
         <v>5</v>
       </c>
@@ -12679,11 +12696,11 @@
       </c>
       <c r="J94" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="26">
         <f t="shared" si="17"/>
@@ -12697,43 +12714,43 @@
       </c>
       <c r="O94" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506093</v>
+        <v/>
       </c>
       <c r="P94" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "a quick yet thorough tutorial on some topic or process." ?</v>
+        <v/>
       </c>
       <c r="Q94" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R94" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S94" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T94" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506093</v>
       </c>
       <c r="U94" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "a crash course" ?</v>
       </c>
       <c r="V94" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W94" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X94" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y94" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12749,7 +12766,7 @@
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
     </row>
-    <row r="95" ht="35" spans="1:31">
+    <row r="95" ht="24" spans="1:31">
       <c r="A95" s="2">
         <v>5</v>
       </c>
@@ -12775,11 +12792,11 @@
       </c>
       <c r="J95" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="26">
         <f t="shared" si="17"/>
@@ -12793,43 +12810,43 @@
       </c>
       <c r="O95" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506094</v>
       </c>
       <c r="P95" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "visit so often or stay so long as to become a nuisance." ?</v>
       </c>
       <c r="Q95" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R95" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S95" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T95" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506094</v>
+        <v/>
       </c>
       <c r="U95" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "wear out your welcome" ?</v>
+        <v/>
       </c>
       <c r="V95" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W95" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X95" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y95" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12871,11 +12888,11 @@
       </c>
       <c r="J96" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="26">
         <f t="shared" si="17"/>
@@ -12889,43 +12906,43 @@
       </c>
       <c r="O96" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506095</v>
+        <v/>
       </c>
       <c r="P96" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "the differences in opinions, values, etc., among different age groups" ?</v>
+        <v/>
       </c>
       <c r="Q96" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R96" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S96" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T96" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506095</v>
       </c>
       <c r="U96" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "generation gap" ?</v>
       </c>
       <c r="V96" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W96" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X96" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y96" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12941,7 +12958,7 @@
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
     </row>
-    <row r="97" ht="24" spans="1:31">
+    <row r="97" ht="35" spans="1:31">
       <c r="A97" s="2">
         <v>5</v>
       </c>
@@ -13037,7 +13054,7 @@
       <c r="AD97" s="14"/>
       <c r="AE97" s="14"/>
     </row>
-    <row r="98" ht="24" spans="1:31">
+    <row r="98" ht="35" spans="1:31">
       <c r="A98" s="2">
         <v>5</v>
       </c>
@@ -13159,11 +13176,11 @@
       </c>
       <c r="J99" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="26">
         <f t="shared" si="17"/>
@@ -13177,43 +13194,43 @@
       </c>
       <c r="O99" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506098</v>
       </c>
       <c r="P99" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "spend too much time or money on a single project" ?</v>
       </c>
       <c r="Q99" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R99" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S99" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T99" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506098</v>
+        <v/>
       </c>
       <c r="U99" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "blow your budget" ?</v>
+        <v/>
       </c>
       <c r="V99" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W99" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X99" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y99" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13255,11 +13272,11 @@
       </c>
       <c r="J100" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" s="26">
         <f t="shared" si="17"/>
@@ -13273,43 +13290,43 @@
       </c>
       <c r="O100" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506099</v>
       </c>
       <c r="P100" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I don't want to destroy your illusion." ?</v>
       </c>
       <c r="Q100" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R100" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S100" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T100" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506099</v>
+        <v/>
       </c>
       <c r="U100" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I hate to burst your bubble" ?</v>
+        <v/>
       </c>
       <c r="V100" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W100" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X100" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y100" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13351,11 +13368,11 @@
       </c>
       <c r="J101" s="25">
         <f ca="1" t="shared" ref="J101:J123" si="30">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="26">
         <f t="shared" si="17"/>
@@ -13369,43 +13386,43 @@
       </c>
       <c r="O101" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506100</v>
+        <v/>
       </c>
       <c r="P101" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "calculate the consequences of something" ?</v>
+        <v/>
       </c>
       <c r="Q101" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R101" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S101" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T101" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506100</v>
       </c>
       <c r="U101" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "count the cost" ?</v>
       </c>
       <c r="V101" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W101" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X101" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y101" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13447,11 +13464,11 @@
       </c>
       <c r="J102" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="26">
         <f t="shared" si="17"/>
@@ -13465,43 +13482,43 @@
       </c>
       <c r="O102" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506101</v>
+        <v/>
       </c>
       <c r="P102" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "having a cumulative negative effect on someone or something" ?</v>
+        <v/>
       </c>
       <c r="Q102" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R102" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S102" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T102" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506101</v>
       </c>
       <c r="U102" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "taking a toll" ?</v>
       </c>
       <c r="V102" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W102" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X102" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y102" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13543,11 +13560,11 @@
       </c>
       <c r="J103" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="26">
         <f t="shared" si="17"/>
@@ -13561,43 +13578,43 @@
       </c>
       <c r="O103" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506102</v>
       </c>
       <c r="P103" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I got it for almost nothing." ?</v>
       </c>
       <c r="Q103" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R103" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S103" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T103" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506102</v>
+        <v/>
       </c>
       <c r="U103" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I got it for next to nothing" ?</v>
+        <v/>
       </c>
       <c r="V103" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W103" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X103" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y103" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13831,11 +13848,11 @@
       </c>
       <c r="J106" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="26">
         <f t="shared" si="17"/>
@@ -13849,43 +13866,43 @@
       </c>
       <c r="O106" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506105</v>
+        <v/>
       </c>
       <c r="P106" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He writes the best prose" ?</v>
+        <v/>
       </c>
       <c r="Q106" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R106" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S106" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T106" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506105</v>
       </c>
       <c r="U106" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "His prose is peerless" ?</v>
       </c>
       <c r="V106" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W106" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X106" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y106" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13927,11 +13944,11 @@
       </c>
       <c r="J107" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="26">
         <f t="shared" si="17"/>
@@ -13945,43 +13962,43 @@
       </c>
       <c r="O107" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506106</v>
+        <v/>
       </c>
       <c r="P107" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Her dress is not approprite for her age." ?</v>
+        <v/>
       </c>
       <c r="Q107" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R107" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S107" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T107" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506106</v>
       </c>
       <c r="U107" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Her dress is not age-appropriate" ?</v>
       </c>
       <c r="V107" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W107" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X107" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y107" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14093,7 +14110,7 @@
       <c r="AD108" s="14"/>
       <c r="AE108" s="14"/>
     </row>
-    <row r="109" ht="24" spans="1:31">
+    <row r="109" ht="35" spans="1:31">
       <c r="A109" s="2">
         <v>5</v>
       </c>
@@ -14119,11 +14136,11 @@
       </c>
       <c r="J109" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="26">
         <f t="shared" si="17"/>
@@ -14137,43 +14154,43 @@
       </c>
       <c r="O109" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506108</v>
+        <v/>
       </c>
       <c r="P109" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He is more important, impressive, or exciting than the average person." ?</v>
+        <v/>
       </c>
       <c r="Q109" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R109" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S109" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T109" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506108</v>
       </c>
       <c r="U109" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He is larger than life*" ?</v>
       </c>
       <c r="V109" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W109" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X109" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y109" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14311,11 +14328,11 @@
       </c>
       <c r="J111" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="26">
         <f t="shared" si="17"/>
@@ -14329,43 +14346,43 @@
       </c>
       <c r="O111" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506110</v>
       </c>
       <c r="P111" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "out of practice" ?</v>
       </c>
       <c r="Q111" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R111" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S111" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T111" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506110</v>
+        <v/>
       </c>
       <c r="U111" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "ring rust" ?</v>
+        <v/>
       </c>
       <c r="V111" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W111" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X111" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y111" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14503,11 +14520,11 @@
       </c>
       <c r="J113" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" s="26">
         <f t="shared" si="17"/>
@@ -14521,43 +14538,43 @@
       </c>
       <c r="O113" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506112</v>
+        <v/>
       </c>
       <c r="P113" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "most important point for something, the moment of truth" ?</v>
+        <v/>
       </c>
       <c r="Q113" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R113" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S113" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T113" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506112</v>
       </c>
       <c r="U113" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "where the rubber meets the road" ?</v>
       </c>
       <c r="V113" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W113" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X113" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y113" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14599,11 +14616,11 @@
       </c>
       <c r="J114" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="26">
         <f t="shared" si="17"/>
@@ -14617,43 +14634,43 @@
       </c>
       <c r="O114" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506113</v>
       </c>
       <c r="P114" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "a useless consolation" ?</v>
       </c>
       <c r="Q114" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R114" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S114" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T114" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506113</v>
+        <v/>
       </c>
       <c r="U114" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "cold comfort" ?</v>
+        <v/>
       </c>
       <c r="V114" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W114" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X114" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y114" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15271,11 +15288,11 @@
       </c>
       <c r="J121" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" s="26">
         <f t="shared" si="17"/>
@@ -15289,43 +15306,43 @@
       </c>
       <c r="O121" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506120</v>
       </c>
       <c r="P121" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I depend my happiness on her" ?</v>
       </c>
       <c r="Q121" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R121" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S121" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T121" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506120</v>
+        <v/>
       </c>
       <c r="U121" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I hang my happiness on her" ?</v>
+        <v/>
       </c>
       <c r="V121" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W121" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X121" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y121" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15559,11 +15576,11 @@
       </c>
       <c r="J124" s="25">
         <f ca="1" t="shared" ref="J101:J164" si="31">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="26">
         <f t="shared" si="17"/>
@@ -15577,43 +15594,43 @@
       </c>
       <c r="O124" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506123</v>
+        <v/>
       </c>
       <c r="P124" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "an indirect criticism" ?</v>
+        <v/>
       </c>
       <c r="Q124" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R124" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S124" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T124" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506123</v>
       </c>
       <c r="U124" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "a coded criticism" ?</v>
       </c>
       <c r="V124" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W124" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X124" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y124" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15655,11 +15672,11 @@
       </c>
       <c r="J125" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" s="26">
         <f t="shared" si="17"/>
@@ -15673,43 +15690,43 @@
       </c>
       <c r="O125" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506124</v>
       </c>
       <c r="P125" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "She is  in charge." ?</v>
       </c>
       <c r="Q125" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R125" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S125" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T125" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506124</v>
+        <v/>
       </c>
       <c r="U125" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "She rules the roost" ?</v>
+        <v/>
       </c>
       <c r="V125" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W125" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X125" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y125" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15847,11 +15864,11 @@
       </c>
       <c r="J127" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" s="26">
         <f t="shared" si="17"/>
@@ -15865,43 +15882,43 @@
       </c>
       <c r="O127" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506126</v>
+        <v/>
       </c>
       <c r="P127" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Equal pay" ?</v>
+        <v/>
       </c>
       <c r="Q127" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R127" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S127" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T127" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506126</v>
       </c>
       <c r="U127" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Pay parity" ?</v>
       </c>
       <c r="V127" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W127" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X127" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y127" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15943,11 +15960,11 @@
       </c>
       <c r="J128" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" s="26">
         <f t="shared" si="17"/>
@@ -15961,43 +15978,43 @@
       </c>
       <c r="O128" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506127</v>
       </c>
       <c r="P128" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "The stock market plummets" ?</v>
       </c>
       <c r="Q128" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R128" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S128" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T128" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506127</v>
+        <v/>
       </c>
       <c r="U128" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The stock market is in freefall" ?</v>
+        <v/>
       </c>
       <c r="V128" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W128" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X128" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y128" s="26" t="str">
         <f t="shared" si="26"/>
@@ -16013,7 +16030,7 @@
       <c r="AD128" s="14"/>
       <c r="AE128" s="14"/>
     </row>
-    <row r="129" ht="47" spans="1:31">
+    <row r="129" ht="24" spans="1:31">
       <c r="A129" s="2">
         <v>5</v>
       </c>
@@ -16205,7 +16222,7 @@
       <c r="AD130" s="14"/>
       <c r="AE130" s="14"/>
     </row>
-    <row r="131" ht="24" spans="1:31">
+    <row r="131" ht="35" spans="1:31">
       <c r="A131" s="2">
         <v>5</v>
       </c>
@@ -16327,11 +16344,11 @@
       </c>
       <c r="J132" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" s="26">
         <f t="shared" si="33"/>
@@ -16345,43 +16362,43 @@
       </c>
       <c r="O132" s="26" t="str">
         <f ca="1" t="shared" ref="O132:O158" si="44">IF(J132=1,CONCATENATE("L2",$F132),"")</f>
-        <v/>
+        <v>L20506131</v>
       </c>
       <c r="P132" s="26" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>What is the concept of "Your social behavior defines who you are" ?</v>
       </c>
       <c r="Q132" s="26" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R132" s="26" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S132" s="26" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T132" s="26" t="str">
         <f ca="1" t="shared" ref="T132:T154" si="45">IF(K132=1,CONCATENATE("L3",$F132),"")</f>
-        <v>L30506131</v>
+        <v/>
       </c>
       <c r="U132" s="26" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>What is the meaning of "Manners maketh the man" ?</v>
+        <v/>
       </c>
       <c r="V132" s="26" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W132" s="26" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X132" s="26" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y132" s="26" t="str">
         <f t="shared" si="42"/>
@@ -16397,7 +16414,7 @@
       <c r="AD132" s="13"/>
       <c r="AE132" s="13"/>
     </row>
-    <row r="133" ht="35" spans="1:31">
+    <row r="133" ht="24" spans="1:31">
       <c r="A133" s="2">
         <v>5</v>
       </c>
@@ -16493,7 +16510,7 @@
       <c r="AD133" s="13"/>
       <c r="AE133" s="13"/>
     </row>
-    <row r="134" ht="24" spans="1:31">
+    <row r="134" ht="35" spans="1:31">
       <c r="A134" s="2">
         <v>5</v>
       </c>
@@ -16615,11 +16632,11 @@
       </c>
       <c r="J135" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="26">
         <f t="shared" si="33"/>
@@ -16633,43 +16650,43 @@
       </c>
       <c r="O135" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506134</v>
       </c>
       <c r="P135" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "The government stopped funding the project" ?</v>
       </c>
       <c r="Q135" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R135" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S135" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T135" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506134</v>
+        <v/>
       </c>
       <c r="U135" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "The government pulled the plug on the project" ?</v>
+        <v/>
       </c>
       <c r="V135" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W135" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X135" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y135" s="26" t="str">
         <f t="shared" si="55"/>
@@ -16711,11 +16728,11 @@
       </c>
       <c r="J136" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" s="26">
         <f t="shared" si="33"/>
@@ -16729,43 +16746,43 @@
       </c>
       <c r="O136" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506135</v>
       </c>
       <c r="P136" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "You have lost the opportunity to do somehing" ?</v>
       </c>
       <c r="Q136" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R136" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S136" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T136" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506135</v>
+        <v/>
       </c>
       <c r="U136" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "That ship has sailed" ?</v>
+        <v/>
       </c>
       <c r="V136" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W136" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X136" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y136" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17095,11 +17112,11 @@
       </c>
       <c r="J140" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" s="26">
         <f t="shared" si="33"/>
@@ -17113,43 +17130,43 @@
       </c>
       <c r="O140" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506139</v>
+        <v/>
       </c>
       <c r="P140" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "You can only judge the quality of something by trying it yourself" ?</v>
+        <v/>
       </c>
       <c r="Q140" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R140" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S140" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T140" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506139</v>
       </c>
       <c r="U140" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "The proof of the pudding is in the eating" ?</v>
       </c>
       <c r="V140" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W140" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X140" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y140" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17479,11 +17496,11 @@
       </c>
       <c r="J144" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" s="26">
         <f t="shared" si="33"/>
@@ -17497,43 +17514,43 @@
       </c>
       <c r="O144" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506143</v>
+        <v/>
       </c>
       <c r="P144" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "He knows how to talk." ?</v>
+        <v/>
       </c>
       <c r="Q144" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R144" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S144" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T144" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506143</v>
       </c>
       <c r="U144" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "He has the gift of the gab" ?</v>
       </c>
       <c r="V144" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W144" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X144" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y144" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17549,7 +17566,7 @@
       <c r="AD144" s="14"/>
       <c r="AE144" s="14"/>
     </row>
-    <row r="145" ht="24" spans="1:31">
+    <row r="145" ht="35" spans="1:31">
       <c r="A145" s="2">
         <v>5</v>
       </c>
@@ -17575,11 +17592,11 @@
       </c>
       <c r="J145" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="26">
         <f t="shared" si="33"/>
@@ -17593,43 +17610,43 @@
       </c>
       <c r="O145" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506144</v>
       </c>
       <c r="P145" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Jusitice must come early not late" ?</v>
       </c>
       <c r="Q145" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R145" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S145" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T145" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506144</v>
+        <v/>
       </c>
       <c r="U145" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Justice delayed is justice denied" ?</v>
+        <v/>
       </c>
       <c r="V145" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W145" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X145" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y145" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17741,7 +17758,7 @@
       <c r="AD146" s="13"/>
       <c r="AE146" s="13"/>
     </row>
-    <row r="147" ht="24" spans="1:31">
+    <row r="147" ht="35" spans="1:31">
       <c r="A147" s="2">
         <v>5</v>
       </c>
@@ -17863,11 +17880,11 @@
       </c>
       <c r="J148" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" s="26">
         <f t="shared" si="33"/>
@@ -17881,43 +17898,43 @@
       </c>
       <c r="O148" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506147</v>
       </c>
       <c r="P148" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "treating all students in the same way, making no allowance for individual difference" ?</v>
       </c>
       <c r="Q148" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R148" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S148" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T148" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506147</v>
+        <v/>
       </c>
       <c r="U148" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "cookie cutter approach to education" ?</v>
+        <v/>
       </c>
       <c r="V148" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W148" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X148" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y148" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17959,11 +17976,11 @@
       </c>
       <c r="J149" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L149" s="26">
         <f t="shared" si="33"/>
@@ -17977,43 +17994,43 @@
       </c>
       <c r="O149" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506148</v>
       </c>
       <c r="P149" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He loses control pf his temper." ?</v>
       </c>
       <c r="Q149" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R149" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S149" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T149" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506148</v>
+        <v/>
       </c>
       <c r="U149" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He throws a temper tantrum" ?</v>
+        <v/>
       </c>
       <c r="V149" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W149" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X149" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y149" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18055,11 +18072,11 @@
       </c>
       <c r="J150" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" s="26">
         <f t="shared" si="33"/>
@@ -18073,43 +18090,43 @@
       </c>
       <c r="O150" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506149</v>
       </c>
       <c r="P150" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "unsolved case" ?</v>
       </c>
       <c r="Q150" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R150" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S150" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T150" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506149</v>
+        <v/>
       </c>
       <c r="U150" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "cold case" ?</v>
+        <v/>
       </c>
       <c r="V150" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W150" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X150" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y150" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18247,11 +18264,11 @@
       </c>
       <c r="J152" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152" s="26">
         <f t="shared" si="33"/>
@@ -18265,43 +18282,43 @@
       </c>
       <c r="O152" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506151</v>
       </c>
       <c r="P152" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He was scolded for not controlling the cost" ?</v>
       </c>
       <c r="Q152" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R152" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S152" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T152" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506151</v>
+        <v/>
       </c>
       <c r="U152" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He was taken to task for the cost overrun" ?</v>
+        <v/>
       </c>
       <c r="V152" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W152" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X152" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y152" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18509,7 +18526,7 @@
       <c r="AD154" s="14"/>
       <c r="AE154" s="14"/>
     </row>
-    <row r="155" ht="35" spans="1:31">
+    <row r="155" ht="24" spans="1:31">
       <c r="A155" s="2">
         <v>5</v>
       </c>
@@ -18631,11 +18648,11 @@
       </c>
       <c r="J156" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" s="26">
         <f t="shared" si="33"/>
@@ -18649,43 +18666,43 @@
       </c>
       <c r="O156" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506155</v>
       </c>
       <c r="P156" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "similar in their character or behavior" ?</v>
       </c>
       <c r="Q156" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R156" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S156" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T156" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506155</v>
+        <v/>
       </c>
       <c r="U156" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "cut from the same cloth" ?</v>
+        <v/>
       </c>
       <c r="V156" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W156" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X156" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y156" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18919,11 +18936,11 @@
       </c>
       <c r="J159" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" s="26">
         <f ca="1" t="shared" ref="K159:K192" si="57">IF(J159&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L159" s="26">
         <f t="shared" ref="L159:L192" si="58">IF(LEN(H159)&gt;30,0,1)</f>
@@ -18937,43 +18954,43 @@
       </c>
       <c r="O159" s="26" t="str">
         <f ca="1" t="shared" ref="O159:O192" si="59">IF(J159=1,CONCATENATE("L2",$F159),"")</f>
-        <v>L20506158</v>
+        <v/>
       </c>
       <c r="P159" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "speech or writing that is hard to understand" ?</v>
+        <v/>
       </c>
       <c r="Q159" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R159" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S159" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T159" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506158</v>
       </c>
       <c r="U159" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "double Dutch" ?</v>
       </c>
       <c r="V159" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W159" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X159" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y159" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19015,11 +19032,11 @@
       </c>
       <c r="J160" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160" s="26">
         <f t="shared" si="58"/>
@@ -19033,43 +19050,43 @@
       </c>
       <c r="O160" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506159</v>
+        <v/>
       </c>
       <c r="P160" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Everything is neat and tidy" ?</v>
+        <v/>
       </c>
       <c r="Q160" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R160" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S160" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T160" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506159</v>
       </c>
       <c r="U160" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Everything is shipshape" ?</v>
       </c>
       <c r="V160" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W160" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X160" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y160" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19181,7 +19198,7 @@
       <c r="AD161" s="13"/>
       <c r="AE161" s="13"/>
     </row>
-    <row r="162" ht="24" spans="1:31">
+    <row r="162" ht="35" spans="1:31">
       <c r="A162" s="2">
         <v>5</v>
       </c>
@@ -19207,11 +19224,11 @@
       </c>
       <c r="J162" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162" s="26">
         <f t="shared" si="58"/>
@@ -19225,43 +19242,43 @@
       </c>
       <c r="O162" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506161</v>
+        <v/>
       </c>
       <c r="P162" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "an occasion when two couples go out together on a date" ?</v>
+        <v/>
       </c>
       <c r="Q162" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R162" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S162" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T162" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506161</v>
       </c>
       <c r="U162" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "double date" ?</v>
       </c>
       <c r="V162" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W162" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X162" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y162" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19277,7 +19294,7 @@
       <c r="AD162" s="13"/>
       <c r="AE162" s="13"/>
     </row>
-    <row r="163" ht="35" spans="1:31">
+    <row r="163" ht="24" spans="1:31">
       <c r="A163" s="2">
         <v>5</v>
       </c>
@@ -19399,11 +19416,11 @@
       </c>
       <c r="J164" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" s="26">
         <f t="shared" si="58"/>
@@ -19417,43 +19434,43 @@
       </c>
       <c r="O164" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506163</v>
+        <v/>
       </c>
       <c r="P164" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Children hear everything, especially when you least expect them to" ?</v>
+        <v/>
       </c>
       <c r="Q164" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R164" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S164" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T164" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506163</v>
       </c>
       <c r="U164" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Little pitchers have large ears" ?</v>
       </c>
       <c r="V164" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W164" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X164" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y164" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19591,11 +19608,11 @@
       </c>
       <c r="J166" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L166" s="26">
         <f t="shared" si="58"/>
@@ -19609,43 +19626,43 @@
       </c>
       <c r="O166" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506165</v>
+        <v/>
       </c>
       <c r="P166" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "He loses his temper" ?</v>
+        <v/>
       </c>
       <c r="Q166" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R166" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S166" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T166" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506165</v>
       </c>
       <c r="U166" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "He flies into a fury" ?</v>
       </c>
       <c r="V166" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W166" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X166" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y166" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19687,11 +19704,11 @@
       </c>
       <c r="J167" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" s="26">
         <f t="shared" si="58"/>
@@ -19705,43 +19722,43 @@
       </c>
       <c r="O167" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506166</v>
+        <v/>
       </c>
       <c r="P167" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "No locks can keep two lovers apart" ?</v>
+        <v/>
       </c>
       <c r="Q167" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R167" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S167" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T167" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506166</v>
       </c>
       <c r="U167" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Love laughs at locks" ?</v>
       </c>
       <c r="V167" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W167" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X167" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y167" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19879,11 +19896,11 @@
       </c>
       <c r="J169" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" s="26">
         <f t="shared" si="58"/>
@@ -19897,43 +19914,43 @@
       </c>
       <c r="O169" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507168</v>
+        <v/>
       </c>
       <c r="P169" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Sitting is as bad as smoking" ?</v>
+        <v/>
       </c>
       <c r="Q169" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R169" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S169" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T169" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507168</v>
       </c>
       <c r="U169" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Sitting is the new smoking" ?</v>
       </c>
       <c r="V169" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W169" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X169" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y169" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19975,11 +19992,11 @@
       </c>
       <c r="J170" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" s="26">
         <f t="shared" si="58"/>
@@ -19993,43 +20010,43 @@
       </c>
       <c r="O170" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507169</v>
+        <v/>
       </c>
       <c r="P170" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "I am always in action" ?</v>
+        <v/>
       </c>
       <c r="Q170" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R170" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S170" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T170" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507169</v>
       </c>
       <c r="U170" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "I am a verb" ?</v>
       </c>
       <c r="V170" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W170" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X170" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y170" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20167,11 +20184,11 @@
       </c>
       <c r="J172" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172" s="26">
         <f t="shared" si="58"/>
@@ -20185,43 +20202,43 @@
       </c>
       <c r="O172" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507171</v>
       </c>
       <c r="P172" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Politics is a performance for the public" ?</v>
       </c>
       <c r="Q172" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R172" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S172" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T172" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507171</v>
+        <v/>
       </c>
       <c r="U172" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Politics is theatre" ?</v>
+        <v/>
       </c>
       <c r="V172" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W172" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X172" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y172" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20263,11 +20280,11 @@
       </c>
       <c r="J173" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" s="26">
         <f t="shared" si="58"/>
@@ -20281,43 +20298,43 @@
       </c>
       <c r="O173" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507172</v>
+        <v/>
       </c>
       <c r="P173" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Denial is not an advisable strategy for pandemic" ?</v>
+        <v/>
       </c>
       <c r="Q173" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R173" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S173" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T173" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507172</v>
       </c>
       <c r="U173" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Denial is not a strategy for dealing with the pandemic" ?</v>
       </c>
       <c r="V173" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W173" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X173" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y173" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20333,7 +20350,7 @@
       <c r="AD173" s="14"/>
       <c r="AE173" s="14"/>
     </row>
-    <row r="174" ht="35" spans="1:31">
+    <row r="174" ht="24" spans="1:31">
       <c r="A174" s="2">
         <v>5</v>
       </c>
@@ -20551,11 +20568,11 @@
       </c>
       <c r="J176" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" s="26">
         <f t="shared" si="58"/>
@@ -20569,43 +20586,43 @@
       </c>
       <c r="O176" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507175</v>
       </c>
       <c r="P176" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Our bodies are composed of what we eat" ?</v>
       </c>
       <c r="Q176" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R176" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S176" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T176" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507175</v>
+        <v/>
       </c>
       <c r="U176" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "You are what you eat" ?</v>
+        <v/>
       </c>
       <c r="V176" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W176" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X176" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y176" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20647,11 +20664,11 @@
       </c>
       <c r="J177" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177" s="26">
         <f t="shared" si="58"/>
@@ -20665,43 +20682,43 @@
       </c>
       <c r="O177" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507176</v>
+        <v/>
       </c>
       <c r="P177" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "You are the result of your work" ?</v>
+        <v/>
       </c>
       <c r="Q177" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R177" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S177" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T177" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507176</v>
       </c>
       <c r="U177" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "You are what you do" ?</v>
       </c>
       <c r="V177" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W177" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X177" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y177" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20935,11 +20952,11 @@
       </c>
       <c r="J180" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180" s="26">
         <f t="shared" si="58"/>
@@ -20953,43 +20970,43 @@
       </c>
       <c r="O180" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507179</v>
       </c>
       <c r="P180" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "If you copy from only one person, it is plagiarism. If you copy from more than one person , it is research. " ?</v>
       </c>
       <c r="Q180" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R180" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S180" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T180" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507179</v>
+        <v/>
       </c>
       <c r="U180" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Copy from one is plagiarism. Copy from two or more is research." ?</v>
+        <v/>
       </c>
       <c r="V180" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W180" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X180" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y180" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21005,7 +21022,7 @@
       <c r="AD180" s="14"/>
       <c r="AE180" s="14"/>
     </row>
-    <row r="181" ht="35" spans="1:31">
+    <row r="181" ht="47" spans="1:31">
       <c r="A181" s="2">
         <v>5</v>
       </c>
@@ -21223,11 +21240,11 @@
       </c>
       <c r="J183" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" s="26">
         <f t="shared" si="58"/>
@@ -21241,43 +21258,43 @@
       </c>
       <c r="O183" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507182</v>
+        <v/>
       </c>
       <c r="P183" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "The worst thing to happen in education is when there is lack of interest" ?</v>
+        <v/>
       </c>
       <c r="Q183" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R183" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S183" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T183" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507182</v>
       </c>
       <c r="U183" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "In education, indifference is the greatest tragedy" ?</v>
       </c>
       <c r="V183" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W183" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X183" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y183" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21389,7 +21406,7 @@
       <c r="AD184" s="14"/>
       <c r="AE184" s="14"/>
     </row>
-    <row r="185" ht="24" spans="1:31">
+    <row r="185" ht="35" spans="1:31">
       <c r="A185" s="2">
         <v>5</v>
       </c>
@@ -21511,11 +21528,11 @@
       </c>
       <c r="J186" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186" s="26">
         <f t="shared" si="58"/>
@@ -21529,43 +21546,43 @@
       </c>
       <c r="O186" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507185</v>
       </c>
       <c r="P186" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Good marriage is pure luck" ?</v>
       </c>
       <c r="Q186" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R186" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S186" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T186" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507185</v>
+        <v/>
       </c>
       <c r="U186" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Marriage is a lottery" ?</v>
+        <v/>
       </c>
       <c r="V186" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W186" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X186" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y186" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21869,7 +21886,7 @@
       <c r="AD189" s="14"/>
       <c r="AE189" s="14"/>
     </row>
-    <row r="190" ht="35" spans="1:31">
+    <row r="190" ht="24" spans="1:31">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -21895,11 +21912,11 @@
       </c>
       <c r="J190" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" s="26">
         <f t="shared" si="58"/>
@@ -21913,43 +21930,43 @@
       </c>
       <c r="O190" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507189</v>
       </c>
       <c r="P190" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He only cares about how to look good, not  how things are run." ?</v>
       </c>
       <c r="Q190" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R190" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S190" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T190" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507189</v>
+        <v/>
       </c>
       <c r="U190" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He is spin over substance" ?</v>
+        <v/>
       </c>
       <c r="V190" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W190" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X190" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y190" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21965,7 +21982,7 @@
       <c r="AD190" s="14"/>
       <c r="AE190" s="14"/>
     </row>
-    <row r="191" ht="35" spans="1:31">
+    <row r="191" ht="47" spans="1:31">
       <c r="A191" s="2">
         <v>5</v>
       </c>
@@ -21991,11 +22008,11 @@
       </c>
       <c r="J191" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" s="26">
         <f t="shared" si="58"/>
@@ -22009,43 +22026,43 @@
       </c>
       <c r="O191" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507190</v>
+        <v/>
       </c>
       <c r="P191" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Twitter is a place for the unethical. It makes peolple show their worst in humanity." ?</v>
+        <v/>
       </c>
       <c r="Q191" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R191" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S191" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T191" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507190</v>
       </c>
       <c r="U191" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Twitter is a sewer. It brings out the worst in humanity" ?</v>
       </c>
       <c r="V191" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W191" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X191" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y191" s="26" t="str">
         <f t="shared" si="55"/>
@@ -22087,11 +22104,11 @@
       </c>
       <c r="J192" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" s="26">
         <f t="shared" si="58"/>
@@ -22105,43 +22122,43 @@
       </c>
       <c r="O192" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507191</v>
+        <v/>
       </c>
       <c r="P192" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Greatness comes from the habit of being attentive to detail." ?</v>
+        <v/>
       </c>
       <c r="Q192" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R192" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S192" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T192" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507191</v>
       </c>
       <c r="U192" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Greatness is the accumulation of attention to detail - Premier Zhou" ?</v>
       </c>
       <c r="V192" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W192" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X192" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y192" s="26" t="str">
         <f t="shared" si="55"/>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -2465,10 +2465,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2550,16 +2550,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2574,15 +2605,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,15 +2627,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2618,32 +2642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2657,6 +2657,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -2665,15 +2673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2730,37 +2730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2778,7 +2754,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2790,19 +2790,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,49 +2838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2868,31 +2856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2905,6 +2869,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,30 +3022,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3061,16 +3037,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3091,6 +3076,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3106,142 +3106,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3666,8 +3666,8 @@
   <sheetPr/>
   <dimension ref="A1:AE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="11.6"/>
@@ -3823,8 +3823,8 @@
         <v>0</v>
       </c>
       <c r="O2" s="26" t="str">
-        <f ca="1">T2</f>
-        <v>L30501001</v>
+        <f ca="1">IF(J12=1,CONCATENATE("L2",$F2),"")</f>
+        <v>L20501001</v>
       </c>
       <c r="P2" s="26" t="str">
         <f ca="1">IF(J2=1,CONCATENATE("What is the concept of """,H2,""" ?"),"")</f>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="J3" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="26">
         <f ca="1" t="shared" ref="K3:K66" si="1">IF(J3&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="26">
         <f t="shared" ref="L3:L66" si="2">IF(LEN(H3)&gt;30,0,1)</f>
@@ -3920,43 +3920,43 @@
       </c>
       <c r="O3" s="26" t="str">
         <f ca="1">IF(J3=1,CONCATENATE("L2",$F3),"")</f>
-        <v>L20501002</v>
+        <v/>
       </c>
       <c r="P3" s="26" t="str">
         <f ca="1" t="shared" ref="P3:P66" si="3">IF(J3=1,CONCATENATE("What is the concept of """,H3,""" ?"),"")</f>
-        <v>What is the concept of "It was cold in April, and the sound of the bell stuck 13 times" ?</v>
+        <v/>
       </c>
       <c r="Q3" s="26" t="str">
         <f ca="1" t="shared" ref="Q3:Q66" si="4">IF(J3=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R3" s="26" t="str">
         <f ca="1" t="shared" ref="R3:R66" si="5">IF(J3=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S3" s="26" t="str">
         <f ca="1" t="shared" ref="S3:S66" si="6">IF(J3=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T3" s="26" t="str">
         <f ca="1">IF(K3=1,CONCATENATE("L3",$F3),"")</f>
-        <v/>
+        <v>L30501002</v>
       </c>
       <c r="U3" s="26" t="str">
         <f ca="1" t="shared" ref="U3:U66" si="7">IF(K3=1,CONCATENATE("What is the meaning of """,G3,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "It was a bright cold day in April, and the clocks were striking 13" ?</v>
       </c>
       <c r="V3" s="26" t="str">
         <f ca="1" t="shared" ref="V3:V66" si="8">IF(K3=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W3" s="26" t="str">
         <f ca="1" t="shared" ref="W3:W66" si="9">IF(K3=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X3" s="26" t="str">
         <f ca="1" t="shared" ref="X3:X66" si="10">IF(K3=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y3" s="26" t="str">
         <f t="shared" ref="Y3:Y66" si="11">IF(L3=1,CONCATENATE("L4",$F3),"")</f>
@@ -4094,11 +4094,11 @@
       </c>
       <c r="J5" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="26">
         <f t="shared" si="2"/>
@@ -4112,43 +4112,43 @@
       </c>
       <c r="O5" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501004</v>
+        <v/>
       </c>
       <c r="P5" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Everything about Truman was late: he became a father at 40, a senator at 58 and president at 60." ?</v>
+        <v/>
       </c>
       <c r="Q5" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R5" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S5" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T5" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501004</v>
       </c>
       <c r="U5" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Everything came late to Truman: a father at 40, a senator at 58 and president at 60" ?</v>
       </c>
       <c r="V5" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W5" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X5" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y5" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="J6" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="2"/>
@@ -4208,43 +4208,43 @@
       </c>
       <c r="O6" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20501005</v>
       </c>
       <c r="P6" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "The whole world is arguing about whether to wear a mask or not." ?</v>
       </c>
       <c r="Q6" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R6" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S6" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T6" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30501005</v>
+        <v/>
       </c>
       <c r="U6" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "It is a debate heard around the world: to wear or not to wear a face mask." ?</v>
+        <v/>
       </c>
       <c r="V6" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W6" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X6" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y6" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4260,7 +4260,7 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
     </row>
-    <row r="7" ht="35" spans="1:31">
+    <row r="7" ht="24" spans="1:31">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" ht="47" spans="1:31">
+    <row r="9" ht="35" spans="1:31">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4478,11 +4478,11 @@
       </c>
       <c r="J9" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="26">
         <f t="shared" si="2"/>
@@ -4496,43 +4496,43 @@
       </c>
       <c r="O9" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501008</v>
+        <v/>
       </c>
       <c r="P9" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "There is only one topic this week: Hillary's health" ?</v>
+        <v/>
       </c>
       <c r="Q9" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R9" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S9" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T9" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501008</v>
       </c>
       <c r="U9" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "There is only one topic of conversation this week: Hillary’s health" ?</v>
       </c>
       <c r="V9" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W9" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X9" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y9" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4644,7 +4644,7 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" ht="58" spans="1:31">
+    <row r="11" ht="82" spans="1:31">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -4766,11 +4766,11 @@
       </c>
       <c r="J12" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="2"/>
@@ -4783,44 +4783,44 @@
         <v>0</v>
       </c>
       <c r="O12" s="26" t="str">
-        <f ca="1" t="shared" si="13"/>
-        <v/>
+        <f ca="1">IF(J12=1,CONCATENATE("L2",$F12),"")</f>
+        <v>L20502011</v>
       </c>
       <c r="P12" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "the girl that is so pretty that everyone stops driving to look at her " ?</v>
       </c>
       <c r="Q12" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R12" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S12" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T12" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30502011</v>
+        <v/>
       </c>
       <c r="U12" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "traffic-stopping girl" ?</v>
+        <v/>
       </c>
       <c r="V12" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W12" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X12" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y12" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4836,7 +4836,7 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="13"/>
     </row>
-    <row r="13" ht="24" spans="1:31">
+    <row r="13" ht="35" spans="1:31">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -5054,11 +5054,11 @@
       </c>
       <c r="J15" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="26">
         <f t="shared" si="2"/>
@@ -5072,43 +5072,43 @@
       </c>
       <c r="O15" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20502014</v>
       </c>
       <c r="P15" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "very exciting" ?</v>
       </c>
       <c r="Q15" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R15" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S15" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T15" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30502014</v>
+        <v/>
       </c>
       <c r="U15" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "white-knuckle ride " ?</v>
+        <v/>
       </c>
       <c r="V15" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W15" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X15" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y15" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5150,11 +5150,11 @@
       </c>
       <c r="J16" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="26">
         <f t="shared" si="2"/>
@@ -5168,43 +5168,43 @@
       </c>
       <c r="O16" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20502015</v>
+        <v/>
       </c>
       <c r="P16" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "in a dangerous and delicate situation" ?</v>
+        <v/>
       </c>
       <c r="Q16" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R16" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S16" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T16" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30502015</v>
       </c>
       <c r="U16" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "walking a right rope" ?</v>
       </c>
       <c r="V16" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W16" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X16" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y16" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5606,7 +5606,7 @@
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
     </row>
-    <row r="21" ht="24" spans="1:31">
+    <row r="21" ht="35" spans="1:31">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -5928,11 +5928,11 @@
       </c>
       <c r="J24" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="26">
         <f t="shared" si="2"/>
@@ -5946,43 +5946,43 @@
       </c>
       <c r="O24" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503023</v>
+        <v/>
       </c>
       <c r="P24" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I need some tea but I also need some sympathy" ?</v>
+        <v/>
       </c>
       <c r="Q24" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R24" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S24" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T24" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503023</v>
       </c>
       <c r="U24" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I need some tea and sympathy" ?</v>
       </c>
       <c r="V24" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W24" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X24" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y24" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6096,7 +6096,7 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
     </row>
-    <row r="26" ht="24" spans="1:31">
+    <row r="26" ht="47" spans="1:31">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -6222,11 +6222,11 @@
       </c>
       <c r="J27" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="26">
         <f t="shared" si="2"/>
@@ -6240,43 +6240,43 @@
       </c>
       <c r="O27" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503026</v>
+        <v/>
       </c>
       <c r="P27" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He is impatient and needs milk." ?</v>
+        <v/>
       </c>
       <c r="Q27" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R27" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S27" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T27" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503026</v>
       </c>
       <c r="U27" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He is low on milk and patience" ?</v>
       </c>
       <c r="V27" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W27" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X27" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y27" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6418,11 +6418,11 @@
       </c>
       <c r="J29" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="26">
         <f t="shared" si="2"/>
@@ -6436,43 +6436,43 @@
       </c>
       <c r="O29" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503028</v>
+        <v/>
       </c>
       <c r="P29" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The terrorist has been killed. The General Moto Co. is kept alive." ?</v>
+        <v/>
       </c>
       <c r="Q29" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R29" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S29" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T29" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503028</v>
       </c>
       <c r="U29" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "“Osama bin Laden is dead, and GM is alive”" ?</v>
       </c>
       <c r="V29" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W29" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X29" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y29" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6516,11 +6516,11 @@
       </c>
       <c r="J30" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="2"/>
@@ -6534,43 +6534,43 @@
       </c>
       <c r="O30" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503029</v>
+        <v/>
       </c>
       <c r="P30" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "We are at our best when things are at their worst. " ?</v>
+        <v/>
       </c>
       <c r="Q30" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R30" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S30" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T30" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503029</v>
       </c>
       <c r="U30" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "When things are at their worst, we are at our best." ?</v>
       </c>
       <c r="V30" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W30" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X30" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y30" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6810,11 +6810,11 @@
       </c>
       <c r="J33" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="26">
         <f t="shared" si="2"/>
@@ -6828,43 +6828,43 @@
       </c>
       <c r="O33" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503032</v>
+        <v/>
       </c>
       <c r="P33" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I accept what cannot be avoided" ?</v>
+        <v/>
       </c>
       <c r="Q33" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R33" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S33" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T33" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503032</v>
       </c>
       <c r="U33" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I bow to the inevitable" ?</v>
       </c>
       <c r="V33" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W33" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X33" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y33" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6908,11 +6908,11 @@
       </c>
       <c r="J34" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="2"/>
@@ -6926,43 +6926,43 @@
       </c>
       <c r="O34" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503033</v>
       </c>
       <c r="P34" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "He hates imprecise things" ?</v>
       </c>
       <c r="Q34" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R34" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S34" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T34" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503033</v>
+        <v/>
       </c>
       <c r="U34" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "He hates inexactitudes" ?</v>
+        <v/>
       </c>
       <c r="V34" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W34" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X34" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y34" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6978,7 +6978,7 @@
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" ht="24" spans="1:31">
+    <row r="35" ht="35" spans="1:31">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -7006,11 +7006,11 @@
       </c>
       <c r="J35" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="26">
         <f t="shared" si="2"/>
@@ -7024,43 +7024,43 @@
       </c>
       <c r="O35" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503034</v>
+        <v/>
       </c>
       <c r="P35" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "She likes to be make a big show or look impressive" ?</v>
+        <v/>
       </c>
       <c r="Q35" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R35" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S35" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T35" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503034</v>
       </c>
       <c r="U35" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "She loves grandiosity" ?</v>
       </c>
       <c r="V35" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W35" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X35" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y35" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7076,7 +7076,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" ht="35" spans="1:31">
+    <row r="36" ht="47" spans="1:31">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -7104,11 +7104,11 @@
       </c>
       <c r="J36" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="26">
         <f t="shared" si="2"/>
@@ -7122,43 +7122,43 @@
       </c>
       <c r="O36" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504035</v>
       </c>
       <c r="P36" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Your weight around the waist will start to show up in middle age" ?</v>
       </c>
       <c r="Q36" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R36" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S36" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T36" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504035</v>
+        <v/>
       </c>
       <c r="U36" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Middle age is when your age starts to show around your middle" ?</v>
+        <v/>
       </c>
       <c r="V36" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W36" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X36" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y36" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7272,7 +7272,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" ht="47" spans="1:31">
+    <row r="38" ht="35" spans="1:31">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -7300,11 +7300,11 @@
       </c>
       <c r="J38" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="26">
         <f t="shared" si="2"/>
@@ -7318,43 +7318,43 @@
       </c>
       <c r="O38" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504037</v>
       </c>
       <c r="P38" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Washington falls behind, disjoints, and falls behind the time." ?</v>
       </c>
       <c r="Q38" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R38" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S38" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T38" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504037</v>
+        <v/>
       </c>
       <c r="U38" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Washington is out of step, out of touch and out of time" ?</v>
+        <v/>
       </c>
       <c r="V38" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W38" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X38" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y38" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7398,11 +7398,11 @@
       </c>
       <c r="J39" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="26">
         <f t="shared" si="2"/>
@@ -7416,43 +7416,43 @@
       </c>
       <c r="O39" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504038</v>
       </c>
       <c r="P39" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I come from a middle class family in the middle of the last century in Middle America." ?</v>
       </c>
       <c r="Q39" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R39" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S39" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T39" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504038</v>
+        <v/>
       </c>
       <c r="U39" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I came from a middle class family in the middle of America in the middle of the last century" ?</v>
+        <v/>
       </c>
       <c r="V39" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W39" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X39" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y39" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7468,7 +7468,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" ht="24" spans="1:31">
+    <row r="40" ht="35" spans="1:31">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -7496,11 +7496,11 @@
       </c>
       <c r="J40" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" si="2"/>
@@ -7514,43 +7514,43 @@
       </c>
       <c r="O40" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504039</v>
       </c>
       <c r="P40" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "It's no good annoying the boss" ?</v>
       </c>
       <c r="Q40" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R40" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S40" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T40" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504039</v>
+        <v/>
       </c>
       <c r="U40" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "There is no upside to upsetting the boss" ?</v>
+        <v/>
       </c>
       <c r="V40" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W40" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X40" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y40" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7594,11 +7594,11 @@
       </c>
       <c r="J41" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="26">
         <f t="shared" si="2"/>
@@ -7612,43 +7612,43 @@
       </c>
       <c r="O41" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504040</v>
+        <v/>
       </c>
       <c r="P41" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The responsibility lies with me alone" ?</v>
+        <v/>
       </c>
       <c r="Q41" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R41" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S41" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T41" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504040</v>
       </c>
       <c r="U41" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "The responsibility is mine, and mine alone" ?</v>
       </c>
       <c r="V41" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W41" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X41" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y41" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7888,11 +7888,11 @@
       </c>
       <c r="J44" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="26">
         <f t="shared" si="2"/>
@@ -7906,43 +7906,43 @@
       </c>
       <c r="O44" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504043</v>
       </c>
       <c r="P44" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "He is the best lawyer." ?</v>
       </c>
       <c r="Q44" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R44" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S44" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T44" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504043</v>
+        <v/>
       </c>
       <c r="U44" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "He is a lawyer’s lawyer" ?</v>
+        <v/>
       </c>
       <c r="V44" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W44" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X44" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y44" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7986,11 +7986,11 @@
       </c>
       <c r="J45" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="26">
         <f t="shared" si="2"/>
@@ -8004,43 +8004,43 @@
       </c>
       <c r="O45" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504044</v>
       </c>
       <c r="P45" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "You feel happy as a passenger on ANA" ?</v>
       </c>
       <c r="Q45" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R45" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S45" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T45" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504044</v>
+        <v/>
       </c>
       <c r="U45" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "“Time flies when you fly ANA”" ?</v>
+        <v/>
       </c>
       <c r="V45" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W45" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X45" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y45" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8084,11 +8084,11 @@
       </c>
       <c r="J46" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="26">
         <f t="shared" si="2"/>
@@ -8102,43 +8102,43 @@
       </c>
       <c r="O46" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504045</v>
       </c>
       <c r="P46" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Personal service at low price" ?</v>
       </c>
       <c r="Q46" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R46" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S46" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T46" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504045</v>
+        <v/>
       </c>
       <c r="U46" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Custom-made at non-custom prices" ?</v>
+        <v/>
       </c>
       <c r="V46" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W46" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X46" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y46" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="J47" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="26">
         <f t="shared" si="2"/>
@@ -8200,43 +8200,43 @@
       </c>
       <c r="O47" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504046</v>
       </c>
       <c r="P47" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Fight crime. Fight things that cause crime." ?</v>
       </c>
       <c r="Q47" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R47" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S47" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T47" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504046</v>
+        <v/>
       </c>
       <c r="U47" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Tough on crime. Tougher on the causes of crime.—Blair" ?</v>
+        <v/>
       </c>
       <c r="V47" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W47" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X47" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y47" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8280,11 +8280,11 @@
       </c>
       <c r="J48" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="26">
         <f t="shared" si="2"/>
@@ -8298,43 +8298,43 @@
       </c>
       <c r="O48" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504047</v>
+        <v/>
       </c>
       <c r="P48" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Hillary is getting a lot of money from big business" ?</v>
+        <v/>
       </c>
       <c r="Q48" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R48" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S48" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T48" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504047</v>
       </c>
       <c r="U48" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Hillary is getting big money from “big money”" ?</v>
       </c>
       <c r="V48" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W48" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X48" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y48" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8448,7 +8448,7 @@
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
     </row>
-    <row r="50" ht="35" spans="1:31">
+    <row r="50" ht="47" spans="1:31">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -8476,11 +8476,11 @@
       </c>
       <c r="J50" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="26">
         <f t="shared" si="2"/>
@@ -8494,43 +8494,43 @@
       </c>
       <c r="O50" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504049</v>
       </c>
       <c r="P50" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Markets fell after the prime minister stepped down" ?</v>
       </c>
       <c r="Q50" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R50" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S50" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T50" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504049</v>
+        <v/>
       </c>
       <c r="U50" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "The prime minister stepped down and took the market down with him" ?</v>
+        <v/>
       </c>
       <c r="V50" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W50" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X50" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y50" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8546,7 +8546,7 @@
       <c r="AD50" s="14"/>
       <c r="AE50" s="14"/>
     </row>
-    <row r="51" ht="58" spans="1:31">
+    <row r="51" ht="47" spans="1:31">
       <c r="A51" s="2">
         <v>5</v>
       </c>
@@ -8574,11 +8574,11 @@
       </c>
       <c r="J51" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="26">
         <f t="shared" si="2"/>
@@ -8592,43 +8592,43 @@
       </c>
       <c r="O51" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504050</v>
+        <v/>
       </c>
       <c r="P51" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Brady's life was changed by a bullet from a gun owned by someone who should not have owned it." ?</v>
+        <v/>
       </c>
       <c r="Q51" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R51" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S51" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T51" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504050</v>
       </c>
       <c r="U51" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "All it took was one gun, one bullet and one man who shouldn't own a gun to change Brady's life" ?</v>
       </c>
       <c r="V51" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W51" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X51" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y51" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8766,11 +8766,11 @@
       </c>
       <c r="J53" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="26">
         <f t="shared" si="2"/>
@@ -8784,43 +8784,43 @@
       </c>
       <c r="O53" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20505052</v>
+        <v/>
       </c>
       <c r="P53" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "They focus on winning elections, not the next generation" ?</v>
+        <v/>
       </c>
       <c r="Q53" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R53" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S53" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T53" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30505052</v>
       </c>
       <c r="U53" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Politicians worry more about the next election than the next generation" ?</v>
       </c>
       <c r="V53" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W53" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X53" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y53" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8836,7 +8836,7 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="13"/>
     </row>
-    <row r="54" ht="24" spans="1:31">
+    <row r="54" ht="35" spans="1:31">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -9054,11 +9054,11 @@
       </c>
       <c r="J56" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="26">
         <f t="shared" si="2"/>
@@ -9072,43 +9072,43 @@
       </c>
       <c r="O56" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20505055</v>
+        <v/>
       </c>
       <c r="P56" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The urge to spend a lot of money " ?</v>
+        <v/>
       </c>
       <c r="Q56" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R56" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S56" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T56" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30505055</v>
       </c>
       <c r="U56" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "The urge to splurge" ?</v>
       </c>
       <c r="V56" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W56" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X56" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y56" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9246,11 +9246,11 @@
       </c>
       <c r="J58" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="26">
         <f t="shared" si="2"/>
@@ -9264,43 +9264,43 @@
       </c>
       <c r="O58" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505057</v>
       </c>
       <c r="P58" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "If there is blood, there is the leading news." ?</v>
       </c>
       <c r="Q58" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R58" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S58" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T58" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505057</v>
+        <v/>
       </c>
       <c r="U58" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "If it bleeds, it leads" ?</v>
+        <v/>
       </c>
       <c r="V58" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W58" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X58" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y58" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="J59" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="26">
         <f t="shared" si="2"/>
@@ -9360,43 +9360,43 @@
       </c>
       <c r="O59" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20505058</v>
+        <v/>
       </c>
       <c r="P59" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Flatters you in important places." ?</v>
+        <v/>
       </c>
       <c r="Q59" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R59" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S59" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T59" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30505058</v>
       </c>
       <c r="U59" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Flatters where it matters.--Bra ad" ?</v>
       </c>
       <c r="V59" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W59" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X59" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y59" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9508,7 +9508,7 @@
       <c r="AD60" s="14"/>
       <c r="AE60" s="14"/>
     </row>
-    <row r="61" ht="24" spans="1:31">
+    <row r="61" ht="35" spans="1:31">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -9534,11 +9534,11 @@
       </c>
       <c r="J61" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="26">
         <f t="shared" si="2"/>
@@ -9552,43 +9552,43 @@
       </c>
       <c r="O61" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20505060</v>
+        <v/>
       </c>
       <c r="P61" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "If the gloves don't fit your hands, you must be acquitted of the crime." ?</v>
+        <v/>
       </c>
       <c r="Q61" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R61" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S61" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T61" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30505060</v>
       </c>
       <c r="U61" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "If it doesn't fit, you must acquit" ?</v>
       </c>
       <c r="V61" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W61" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X61" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y61" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9630,11 +9630,11 @@
       </c>
       <c r="J62" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="26">
         <f t="shared" si="2"/>
@@ -9648,43 +9648,43 @@
       </c>
       <c r="O62" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20505061</v>
+        <v/>
       </c>
       <c r="P62" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Remain calm under difficulty." ?</v>
+        <v/>
       </c>
       <c r="Q62" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R62" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S62" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T62" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30505061</v>
       </c>
       <c r="U62" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Composure under pressure" ?</v>
       </c>
       <c r="V62" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W62" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X62" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y62" s="26" t="str">
         <f t="shared" si="11"/>
@@ -10110,11 +10110,11 @@
       </c>
       <c r="J67" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="26">
         <f ca="1" t="shared" ref="K67:K130" si="16">IF(J67&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="26">
         <f t="shared" ref="L67:L130" si="17">IF(LEN(H67)&gt;30,0,1)</f>
@@ -10128,43 +10128,43 @@
       </c>
       <c r="O67" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505066</v>
       </c>
       <c r="P67" s="26" t="str">
         <f ca="1" t="shared" ref="P67:P130" si="18">IF(J67=1,CONCATENATE("What is the concept of """,H67,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "seafood and steak served as a single course" ?</v>
       </c>
       <c r="Q67" s="26" t="str">
         <f ca="1" t="shared" ref="Q67:Q130" si="19">IF(J67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R67" s="26" t="str">
         <f ca="1" t="shared" ref="R67:R130" si="20">IF(J67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S67" s="26" t="str">
         <f ca="1" t="shared" ref="S67:S130" si="21">IF(J67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T67" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505066</v>
+        <v/>
       </c>
       <c r="U67" s="26" t="str">
         <f ca="1" t="shared" ref="U67:U130" si="22">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v>What is the meaning of "surf and turf" ?</v>
+        <v/>
       </c>
       <c r="V67" s="26" t="str">
         <f ca="1" t="shared" ref="V67:V130" si="23">IF(K67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W67" s="26" t="str">
         <f ca="1" t="shared" ref="W67:W130" si="24">IF(K67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X67" s="26" t="str">
         <f ca="1" t="shared" ref="X67:X130" si="25">IF(K67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y67" s="26" t="str">
         <f t="shared" ref="Y67:Y130" si="26">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -10180,7 +10180,7 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="13"/>
     </row>
-    <row r="68" ht="47" spans="1:31">
+    <row r="68" ht="24" spans="1:31">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -10276,7 +10276,7 @@
       <c r="AD68" s="14"/>
       <c r="AE68" s="14"/>
     </row>
-    <row r="69" ht="35" spans="1:31">
+    <row r="69" ht="24" spans="1:31">
       <c r="A69" s="2">
         <v>5</v>
       </c>
@@ -10494,11 +10494,11 @@
       </c>
       <c r="J71" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="26">
         <f t="shared" si="17"/>
@@ -10512,43 +10512,43 @@
       </c>
       <c r="O71" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20505070</v>
       </c>
       <c r="P71" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "In the modern economy, we use our knowledge to earn money. " ?</v>
       </c>
       <c r="Q71" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R71" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S71" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T71" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30505070</v>
+        <v/>
       </c>
       <c r="U71" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "In the modern economy, we earn by what we learn" ?</v>
+        <v/>
       </c>
       <c r="V71" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W71" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X71" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y71" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10564,7 +10564,7 @@
       <c r="AD71" s="14"/>
       <c r="AE71" s="14"/>
     </row>
-    <row r="72" ht="35" spans="1:31">
+    <row r="72" ht="47" spans="1:31">
       <c r="A72" s="2">
         <v>5</v>
       </c>
@@ -10686,11 +10686,11 @@
       </c>
       <c r="J73" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="26">
         <f t="shared" si="17"/>
@@ -10704,43 +10704,43 @@
       </c>
       <c r="O73" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505072</v>
+        <v/>
       </c>
       <c r="P73" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "a car accident in which there is not a lot of damage " ?</v>
+        <v/>
       </c>
       <c r="Q73" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R73" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S73" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T73" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505072</v>
       </c>
       <c r="U73" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Fender-bender" ?</v>
       </c>
       <c r="V73" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W73" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X73" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y73" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="J74" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="26">
         <f t="shared" si="17"/>
@@ -10800,43 +10800,43 @@
       </c>
       <c r="O74" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505073</v>
+        <v/>
       </c>
       <c r="P74" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "You can only succeed if you believe in yourself." ?</v>
+        <v/>
       </c>
       <c r="Q74" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R74" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S74" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T74" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505073</v>
       </c>
       <c r="U74" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "To achieve you must first believe" ?</v>
       </c>
       <c r="V74" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W74" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X74" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y74" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10852,7 +10852,7 @@
       <c r="AD74" s="13"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" ht="47" spans="1:31">
+    <row r="75" ht="35" spans="1:31">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -10878,11 +10878,11 @@
       </c>
       <c r="J75" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="26">
         <f t="shared" si="17"/>
@@ -10896,43 +10896,43 @@
       </c>
       <c r="O75" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20505074</v>
       </c>
       <c r="P75" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Don't do break the law unless you are willing and able to accept the punishment." ?</v>
       </c>
       <c r="Q75" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R75" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S75" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T75" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30505074</v>
+        <v/>
       </c>
       <c r="U75" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Don't do the crime if you can't do the time" ?</v>
+        <v/>
       </c>
       <c r="V75" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W75" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X75" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y75" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10974,11 +10974,11 @@
       </c>
       <c r="J76" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="26">
         <f t="shared" si="17"/>
@@ -10992,43 +10992,43 @@
       </c>
       <c r="O76" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506075</v>
+        <v/>
       </c>
       <c r="P76" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Jack Ma is too overconfident." ?</v>
+        <v/>
       </c>
       <c r="Q76" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R76" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S76" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T76" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506075</v>
       </c>
       <c r="U76" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Jack Ma is too big for his boots" ?</v>
       </c>
       <c r="V76" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W76" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X76" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y76" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11044,7 +11044,7 @@
       <c r="AD76" s="13"/>
       <c r="AE76" s="13"/>
     </row>
-    <row r="77" ht="24" spans="1:31">
+    <row r="77" ht="47" spans="1:31">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="AD77" s="13"/>
       <c r="AE77" s="13"/>
     </row>
-    <row r="78" ht="35" spans="1:31">
+    <row r="78" ht="47" spans="1:31">
       <c r="A78" s="2">
         <v>5</v>
       </c>
@@ -11358,11 +11358,11 @@
       </c>
       <c r="J80" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="26">
         <f t="shared" si="17"/>
@@ -11376,43 +11376,43 @@
       </c>
       <c r="O80" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506079</v>
       </c>
       <c r="P80" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Details determine success or failure." ?</v>
       </c>
       <c r="Q80" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R80" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S80" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T80" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506079</v>
+        <v/>
       </c>
       <c r="U80" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "The devil is in the detail" ?</v>
+        <v/>
       </c>
       <c r="V80" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W80" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X80" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y80" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11454,11 +11454,11 @@
       </c>
       <c r="J81" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="26">
         <f t="shared" si="17"/>
@@ -11472,43 +11472,43 @@
       </c>
       <c r="O81" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506080</v>
+        <v/>
       </c>
       <c r="P81" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "be very similar" ?</v>
+        <v/>
       </c>
       <c r="Q81" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R81" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S81" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T81" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506080</v>
       </c>
       <c r="U81" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Like two peas in a pod" ?</v>
       </c>
       <c r="V81" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W81" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X81" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y81" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11524,7 +11524,7 @@
       <c r="AD81" s="13"/>
       <c r="AE81" s="13"/>
     </row>
-    <row r="82" ht="35" spans="1:31">
+    <row r="82" ht="58" spans="1:31">
       <c r="A82" s="2">
         <v>5</v>
       </c>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="J84" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="26">
         <f t="shared" si="17"/>
@@ -11760,43 +11760,43 @@
       </c>
       <c r="O84" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506083</v>
       </c>
       <c r="P84" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "He is in good health." ?</v>
       </c>
       <c r="Q84" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R84" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S84" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T84" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506083</v>
+        <v/>
       </c>
       <c r="U84" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "He is as fit as a fiddle" ?</v>
+        <v/>
       </c>
       <c r="V84" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W84" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X84" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y84" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11934,11 +11934,11 @@
       </c>
       <c r="J86" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="26">
         <f t="shared" si="17"/>
@@ -11952,43 +11952,43 @@
       </c>
       <c r="O86" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506085</v>
       </c>
       <c r="P86" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "calm and composed" ?</v>
       </c>
       <c r="Q86" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R86" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S86" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T86" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506085</v>
+        <v/>
       </c>
       <c r="U86" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "cool as a cucumber" ?</v>
+        <v/>
       </c>
       <c r="V86" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W86" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X86" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y86" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12030,11 +12030,11 @@
       </c>
       <c r="J87" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" s="26">
         <f t="shared" si="17"/>
@@ -12048,43 +12048,43 @@
       </c>
       <c r="O87" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506086</v>
       </c>
       <c r="P87" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "the call to someone you don't know" ?</v>
       </c>
       <c r="Q87" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R87" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S87" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T87" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506086</v>
+        <v/>
       </c>
       <c r="U87" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "cold call" ?</v>
+        <v/>
       </c>
       <c r="V87" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W87" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X87" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y87" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12196,7 +12196,7 @@
       <c r="AD88" s="13"/>
       <c r="AE88" s="13"/>
     </row>
-    <row r="89" ht="35" spans="1:31">
+    <row r="89" ht="58" spans="1:31">
       <c r="A89" s="2">
         <v>5</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="AD90" s="13"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" ht="35" spans="1:31">
+    <row r="91" ht="24" spans="1:31">
       <c r="A91" s="2">
         <v>5</v>
       </c>
@@ -12414,11 +12414,11 @@
       </c>
       <c r="J91" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="26">
         <f t="shared" si="17"/>
@@ -12432,43 +12432,43 @@
       </c>
       <c r="O91" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506090</v>
       </c>
       <c r="P91" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "innate biological factors or upbringing or life experience " ?</v>
       </c>
       <c r="Q91" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R91" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S91" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T91" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506090</v>
+        <v/>
       </c>
       <c r="U91" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "nature-nurture" ?</v>
+        <v/>
       </c>
       <c r="V91" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W91" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X91" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y91" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12510,11 +12510,11 @@
       </c>
       <c r="J92" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="26">
         <f t="shared" si="17"/>
@@ -12528,43 +12528,43 @@
       </c>
       <c r="O92" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506091</v>
+        <v/>
       </c>
       <c r="P92" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "consumption to show off" ?</v>
+        <v/>
       </c>
       <c r="Q92" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R92" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S92" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T92" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506091</v>
       </c>
       <c r="U92" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "conspicuous consumption" ?</v>
       </c>
       <c r="V92" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W92" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X92" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y92" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12606,11 +12606,11 @@
       </c>
       <c r="J93" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="26">
         <f t="shared" si="17"/>
@@ -12624,43 +12624,43 @@
       </c>
       <c r="O93" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506092</v>
+        <v/>
       </c>
       <c r="P93" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Hope is coming" ?</v>
+        <v/>
       </c>
       <c r="Q93" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R93" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S93" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T93" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506092</v>
       </c>
       <c r="U93" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Hope is on the horizon" ?</v>
       </c>
       <c r="V93" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W93" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X93" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y93" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12676,7 +12676,7 @@
       <c r="AD93" s="14"/>
       <c r="AE93" s="14"/>
     </row>
-    <row r="94" ht="24" spans="1:31">
+    <row r="94" ht="35" spans="1:31">
       <c r="A94" s="2">
         <v>5</v>
       </c>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="J94" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="26">
         <f t="shared" si="17"/>
@@ -12720,43 +12720,43 @@
       </c>
       <c r="O94" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506093</v>
+        <v/>
       </c>
       <c r="P94" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "a quick yet thorough tutorial on some topic or process." ?</v>
+        <v/>
       </c>
       <c r="Q94" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R94" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S94" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T94" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506093</v>
       </c>
       <c r="U94" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "a crash course" ?</v>
       </c>
       <c r="V94" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W94" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X94" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y94" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12772,7 +12772,7 @@
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
     </row>
-    <row r="95" ht="24" spans="1:31">
+    <row r="95" ht="35" spans="1:31">
       <c r="A95" s="2">
         <v>5</v>
       </c>
@@ -12868,7 +12868,7 @@
       <c r="AD95" s="14"/>
       <c r="AE95" s="14"/>
     </row>
-    <row r="96" ht="35" spans="1:31">
+    <row r="96" ht="24" spans="1:31">
       <c r="A96" s="2">
         <v>5</v>
       </c>
@@ -12894,11 +12894,11 @@
       </c>
       <c r="J96" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="26">
         <f t="shared" si="17"/>
@@ -12912,43 +12912,43 @@
       </c>
       <c r="O96" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506095</v>
       </c>
       <c r="P96" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "the differences in opinions, values, etc., among different age groups" ?</v>
       </c>
       <c r="Q96" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R96" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S96" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T96" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506095</v>
+        <v/>
       </c>
       <c r="U96" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "generation gap" ?</v>
+        <v/>
       </c>
       <c r="V96" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W96" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X96" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y96" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12964,7 +12964,7 @@
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
     </row>
-    <row r="97" ht="35" spans="1:31">
+    <row r="97" ht="24" spans="1:31">
       <c r="A97" s="2">
         <v>5</v>
       </c>
@@ -12990,11 +12990,11 @@
       </c>
       <c r="J97" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="26">
         <f t="shared" si="17"/>
@@ -13008,43 +13008,43 @@
       </c>
       <c r="O97" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506096</v>
       </c>
       <c r="P97" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "without clear or understandable logic, order, purpose, or meaning." ?</v>
       </c>
       <c r="Q97" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R97" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S97" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T97" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506096</v>
+        <v/>
       </c>
       <c r="U97" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "without rhyme or reason" ?</v>
+        <v/>
       </c>
       <c r="V97" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W97" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X97" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y97" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13086,11 +13086,11 @@
       </c>
       <c r="J98" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="26">
         <f t="shared" si="17"/>
@@ -13104,43 +13104,43 @@
       </c>
       <c r="O98" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506097</v>
+        <v/>
       </c>
       <c r="P98" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "You are taking risks that put their lives in danger." ?</v>
+        <v/>
       </c>
       <c r="Q98" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R98" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S98" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T98" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506097</v>
       </c>
       <c r="U98" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "You are dicing with death" ?</v>
       </c>
       <c r="V98" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W98" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X98" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y98" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13156,7 +13156,7 @@
       <c r="AD98" s="14"/>
       <c r="AE98" s="14"/>
     </row>
-    <row r="99" ht="24" spans="1:31">
+    <row r="99" ht="35" spans="1:31">
       <c r="A99" s="2">
         <v>5</v>
       </c>
@@ -13470,11 +13470,11 @@
       </c>
       <c r="J102" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="26">
         <f t="shared" si="17"/>
@@ -13488,43 +13488,43 @@
       </c>
       <c r="O102" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506101</v>
       </c>
       <c r="P102" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "having a cumulative negative effect on someone or something" ?</v>
       </c>
       <c r="Q102" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R102" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S102" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T102" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506101</v>
+        <v/>
       </c>
       <c r="U102" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "taking a toll" ?</v>
+        <v/>
       </c>
       <c r="V102" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W102" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X102" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y102" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13566,11 +13566,11 @@
       </c>
       <c r="J103" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" s="26">
         <f t="shared" si="17"/>
@@ -13584,43 +13584,43 @@
       </c>
       <c r="O103" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506102</v>
       </c>
       <c r="P103" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "I got it for almost nothing." ?</v>
       </c>
       <c r="Q103" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R103" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S103" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T103" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506102</v>
+        <v/>
       </c>
       <c r="U103" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "I got it for next to nothing" ?</v>
+        <v/>
       </c>
       <c r="V103" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W103" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X103" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y103" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14046,11 +14046,11 @@
       </c>
       <c r="J108" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="26">
         <f t="shared" si="17"/>
@@ -14064,43 +14064,43 @@
       </c>
       <c r="O108" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506107</v>
+        <v/>
       </c>
       <c r="P108" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "If you see something that doesn't seem quite right, inform the authorities" ?</v>
+        <v/>
       </c>
       <c r="Q108" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R108" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S108" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T108" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506107</v>
       </c>
       <c r="U108" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "If you see something, say something" ?</v>
       </c>
       <c r="V108" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W108" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X108" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y108" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14334,11 +14334,11 @@
       </c>
       <c r="J111" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="26">
         <f t="shared" si="17"/>
@@ -14352,43 +14352,43 @@
       </c>
       <c r="O111" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506110</v>
+        <v/>
       </c>
       <c r="P111" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "out of practice" ?</v>
+        <v/>
       </c>
       <c r="Q111" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R111" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S111" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T111" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506110</v>
       </c>
       <c r="U111" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "ring rust" ?</v>
       </c>
       <c r="V111" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W111" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X111" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y111" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14404,7 +14404,7 @@
       <c r="AD111" s="14"/>
       <c r="AE111" s="14"/>
     </row>
-    <row r="112" ht="35" spans="1:31">
+    <row r="112" ht="24" spans="1:31">
       <c r="A112" s="2">
         <v>5</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="AD114" s="14"/>
       <c r="AE114" s="14"/>
     </row>
-    <row r="115" ht="47" spans="1:31">
+    <row r="115" ht="35" spans="1:31">
       <c r="A115" s="2">
         <v>5</v>
       </c>
@@ -15006,11 +15006,11 @@
       </c>
       <c r="J118" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="26">
         <f t="shared" si="17"/>
@@ -15024,43 +15024,43 @@
       </c>
       <c r="O118" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506117</v>
+        <v/>
       </c>
       <c r="P118" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Women don't get a good deal in marriage." ?</v>
+        <v/>
       </c>
       <c r="Q118" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R118" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S118" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T118" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506117</v>
       </c>
       <c r="U118" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Marriage is a bad bargain for women." ?</v>
       </c>
       <c r="V118" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W118" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X118" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y118" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="J119" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="26">
         <f t="shared" si="17"/>
@@ -15120,43 +15120,43 @@
       </c>
       <c r="O119" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506118</v>
+        <v/>
       </c>
       <c r="P119" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "She is captivated by famous people. " ?</v>
+        <v/>
       </c>
       <c r="Q119" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R119" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S119" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T119" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506118</v>
       </c>
       <c r="U119" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "She is star-struck" ?</v>
       </c>
       <c r="V119" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W119" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X119" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y119" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15390,11 +15390,11 @@
       </c>
       <c r="J122" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="26">
         <f t="shared" si="17"/>
@@ -15408,43 +15408,43 @@
       </c>
       <c r="O122" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506121</v>
+        <v/>
       </c>
       <c r="P122" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "It is impossible" ?</v>
+        <v/>
       </c>
       <c r="Q122" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R122" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S122" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T122" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506121</v>
       </c>
       <c r="U122" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "It is beyond the province of possibility" ?</v>
       </c>
       <c r="V122" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W122" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X122" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y122" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15774,11 +15774,11 @@
       </c>
       <c r="J126" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" s="26">
         <f t="shared" si="17"/>
@@ -15792,43 +15792,43 @@
       </c>
       <c r="O126" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506125</v>
       </c>
       <c r="P126" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "A change of direction" ?</v>
       </c>
       <c r="Q126" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R126" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S126" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T126" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506125</v>
+        <v/>
       </c>
       <c r="U126" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "A course correction" ?</v>
+        <v/>
       </c>
       <c r="V126" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W126" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X126" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y126" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15870,11 +15870,11 @@
       </c>
       <c r="J127" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" s="26">
         <f t="shared" si="17"/>
@@ -15888,43 +15888,43 @@
       </c>
       <c r="O127" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506126</v>
+        <v/>
       </c>
       <c r="P127" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Equal pay" ?</v>
+        <v/>
       </c>
       <c r="Q127" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R127" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S127" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T127" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506126</v>
       </c>
       <c r="U127" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Pay parity" ?</v>
       </c>
       <c r="V127" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W127" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X127" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y127" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15966,11 +15966,11 @@
       </c>
       <c r="J128" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="26">
         <f t="shared" si="17"/>
@@ -15984,43 +15984,43 @@
       </c>
       <c r="O128" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506127</v>
+        <v/>
       </c>
       <c r="P128" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "The stock market plummets" ?</v>
+        <v/>
       </c>
       <c r="Q128" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R128" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S128" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T128" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506127</v>
       </c>
       <c r="U128" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The stock market is in freefall" ?</v>
       </c>
       <c r="V128" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W128" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X128" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y128" s="26" t="str">
         <f t="shared" si="26"/>
@@ -16132,7 +16132,7 @@
       <c r="AD129" s="14"/>
       <c r="AE129" s="14"/>
     </row>
-    <row r="130" ht="24" spans="1:31">
+    <row r="130" ht="35" spans="1:31">
       <c r="A130" s="2">
         <v>5</v>
       </c>
@@ -16254,11 +16254,11 @@
       </c>
       <c r="J131" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="26">
         <f ca="1" t="shared" ref="K131:K158" si="32">IF(J131&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="26">
         <f t="shared" ref="L131:L158" si="33">IF(LEN(H131)&gt;30,0,1)</f>
@@ -16272,43 +16272,43 @@
       </c>
       <c r="O131" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506130</v>
+        <v/>
       </c>
       <c r="P131" s="26" t="str">
         <f ca="1" t="shared" ref="P131:P133" si="34">IF(J131=1,CONCATENATE("What is the concept of """,H131,""" ?"),"")</f>
-        <v>What is the concept of "Think carefully before doing something" ?</v>
+        <v/>
       </c>
       <c r="Q131" s="26" t="str">
         <f ca="1" t="shared" ref="Q131:Q133" si="35">IF(J131=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R131" s="26" t="str">
         <f ca="1" t="shared" ref="R131:R133" si="36">IF(J131=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S131" s="26" t="str">
         <f ca="1" t="shared" ref="S131:S133" si="37">IF(J131=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T131" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506130</v>
       </c>
       <c r="U131" s="26" t="str">
         <f ca="1" t="shared" ref="U131:U133" si="38">IF(K131=1,CONCATENATE("What is the meaning of """,G131,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "Look before you leap" ?</v>
       </c>
       <c r="V131" s="26" t="str">
         <f ca="1" t="shared" ref="V131:V133" si="39">IF(K131=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W131" s="26" t="str">
         <f ca="1" t="shared" ref="W131:W133" si="40">IF(K131=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X131" s="26" t="str">
         <f ca="1" t="shared" ref="X131:X133" si="41">IF(K131=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y131" s="26" t="str">
         <f t="shared" ref="Y131:Y133" si="42">IF(L131=1,CONCATENATE("L4",$F131),"")</f>
@@ -16324,7 +16324,7 @@
       <c r="AD131" s="13"/>
       <c r="AE131" s="13"/>
     </row>
-    <row r="132" ht="24" spans="1:31">
+    <row r="132" ht="35" spans="1:31">
       <c r="A132" s="2">
         <v>5</v>
       </c>
@@ -16350,11 +16350,11 @@
       </c>
       <c r="J132" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="26">
         <f t="shared" si="33"/>
@@ -16368,43 +16368,43 @@
       </c>
       <c r="O132" s="26" t="str">
         <f ca="1" t="shared" ref="O132:O158" si="44">IF(J132=1,CONCATENATE("L2",$F132),"")</f>
-        <v>L20506131</v>
+        <v/>
       </c>
       <c r="P132" s="26" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>What is the concept of "Your social behavior defines who you are" ?</v>
+        <v/>
       </c>
       <c r="Q132" s="26" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R132" s="26" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S132" s="26" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T132" s="26" t="str">
         <f ca="1" t="shared" ref="T132:T133" si="45">IF(K132=1,CONCATENATE("L3",$F132),"")</f>
-        <v/>
+        <v>L30506131</v>
       </c>
       <c r="U132" s="26" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>What is the meaning of "Manners maketh the man" ?</v>
       </c>
       <c r="V132" s="26" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W132" s="26" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X132" s="26" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y132" s="26" t="str">
         <f t="shared" si="42"/>
@@ -16516,7 +16516,7 @@
       <c r="AD133" s="13"/>
       <c r="AE133" s="13"/>
     </row>
-    <row r="134" ht="35" spans="1:31">
+    <row r="134" ht="24" spans="1:31">
       <c r="A134" s="2">
         <v>5</v>
       </c>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="J134" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134" s="26">
         <f t="shared" si="33"/>
@@ -16560,43 +16560,43 @@
       </c>
       <c r="O134" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506133</v>
       </c>
       <c r="P134" s="26" t="str">
         <f ca="1" t="shared" ref="P134:P196" si="46">IF(J134=1,CONCATENATE("What is the concept of """,H134,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "A long, straight highway puts drivers to sleep" ?</v>
       </c>
       <c r="Q134" s="26" t="str">
         <f ca="1" t="shared" ref="Q134:Q196" si="47">IF(J134=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R134" s="26" t="str">
         <f ca="1" t="shared" ref="R134:R196" si="48">IF(J134=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S134" s="26" t="str">
         <f ca="1" t="shared" ref="S134:S196" si="49">IF(J134=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T134" s="26" t="str">
         <f ca="1" t="shared" ref="T134:T196" si="50">IF(K134=1,CONCATENATE("L3",$F134),"")</f>
-        <v>L30506133</v>
+        <v/>
       </c>
       <c r="U134" s="26" t="str">
         <f ca="1" t="shared" ref="U134:U196" si="51">IF(K134=1,CONCATENATE("What is the meaning of """,G134,""" ?"),"")</f>
-        <v>What is the meaning of "highway hypnotism" ?</v>
+        <v/>
       </c>
       <c r="V134" s="26" t="str">
         <f ca="1" t="shared" ref="V134:V196" si="52">IF(K134=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W134" s="26" t="str">
         <f ca="1" t="shared" ref="W134:W196" si="53">IF(K134=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X134" s="26" t="str">
         <f ca="1" t="shared" ref="X134:X196" si="54">IF(K134=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y134" s="26" t="str">
         <f t="shared" ref="Y134:Y196" si="55">IF(L134=1,CONCATENATE("L4",$F134),"")</f>
@@ -16926,11 +16926,11 @@
       </c>
       <c r="J138" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="26">
         <f t="shared" si="33"/>
@@ -16944,43 +16944,43 @@
       </c>
       <c r="O138" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506137</v>
       </c>
       <c r="P138" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Trade threats are just for show" ?</v>
       </c>
       <c r="Q138" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R138" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S138" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T138" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506137</v>
+        <v/>
       </c>
       <c r="U138" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Trade threats are just theatre" ?</v>
+        <v/>
       </c>
       <c r="V138" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W138" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X138" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y138" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="J139" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L139" s="26">
         <f t="shared" si="33"/>
@@ -17040,43 +17040,43 @@
       </c>
       <c r="O139" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506138</v>
       </c>
       <c r="P139" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He took the blame for his boss" ?</v>
       </c>
       <c r="Q139" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R139" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S139" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T139" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506138</v>
+        <v/>
       </c>
       <c r="U139" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He carried the can for his boss" ?</v>
+        <v/>
       </c>
       <c r="V139" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W139" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X139" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y139" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17214,11 +17214,11 @@
       </c>
       <c r="J141" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" s="26">
         <f t="shared" si="33"/>
@@ -17232,43 +17232,43 @@
       </c>
       <c r="O141" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506140</v>
+        <v/>
       </c>
       <c r="P141" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "The business broke the law" ?</v>
+        <v/>
       </c>
       <c r="Q141" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R141" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S141" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T141" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506140</v>
       </c>
       <c r="U141" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "The business fell foul of the law" ?</v>
       </c>
       <c r="V141" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W141" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X141" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y141" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17310,11 +17310,11 @@
       </c>
       <c r="J142" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142" s="26">
         <f t="shared" si="33"/>
@@ -17328,43 +17328,43 @@
       </c>
       <c r="O142" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506141</v>
+        <v/>
       </c>
       <c r="P142" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "You must accept the situation because it can't be changed." ?</v>
+        <v/>
       </c>
       <c r="Q142" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R142" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S142" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T142" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506141</v>
       </c>
       <c r="U142" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "This is the way the cookie crumbles" ?</v>
       </c>
       <c r="V142" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W142" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X142" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y142" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17380,7 +17380,7 @@
       <c r="AD142" s="14"/>
       <c r="AE142" s="14"/>
     </row>
-    <row r="143" ht="47" spans="1:31">
+    <row r="143" ht="35" spans="1:31">
       <c r="A143" s="2">
         <v>5</v>
       </c>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="J144" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" s="26">
         <f t="shared" si="33"/>
@@ -17520,43 +17520,43 @@
       </c>
       <c r="O144" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506143</v>
       </c>
       <c r="P144" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He knows how to talk." ?</v>
       </c>
       <c r="Q144" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R144" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S144" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T144" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506143</v>
+        <v/>
       </c>
       <c r="U144" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He has the gift of the gab" ?</v>
+        <v/>
       </c>
       <c r="V144" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W144" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X144" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y144" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17764,7 +17764,7 @@
       <c r="AD146" s="13"/>
       <c r="AE146" s="13"/>
     </row>
-    <row r="147" ht="24" spans="1:31">
+    <row r="147" ht="35" spans="1:31">
       <c r="A147" s="2">
         <v>5</v>
       </c>
@@ -17860,7 +17860,7 @@
       <c r="AD147" s="14"/>
       <c r="AE147" s="14"/>
     </row>
-    <row r="148" ht="47" spans="1:31">
+    <row r="148" ht="35" spans="1:31">
       <c r="A148" s="2">
         <v>5</v>
       </c>
@@ -17886,11 +17886,11 @@
       </c>
       <c r="J148" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" s="26">
         <f t="shared" si="33"/>
@@ -17904,43 +17904,43 @@
       </c>
       <c r="O148" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506147</v>
       </c>
       <c r="P148" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "treating all students in the same way, making no allowance for individual difference" ?</v>
       </c>
       <c r="Q148" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R148" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S148" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T148" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506147</v>
+        <v/>
       </c>
       <c r="U148" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "cookie cutter approach to education" ?</v>
+        <v/>
       </c>
       <c r="V148" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W148" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X148" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y148" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18174,11 +18174,11 @@
       </c>
       <c r="J151" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" s="26">
         <f t="shared" si="33"/>
@@ -18192,43 +18192,43 @@
       </c>
       <c r="O151" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506150</v>
+        <v/>
       </c>
       <c r="P151" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "It's a difficult challenge" ?</v>
+        <v/>
       </c>
       <c r="Q151" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R151" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S151" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T151" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506150</v>
       </c>
       <c r="U151" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "It's a tall task" ?</v>
       </c>
       <c r="V151" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W151" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X151" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y151" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18340,7 +18340,7 @@
       <c r="AD152" s="14"/>
       <c r="AE152" s="14"/>
     </row>
-    <row r="153" ht="47" spans="1:31">
+    <row r="153" ht="35" spans="1:31">
       <c r="A153" s="2">
         <v>5</v>
       </c>
@@ -18366,11 +18366,11 @@
       </c>
       <c r="J153" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" s="26">
         <f t="shared" si="33"/>
@@ -18384,43 +18384,43 @@
       </c>
       <c r="O153" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506152</v>
       </c>
       <c r="P153" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "an arguement between two people or groups in which both sides criticize each other angrily" ?</v>
       </c>
       <c r="Q153" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R153" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S153" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T153" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506152</v>
+        <v/>
       </c>
       <c r="U153" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "war of words" ?</v>
+        <v/>
       </c>
       <c r="V153" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W153" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X153" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y153" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18436,7 +18436,7 @@
       <c r="AD153" s="14"/>
       <c r="AE153" s="14"/>
     </row>
-    <row r="154" ht="35" spans="1:31">
+    <row r="154" ht="24" spans="1:31">
       <c r="A154" s="2">
         <v>5</v>
       </c>
@@ -18462,11 +18462,11 @@
       </c>
       <c r="J154" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" s="26">
         <f t="shared" si="33"/>
@@ -18480,43 +18480,43 @@
       </c>
       <c r="O154" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506153</v>
+        <v/>
       </c>
       <c r="P154" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "caught in the middle of a trade war" ?</v>
+        <v/>
       </c>
       <c r="Q154" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R154" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S154" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T154" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506153</v>
       </c>
       <c r="U154" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "caught in a crossfire in the trade war " ?</v>
       </c>
       <c r="V154" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W154" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X154" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y154" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18558,11 +18558,11 @@
       </c>
       <c r="J155" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" s="26">
         <f t="shared" si="33"/>
@@ -18576,43 +18576,43 @@
       </c>
       <c r="O155" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506154</v>
       </c>
       <c r="P155" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "methods that are tested to be good and effective" ?</v>
       </c>
       <c r="Q155" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R155" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S155" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T155" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506154</v>
+        <v/>
       </c>
       <c r="U155" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "tried and true methods" ?</v>
+        <v/>
       </c>
       <c r="V155" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W155" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X155" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y155" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18750,11 +18750,11 @@
       </c>
       <c r="J157" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" s="26">
         <f t="shared" si="33"/>
@@ -18768,43 +18768,43 @@
       </c>
       <c r="O157" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506156</v>
       </c>
       <c r="P157" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "It is contrary to mainstream ideas" ?</v>
       </c>
       <c r="Q157" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R157" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S157" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T157" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506156</v>
+        <v/>
       </c>
       <c r="U157" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "It goes against the grain" ?</v>
+        <v/>
       </c>
       <c r="V157" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W157" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X157" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y157" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18916,7 +18916,7 @@
       <c r="AD158" s="13"/>
       <c r="AE158" s="13"/>
     </row>
-    <row r="159" ht="35" spans="1:31">
+    <row r="159" ht="24" spans="1:31">
       <c r="A159" s="2">
         <v>5</v>
       </c>
@@ -19134,11 +19134,11 @@
       </c>
       <c r="J161" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" s="26">
         <f t="shared" si="58"/>
@@ -19152,43 +19152,43 @@
       </c>
       <c r="O161" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20506160</v>
       </c>
       <c r="P161" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He is in a state of extreme shock" ?</v>
       </c>
       <c r="Q161" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R161" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S161" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T161" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506160</v>
+        <v/>
       </c>
       <c r="U161" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He is shell-shocked" ?</v>
+        <v/>
       </c>
       <c r="V161" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W161" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X161" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y161" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19300,7 +19300,7 @@
       <c r="AD162" s="13"/>
       <c r="AE162" s="13"/>
     </row>
-    <row r="163" ht="24" spans="1:31">
+    <row r="163" ht="35" spans="1:31">
       <c r="A163" s="2">
         <v>5</v>
       </c>
@@ -19326,11 +19326,11 @@
       </c>
       <c r="J163" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" s="26">
         <f t="shared" si="58"/>
@@ -19344,43 +19344,43 @@
       </c>
       <c r="O163" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506162</v>
+        <v/>
       </c>
       <c r="P163" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "pretendig to be the opposite of what you are" ?</v>
+        <v/>
       </c>
       <c r="Q163" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R163" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S163" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T163" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506162</v>
       </c>
       <c r="U163" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "double dealing" ?</v>
       </c>
       <c r="V163" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W163" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X163" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y163" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19422,11 +19422,11 @@
       </c>
       <c r="J164" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" s="26">
         <f t="shared" si="58"/>
@@ -19440,43 +19440,43 @@
       </c>
       <c r="O164" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20506163</v>
       </c>
       <c r="P164" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Children hear everything, especially when you least expect them to" ?</v>
       </c>
       <c r="Q164" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R164" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S164" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T164" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506163</v>
+        <v/>
       </c>
       <c r="U164" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Little pitchers have large ears" ?</v>
+        <v/>
       </c>
       <c r="V164" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W164" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X164" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y164" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19518,11 +19518,11 @@
       </c>
       <c r="J165" s="25">
         <f ca="1" t="shared" ref="J165:J192" si="60">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" s="26">
         <f t="shared" si="58"/>
@@ -19536,43 +19536,43 @@
       </c>
       <c r="O165" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506164</v>
+        <v/>
       </c>
       <c r="P165" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Noble people respect other people's time and won't keep them waiting" ?</v>
+        <v/>
       </c>
       <c r="Q165" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R165" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S165" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T165" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506164</v>
       </c>
       <c r="U165" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Punctuality is the politeness of princes" ?</v>
       </c>
       <c r="V165" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W165" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X165" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y165" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19806,11 +19806,11 @@
       </c>
       <c r="J168" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168" s="26">
         <f t="shared" si="58"/>
@@ -19824,43 +19824,43 @@
       </c>
       <c r="O168" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506167</v>
+        <v/>
       </c>
       <c r="P168" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "to think more clearly" ?</v>
+        <v/>
       </c>
       <c r="Q168" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R168" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S168" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T168" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506167</v>
       </c>
       <c r="U168" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "clear the cobwebs" ?</v>
       </c>
       <c r="V168" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W168" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X168" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y168" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20068,7 +20068,7 @@
       <c r="AD170" s="14"/>
       <c r="AE170" s="14"/>
     </row>
-    <row r="171" ht="35" spans="1:31">
+    <row r="171" ht="24" spans="1:31">
       <c r="A171" s="2">
         <v>5</v>
       </c>
@@ -20094,11 +20094,11 @@
       </c>
       <c r="J171" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L171" s="26">
         <f t="shared" si="58"/>
@@ -20112,43 +20112,43 @@
       </c>
       <c r="O171" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507170</v>
       </c>
       <c r="P171" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "I only have two hands and I can not do everything" ?</v>
       </c>
       <c r="Q171" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R171" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S171" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T171" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507170</v>
+        <v/>
       </c>
       <c r="U171" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "I am not an octopus" ?</v>
+        <v/>
       </c>
       <c r="V171" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W171" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X171" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y171" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="J174" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" s="26">
         <f t="shared" si="58"/>
@@ -20400,43 +20400,43 @@
       </c>
       <c r="O174" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507173</v>
+        <v/>
       </c>
       <c r="P174" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "People who are powerful are sexually attracitive" ?</v>
+        <v/>
       </c>
       <c r="Q174" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R174" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S174" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T174" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507173</v>
       </c>
       <c r="U174" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Power is the ultimate aphrodisiac" ?</v>
       </c>
       <c r="V174" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W174" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X174" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y174" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20574,11 +20574,11 @@
       </c>
       <c r="J176" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L176" s="26">
         <f t="shared" si="58"/>
@@ -20592,43 +20592,43 @@
       </c>
       <c r="O176" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507175</v>
       </c>
       <c r="P176" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Our bodies are composed of what we eat" ?</v>
       </c>
       <c r="Q176" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R176" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S176" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T176" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507175</v>
+        <v/>
       </c>
       <c r="U176" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "You are what you eat" ?</v>
+        <v/>
       </c>
       <c r="V176" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W176" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X176" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y176" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20670,11 +20670,11 @@
       </c>
       <c r="J177" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" s="26">
         <f t="shared" si="58"/>
@@ -20688,43 +20688,43 @@
       </c>
       <c r="O177" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507176</v>
       </c>
       <c r="P177" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "You are the result of your work" ?</v>
       </c>
       <c r="Q177" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R177" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S177" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T177" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507176</v>
+        <v/>
       </c>
       <c r="U177" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "You are what you do" ?</v>
+        <v/>
       </c>
       <c r="V177" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W177" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X177" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y177" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21028,7 +21028,7 @@
       <c r="AD180" s="14"/>
       <c r="AE180" s="14"/>
     </row>
-    <row r="181" ht="35" spans="1:31">
+    <row r="181" ht="47" spans="1:31">
       <c r="A181" s="2">
         <v>5</v>
       </c>
@@ -21150,11 +21150,11 @@
       </c>
       <c r="J182" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" s="26">
         <f t="shared" si="58"/>
@@ -21168,43 +21168,43 @@
       </c>
       <c r="O182" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507181</v>
       </c>
       <c r="P182" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Knowledge shows itself in talking. Wisdom shows itself through listening. " ?</v>
       </c>
       <c r="Q182" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R182" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S182" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T182" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507181</v>
+        <v/>
       </c>
       <c r="U182" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Knowledge speaks. Wisdom listens." ?</v>
+        <v/>
       </c>
       <c r="V182" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W182" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X182" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y182" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21246,11 +21246,11 @@
       </c>
       <c r="J183" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" s="26">
         <f t="shared" si="58"/>
@@ -21264,43 +21264,43 @@
       </c>
       <c r="O183" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507182</v>
+        <v/>
       </c>
       <c r="P183" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "The worst thing to happen in education is when there is lack of interest" ?</v>
+        <v/>
       </c>
       <c r="Q183" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R183" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S183" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T183" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507182</v>
       </c>
       <c r="U183" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "In education, indifference is the greatest tragedy" ?</v>
       </c>
       <c r="V183" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W183" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X183" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y183" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21412,7 +21412,7 @@
       <c r="AD184" s="14"/>
       <c r="AE184" s="14"/>
     </row>
-    <row r="185" ht="35" spans="1:31">
+    <row r="185" ht="24" spans="1:31">
       <c r="A185" s="2">
         <v>5</v>
       </c>
@@ -21534,11 +21534,11 @@
       </c>
       <c r="J186" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186" s="26">
         <f t="shared" si="58"/>
@@ -21552,43 +21552,43 @@
       </c>
       <c r="O186" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507185</v>
       </c>
       <c r="P186" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Good marriage is pure luck" ?</v>
       </c>
       <c r="Q186" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R186" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S186" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T186" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507185</v>
+        <v/>
       </c>
       <c r="U186" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Marriage is a lottery" ?</v>
+        <v/>
       </c>
       <c r="V186" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W186" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X186" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y186" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21726,11 +21726,11 @@
       </c>
       <c r="J188" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188" s="26">
         <f t="shared" si="58"/>
@@ -21744,43 +21744,43 @@
       </c>
       <c r="O188" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507187</v>
       </c>
       <c r="P188" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Warfare is about clever strategy" ?</v>
       </c>
       <c r="Q188" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R188" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S188" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T188" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507187</v>
+        <v/>
       </c>
       <c r="U188" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "All warfare is deception" ?</v>
+        <v/>
       </c>
       <c r="V188" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W188" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X188" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y188" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21918,11 +21918,11 @@
       </c>
       <c r="J190" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K190" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L190" s="26">
         <f t="shared" si="58"/>
@@ -21936,43 +21936,43 @@
       </c>
       <c r="O190" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507189</v>
       </c>
       <c r="P190" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "He only cares about how to look good, not  how things are run." ?</v>
       </c>
       <c r="Q190" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R190" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S190" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T190" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507189</v>
+        <v/>
       </c>
       <c r="U190" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "He is spin over substance" ?</v>
+        <v/>
       </c>
       <c r="V190" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W190" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X190" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y190" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21988,7 +21988,7 @@
       <c r="AD190" s="14"/>
       <c r="AE190" s="14"/>
     </row>
-    <row r="191" ht="35" spans="1:31">
+    <row r="191" ht="47" spans="1:31">
       <c r="A191" s="2">
         <v>5</v>
       </c>
@@ -22014,11 +22014,11 @@
       </c>
       <c r="J191" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" s="26">
         <f t="shared" si="58"/>
@@ -22032,43 +22032,43 @@
       </c>
       <c r="O191" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507190</v>
+        <v/>
       </c>
       <c r="P191" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Twitter is a place for the unethical. It makes peolple show their worst in humanity." ?</v>
+        <v/>
       </c>
       <c r="Q191" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R191" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S191" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T191" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507190</v>
       </c>
       <c r="U191" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Twitter is a sewer. It brings out the worst in humanity" ?</v>
       </c>
       <c r="V191" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W191" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X191" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y191" s="26" t="str">
         <f t="shared" si="55"/>
@@ -22084,7 +22084,7 @@
       <c r="AD191" s="14"/>
       <c r="AE191" s="14"/>
     </row>
-    <row r="192" ht="35" spans="1:31">
+    <row r="192" ht="47" spans="1:31">
       <c r="A192" s="2">
         <v>5</v>
       </c>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -43,24 +43,7 @@
     <t>Meaning</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Meaning</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（中文）</t>
-    </r>
+    <t>Translation</t>
   </si>
   <si>
     <t>level_2</t>
@@ -2465,12 +2448,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2550,18 +2533,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2572,17 +2555,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2593,6 +2574,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2628,6 +2617,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2643,46 +2640,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2730,13 +2707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2754,24 +2743,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2784,7 +2755,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,31 +2833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,43 +2851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,19 +2869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3061,6 +3038,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3090,17 +3078,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3109,28 +3086,34 @@
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3139,109 +3122,103 @@
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3666,8 +3643,8 @@
   <sheetPr/>
   <dimension ref="A1:AE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="11.6"/>
@@ -3998,11 +3975,11 @@
       </c>
       <c r="J4" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="26">
         <f t="shared" si="2"/>
@@ -4016,43 +3993,43 @@
       </c>
       <c r="O4" s="26" t="str">
         <f ca="1" t="shared" ref="O4:O67" si="13">IF(J4=1,CONCATENATE("L2",$F4),"")</f>
-        <v>L20501003</v>
+        <v/>
       </c>
       <c r="P4" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "A happy family is the same. Unhappy family everyone feels unhappy in their own way" ?</v>
+        <v/>
       </c>
       <c r="Q4" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R4" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S4" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T4" s="26" t="str">
         <f ca="1" t="shared" ref="T4:T67" si="14">IF(K4=1,CONCATENATE("L3",$F4),"")</f>
-        <v/>
+        <v>L30501003</v>
       </c>
       <c r="U4" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Happy families are alike. Unhappy families are each unhappy in its own way" ?</v>
       </c>
       <c r="V4" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W4" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X4" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y4" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4094,11 +4071,11 @@
       </c>
       <c r="J5" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="26">
         <f t="shared" si="2"/>
@@ -4112,43 +4089,43 @@
       </c>
       <c r="O5" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20501004</v>
       </c>
       <c r="P5" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Everything about Truman was late: he became a father at 40, a senator at 58 and president at 60." ?</v>
       </c>
       <c r="Q5" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R5" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S5" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T5" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30501004</v>
+        <v/>
       </c>
       <c r="U5" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Everything came late to Truman: a father at 40, a senator at 58 and president at 60" ?</v>
+        <v/>
       </c>
       <c r="V5" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W5" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X5" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y5" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4164,7 +4141,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" ht="47" spans="1:31">
+    <row r="6" ht="35" spans="1:31">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4286,11 +4263,11 @@
       </c>
       <c r="J7" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="2"/>
@@ -4304,43 +4281,43 @@
       </c>
       <c r="O7" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20501006</v>
+        <v/>
       </c>
       <c r="P7" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "I am old, but but not really bad." ?</v>
+        <v/>
       </c>
       <c r="Q7" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R7" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S7" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T7" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30501006</v>
       </c>
       <c r="U7" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "I am old. I am 69 years old. Really old is 80" ?</v>
       </c>
       <c r="V7" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W7" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X7" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y7" s="26" t="str">
         <f t="shared" si="11"/>
@@ -4452,7 +4429,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" ht="35" spans="1:31">
+    <row r="9" ht="47" spans="1:31">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4740,7 +4717,7 @@
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
     </row>
-    <row r="12" ht="24" spans="1:31">
+    <row r="12" ht="35" spans="1:31">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4783,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="26" t="str">
-        <f ca="1">IF(J12=1,CONCATENATE("L2",$F12),"")</f>
+        <f ca="1" t="shared" si="13"/>
         <v>L20502011</v>
       </c>
       <c r="P12" s="26" t="str">
@@ -4862,11 +4839,11 @@
       </c>
       <c r="J13" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="2"/>
@@ -4880,43 +4857,43 @@
       </c>
       <c r="O13" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20502012</v>
+        <v/>
       </c>
       <c r="P13" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "help him win an election and carry hin to victory" ?</v>
+        <v/>
       </c>
       <c r="Q13" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R13" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S13" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T13" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30502012</v>
       </c>
       <c r="U13" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "drag him across the finish line" ?</v>
       </c>
       <c r="V13" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W13" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X13" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y13" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5054,11 +5031,11 @@
       </c>
       <c r="J15" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="26">
         <f t="shared" si="2"/>
@@ -5072,43 +5049,43 @@
       </c>
       <c r="O15" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20502014</v>
+        <v/>
       </c>
       <c r="P15" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "very exciting" ?</v>
+        <v/>
       </c>
       <c r="Q15" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R15" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S15" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T15" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30502014</v>
       </c>
       <c r="U15" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "white-knuckle ride " ?</v>
       </c>
       <c r="V15" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W15" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X15" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y15" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5246,11 +5223,11 @@
       </c>
       <c r="J17" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="26">
         <f t="shared" si="2"/>
@@ -5264,43 +5241,43 @@
       </c>
       <c r="O17" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20502016</v>
       </c>
       <c r="P17" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Thick attractive lips " ?</v>
       </c>
       <c r="Q17" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R17" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S17" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T17" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30502016</v>
+        <v/>
       </c>
       <c r="U17" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "bee-stung lips" ?</v>
+        <v/>
       </c>
       <c r="V17" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W17" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X17" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y17" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5342,11 +5319,11 @@
       </c>
       <c r="J18" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="26">
         <f t="shared" si="2"/>
@@ -5360,43 +5337,43 @@
       </c>
       <c r="O18" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20502017</v>
       </c>
       <c r="P18" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I mind my own business" ?</v>
       </c>
       <c r="Q18" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R18" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S18" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T18" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30502017</v>
+        <v/>
       </c>
       <c r="U18" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I plough my own furrows" ?</v>
+        <v/>
       </c>
       <c r="V18" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W18" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X18" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y18" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5732,11 +5709,11 @@
       </c>
       <c r="J22" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="26">
         <f t="shared" si="2"/>
@@ -5750,43 +5727,43 @@
       </c>
       <c r="O22" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503021</v>
       </c>
       <c r="P22" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Better people have give me worse names" ?</v>
       </c>
       <c r="Q22" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R22" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S22" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T22" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503021</v>
+        <v/>
       </c>
       <c r="U22" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I have been called worse things by better men" ?</v>
+        <v/>
       </c>
       <c r="V22" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W22" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X22" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y22" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5830,11 +5807,11 @@
       </c>
       <c r="J23" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="26">
         <f t="shared" si="2"/>
@@ -5848,43 +5825,43 @@
       </c>
       <c r="O23" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503022</v>
       </c>
       <c r="P23" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "A woman with a past is better than a man without a future" ?</v>
       </c>
       <c r="Q23" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R23" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S23" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T23" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503022</v>
+        <v/>
       </c>
       <c r="U23" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "A woman with a past is better than a man without a future" ?</v>
+        <v/>
       </c>
       <c r="V23" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W23" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X23" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y23" s="26" t="str">
         <f t="shared" si="11"/>
@@ -5900,7 +5877,7 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
     </row>
-    <row r="24" ht="35" spans="1:31">
+    <row r="24" ht="24" spans="1:31">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -5928,11 +5905,11 @@
       </c>
       <c r="J24" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="26">
         <f t="shared" si="2"/>
@@ -5946,43 +5923,43 @@
       </c>
       <c r="O24" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503023</v>
       </c>
       <c r="P24" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "I need some tea but I also need some sympathy" ?</v>
       </c>
       <c r="Q24" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R24" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S24" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T24" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503023</v>
+        <v/>
       </c>
       <c r="U24" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "I need some tea and sympathy" ?</v>
+        <v/>
       </c>
       <c r="V24" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W24" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X24" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y24" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6516,11 +6493,11 @@
       </c>
       <c r="J30" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="26">
         <f t="shared" si="2"/>
@@ -6534,43 +6511,43 @@
       </c>
       <c r="O30" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503029</v>
       </c>
       <c r="P30" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "We are at our best when things are at their worst. " ?</v>
       </c>
       <c r="Q30" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R30" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S30" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T30" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503029</v>
+        <v/>
       </c>
       <c r="U30" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "When things are at their worst, we are at our best." ?</v>
+        <v/>
       </c>
       <c r="V30" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W30" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X30" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y30" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6712,11 +6689,11 @@
       </c>
       <c r="J32" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="26">
         <f t="shared" si="2"/>
@@ -6730,43 +6707,43 @@
       </c>
       <c r="O32" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20503031</v>
       </c>
       <c r="P32" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Become famous." ?</v>
       </c>
       <c r="Q32" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R32" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S32" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T32" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30503031</v>
+        <v/>
       </c>
       <c r="U32" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Step out of the anonymity of your life" ?</v>
+        <v/>
       </c>
       <c r="V32" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W32" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X32" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y32" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6908,11 +6885,11 @@
       </c>
       <c r="J34" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="26">
         <f t="shared" si="2"/>
@@ -6926,43 +6903,43 @@
       </c>
       <c r="O34" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20503033</v>
+        <v/>
       </c>
       <c r="P34" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "He hates imprecise things" ?</v>
+        <v/>
       </c>
       <c r="Q34" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R34" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S34" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T34" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30503033</v>
       </c>
       <c r="U34" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "He hates inexactitudes" ?</v>
       </c>
       <c r="V34" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W34" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X34" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y34" s="26" t="str">
         <f t="shared" si="11"/>
@@ -6978,7 +6955,7 @@
       <c r="AD34" s="13"/>
       <c r="AE34" s="13"/>
     </row>
-    <row r="35" ht="35" spans="1:31">
+    <row r="35" ht="24" spans="1:31">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -7076,7 +7053,7 @@
       <c r="AD35" s="13"/>
       <c r="AE35" s="13"/>
     </row>
-    <row r="36" ht="47" spans="1:31">
+    <row r="36" ht="35" spans="1:31">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -7104,11 +7081,11 @@
       </c>
       <c r="J36" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="26">
         <f t="shared" si="2"/>
@@ -7122,43 +7099,43 @@
       </c>
       <c r="O36" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504035</v>
+        <v/>
       </c>
       <c r="P36" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Your weight around the waist will start to show up in middle age" ?</v>
+        <v/>
       </c>
       <c r="Q36" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R36" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S36" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T36" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504035</v>
       </c>
       <c r="U36" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Middle age is when your age starts to show around your middle" ?</v>
       </c>
       <c r="V36" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W36" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X36" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y36" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7202,11 +7179,11 @@
       </c>
       <c r="J37" s="25">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="26">
         <f t="shared" si="2"/>
@@ -7220,43 +7197,43 @@
       </c>
       <c r="O37" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504036</v>
+        <v/>
       </c>
       <c r="P37" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "The picky mom chooses Jif" ?</v>
+        <v/>
       </c>
       <c r="Q37" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R37" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S37" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T37" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504036</v>
       </c>
       <c r="U37" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Choosy mothers choose JIF(peanut butter)" ?</v>
       </c>
       <c r="V37" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W37" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X37" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y37" s="26" t="str">
         <f t="shared" si="11"/>
@@ -7272,7 +7249,7 @@
       <c r="AD37" s="13"/>
       <c r="AE37" s="13"/>
     </row>
-    <row r="38" ht="35" spans="1:31">
+    <row r="38" ht="47" spans="1:31">
       <c r="A38" s="2">
         <v>5</v>
       </c>
@@ -7370,7 +7347,7 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="13"/>
     </row>
-    <row r="39" ht="58" spans="1:31">
+    <row r="39" ht="47" spans="1:31">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -7468,7 +7445,7 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="13"/>
     </row>
-    <row r="40" ht="35" spans="1:31">
+    <row r="40" ht="24" spans="1:31">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -7986,11 +7963,11 @@
       </c>
       <c r="J45" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="26">
         <f t="shared" si="2"/>
@@ -8004,43 +7981,43 @@
       </c>
       <c r="O45" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504044</v>
+        <v/>
       </c>
       <c r="P45" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "You feel happy as a passenger on ANA" ?</v>
+        <v/>
       </c>
       <c r="Q45" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R45" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S45" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T45" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504044</v>
       </c>
       <c r="U45" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "“Time flies when you fly ANA”" ?</v>
       </c>
       <c r="V45" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W45" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X45" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y45" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8056,7 +8033,7 @@
       <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
     </row>
-    <row r="46" ht="35" spans="1:31">
+    <row r="46" ht="24" spans="1:31">
       <c r="A46" s="2">
         <v>5</v>
       </c>
@@ -8084,11 +8061,11 @@
       </c>
       <c r="J46" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="26">
         <f t="shared" si="2"/>
@@ -8102,43 +8079,43 @@
       </c>
       <c r="O46" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504045</v>
+        <v/>
       </c>
       <c r="P46" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Personal service at low price" ?</v>
+        <v/>
       </c>
       <c r="Q46" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R46" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S46" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T46" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504045</v>
       </c>
       <c r="U46" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Custom-made at non-custom prices" ?</v>
       </c>
       <c r="V46" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W46" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X46" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y46" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8182,11 +8159,11 @@
       </c>
       <c r="J47" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="26">
         <f t="shared" si="2"/>
@@ -8200,43 +8177,43 @@
       </c>
       <c r="O47" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504046</v>
+        <v/>
       </c>
       <c r="P47" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Fight crime. Fight things that cause crime." ?</v>
+        <v/>
       </c>
       <c r="Q47" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R47" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S47" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T47" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504046</v>
       </c>
       <c r="U47" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "Tough on crime. Tougher on the causes of crime.—Blair" ?</v>
       </c>
       <c r="V47" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W47" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X47" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y47" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8280,11 +8257,11 @@
       </c>
       <c r="J48" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="26">
         <f t="shared" si="2"/>
@@ -8298,43 +8275,43 @@
       </c>
       <c r="O48" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20504047</v>
       </c>
       <c r="P48" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Hillary is getting a lot of money from big business" ?</v>
       </c>
       <c r="Q48" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R48" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S48" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T48" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30504047</v>
+        <v/>
       </c>
       <c r="U48" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Hillary is getting big money from “big money”" ?</v>
+        <v/>
       </c>
       <c r="V48" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W48" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X48" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y48" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8448,7 +8425,7 @@
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
     </row>
-    <row r="50" ht="47" spans="1:31">
+    <row r="50" ht="35" spans="1:31">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -8476,11 +8453,11 @@
       </c>
       <c r="J50" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="26">
         <f t="shared" si="2"/>
@@ -8494,43 +8471,43 @@
       </c>
       <c r="O50" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20504049</v>
+        <v/>
       </c>
       <c r="P50" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "Markets fell after the prime minister stepped down" ?</v>
+        <v/>
       </c>
       <c r="Q50" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R50" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S50" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T50" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30504049</v>
       </c>
       <c r="U50" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "The prime minister stepped down and took the market down with him" ?</v>
       </c>
       <c r="V50" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W50" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X50" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y50" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8546,7 +8523,7 @@
       <c r="AD50" s="14"/>
       <c r="AE50" s="14"/>
     </row>
-    <row r="51" ht="47" spans="1:31">
+    <row r="51" ht="58" spans="1:31">
       <c r="A51" s="2">
         <v>5</v>
       </c>
@@ -8740,7 +8717,7 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="13"/>
     </row>
-    <row r="53" ht="35" spans="1:31">
+    <row r="53" ht="47" spans="1:31">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -8766,11 +8743,11 @@
       </c>
       <c r="J53" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="26">
         <f t="shared" si="2"/>
@@ -8784,43 +8761,43 @@
       </c>
       <c r="O53" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505052</v>
       </c>
       <c r="P53" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "They focus on winning elections, not the next generation" ?</v>
       </c>
       <c r="Q53" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R53" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S53" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T53" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505052</v>
+        <v/>
       </c>
       <c r="U53" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Politicians worry more about the next election than the next generation" ?</v>
+        <v/>
       </c>
       <c r="V53" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W53" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X53" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y53" s="26" t="str">
         <f t="shared" si="11"/>
@@ -8862,11 +8839,11 @@
       </c>
       <c r="J54" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="26">
         <f t="shared" si="2"/>
@@ -8880,43 +8857,43 @@
       </c>
       <c r="O54" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505053</v>
       </c>
       <c r="P54" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Ability is your best insurance" ?</v>
       </c>
       <c r="Q54" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R54" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S54" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T54" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505053</v>
+        <v/>
       </c>
       <c r="U54" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Ability is your best security" ?</v>
+        <v/>
       </c>
       <c r="V54" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W54" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X54" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y54" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9246,11 +9223,11 @@
       </c>
       <c r="J58" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="26">
         <f t="shared" si="2"/>
@@ -9264,43 +9241,43 @@
       </c>
       <c r="O58" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L20505057</v>
+        <v/>
       </c>
       <c r="P58" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>What is the concept of "If there is blood, there is the leading news." ?</v>
+        <v/>
       </c>
       <c r="Q58" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R58" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S58" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T58" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v/>
+        <v>L30505057</v>
       </c>
       <c r="U58" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>What is the meaning of "If it bleeds, it leads" ?</v>
       </c>
       <c r="V58" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W58" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X58" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y58" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9316,7 +9293,7 @@
       <c r="AD58" s="14"/>
       <c r="AE58" s="14"/>
     </row>
-    <row r="59" ht="24" spans="1:31">
+    <row r="59" ht="35" spans="1:31">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -9342,11 +9319,11 @@
       </c>
       <c r="J59" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="26">
         <f t="shared" si="2"/>
@@ -9360,43 +9337,43 @@
       </c>
       <c r="O59" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505058</v>
       </c>
       <c r="P59" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "Flatters you in important places." ?</v>
       </c>
       <c r="Q59" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R59" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S59" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T59" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505058</v>
+        <v/>
       </c>
       <c r="U59" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "Flatters where it matters.--Bra ad" ?</v>
+        <v/>
       </c>
       <c r="V59" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W59" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X59" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y59" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9508,7 +9485,7 @@
       <c r="AD60" s="14"/>
       <c r="AE60" s="14"/>
     </row>
-    <row r="61" ht="35" spans="1:31">
+    <row r="61" ht="24" spans="1:31">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -9822,11 +9799,11 @@
       </c>
       <c r="J64" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="26">
         <f t="shared" si="2"/>
@@ -9840,43 +9817,43 @@
       </c>
       <c r="O64" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505063</v>
       </c>
       <c r="P64" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "If you have a happy wife, you can have a happy life." ?</v>
       </c>
       <c r="Q64" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R64" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S64" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T64" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505063</v>
+        <v/>
       </c>
       <c r="U64" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "A happy wife is a happy life" ?</v>
+        <v/>
       </c>
       <c r="V64" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W64" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X64" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y64" s="26" t="str">
         <f t="shared" si="11"/>
@@ -9918,11 +9895,11 @@
       </c>
       <c r="J65" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="26">
         <f ca="1" t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="26">
         <f t="shared" si="2"/>
@@ -9936,43 +9913,43 @@
       </c>
       <c r="O65" s="26" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L20505064</v>
       </c>
       <c r="P65" s="26" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>What is the concept of "When you are poor, there is no romance in your life." ?</v>
       </c>
       <c r="Q65" s="26" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R65" s="26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S65" s="26" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T65" s="26" t="str">
         <f ca="1" t="shared" si="14"/>
-        <v>L30505064</v>
+        <v/>
       </c>
       <c r="U65" s="26" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>What is the meaning of "No romance without finance" ?</v>
+        <v/>
       </c>
       <c r="V65" s="26" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W65" s="26" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X65" s="26" t="str">
         <f ca="1" t="shared" si="10"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y65" s="26" t="str">
         <f t="shared" si="11"/>
@@ -10084,7 +10061,7 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="13"/>
     </row>
-    <row r="67" ht="24" spans="1:31">
+    <row r="67" ht="35" spans="1:31">
       <c r="A67" s="2">
         <v>5</v>
       </c>
@@ -10590,11 +10567,11 @@
       </c>
       <c r="J72" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="26">
         <f t="shared" si="17"/>
@@ -10608,43 +10585,43 @@
       </c>
       <c r="O72" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505071</v>
+        <v/>
       </c>
       <c r="P72" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Bush used lies about Iraqi Weapons of Mass Destruction to start a war causing a large number of deaths." ?</v>
+        <v/>
       </c>
       <c r="Q72" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R72" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S72" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T72" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505071</v>
       </c>
       <c r="U72" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Bush lied and people died" ?</v>
       </c>
       <c r="V72" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W72" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X72" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y72" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10660,7 +10637,7 @@
       <c r="AD72" s="13"/>
       <c r="AE72" s="13"/>
     </row>
-    <row r="73" ht="35" spans="1:31">
+    <row r="73" ht="24" spans="1:31">
       <c r="A73" s="2">
         <v>5</v>
       </c>
@@ -10782,11 +10759,11 @@
       </c>
       <c r="J74" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="26">
         <f t="shared" si="17"/>
@@ -10800,43 +10777,43 @@
       </c>
       <c r="O74" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20505073</v>
       </c>
       <c r="P74" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "You can only succeed if you believe in yourself." ?</v>
       </c>
       <c r="Q74" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R74" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S74" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T74" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30505073</v>
+        <v/>
       </c>
       <c r="U74" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "To achieve you must first believe" ?</v>
+        <v/>
       </c>
       <c r="V74" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W74" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X74" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y74" s="26" t="str">
         <f t="shared" si="26"/>
@@ -10852,7 +10829,7 @@
       <c r="AD74" s="13"/>
       <c r="AE74" s="13"/>
     </row>
-    <row r="75" ht="35" spans="1:31">
+    <row r="75" ht="47" spans="1:31">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -10878,11 +10855,11 @@
       </c>
       <c r="J75" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="26">
         <f t="shared" si="17"/>
@@ -10896,43 +10873,43 @@
       </c>
       <c r="O75" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20505074</v>
+        <v/>
       </c>
       <c r="P75" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Don't do break the law unless you are willing and able to accept the punishment." ?</v>
+        <v/>
       </c>
       <c r="Q75" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R75" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S75" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T75" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30505074</v>
       </c>
       <c r="U75" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Don't do the crime if you can't do the time" ?</v>
       </c>
       <c r="V75" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W75" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X75" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y75" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11262,11 +11239,11 @@
       </c>
       <c r="J79" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="26">
         <f t="shared" si="17"/>
@@ -11280,43 +11257,43 @@
       </c>
       <c r="O79" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506078</v>
+        <v/>
       </c>
       <c r="P79" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "do or accept something unpleasant" ?</v>
+        <v/>
       </c>
       <c r="Q79" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R79" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S79" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T79" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506078</v>
       </c>
       <c r="U79" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "bite the bullet" ?</v>
       </c>
       <c r="V79" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W79" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X79" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y79" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11358,11 +11335,11 @@
       </c>
       <c r="J80" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="26">
         <f t="shared" si="17"/>
@@ -11376,43 +11353,43 @@
       </c>
       <c r="O80" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506079</v>
+        <v/>
       </c>
       <c r="P80" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "Details determine success or failure." ?</v>
+        <v/>
       </c>
       <c r="Q80" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R80" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S80" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T80" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506079</v>
       </c>
       <c r="U80" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "The devil is in the detail" ?</v>
       </c>
       <c r="V80" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W80" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X80" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y80" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11454,11 +11431,11 @@
       </c>
       <c r="J81" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" s="26">
         <f t="shared" si="17"/>
@@ -11472,43 +11449,43 @@
       </c>
       <c r="O81" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506080</v>
       </c>
       <c r="P81" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "be very similar" ?</v>
       </c>
       <c r="Q81" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R81" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S81" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T81" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506080</v>
+        <v/>
       </c>
       <c r="U81" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Like two peas in a pod" ?</v>
+        <v/>
       </c>
       <c r="V81" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W81" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X81" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y81" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11550,11 +11527,11 @@
       </c>
       <c r="J82" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="26">
         <f t="shared" si="17"/>
@@ -11568,43 +11545,43 @@
       </c>
       <c r="O82" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506081</v>
+        <v/>
       </c>
       <c r="P82" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "You should not make plans that depend on something good happening before you know that it has actually happened" ?</v>
+        <v/>
       </c>
       <c r="Q82" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R82" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S82" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T82" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506081</v>
       </c>
       <c r="U82" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "Don’t count the chickens (until they are hatched)" ?</v>
       </c>
       <c r="V82" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W82" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X82" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y82" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11646,11 +11623,11 @@
       </c>
       <c r="J83" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="26">
         <f t="shared" si="17"/>
@@ -11664,43 +11641,43 @@
       </c>
       <c r="O83" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506082</v>
+        <v/>
       </c>
       <c r="P83" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "It's not inflexible" ?</v>
+        <v/>
       </c>
       <c r="Q83" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R83" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S83" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T83" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506082</v>
       </c>
       <c r="U83" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "It is not cast in concrete" ?</v>
       </c>
       <c r="V83" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W83" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X83" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y83" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11742,11 +11719,11 @@
       </c>
       <c r="J84" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="26">
         <f t="shared" si="17"/>
@@ -11760,43 +11737,43 @@
       </c>
       <c r="O84" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506083</v>
+        <v/>
       </c>
       <c r="P84" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He is in good health." ?</v>
+        <v/>
       </c>
       <c r="Q84" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R84" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S84" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T84" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506083</v>
       </c>
       <c r="U84" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "He is as fit as a fiddle" ?</v>
       </c>
       <c r="V84" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W84" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X84" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y84" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11838,11 +11815,11 @@
       </c>
       <c r="J85" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="26">
         <f t="shared" si="17"/>
@@ -11856,43 +11833,43 @@
       </c>
       <c r="O85" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506084</v>
       </c>
       <c r="P85" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "an unofficial court or a court that disregards current laws and conducts unfair trials." ?</v>
       </c>
       <c r="Q85" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R85" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S85" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T85" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506084</v>
+        <v/>
       </c>
       <c r="U85" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "kangaroo court" ?</v>
+        <v/>
       </c>
       <c r="V85" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W85" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X85" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y85" s="26" t="str">
         <f t="shared" si="26"/>
@@ -11934,11 +11911,11 @@
       </c>
       <c r="J86" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="26">
         <f t="shared" si="17"/>
@@ -11952,43 +11929,43 @@
       </c>
       <c r="O86" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506085</v>
+        <v/>
       </c>
       <c r="P86" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "calm and composed" ?</v>
+        <v/>
       </c>
       <c r="Q86" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R86" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S86" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T86" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506085</v>
       </c>
       <c r="U86" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "cool as a cucumber" ?</v>
       </c>
       <c r="V86" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W86" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X86" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y86" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12030,11 +12007,11 @@
       </c>
       <c r="J87" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="26">
         <f t="shared" si="17"/>
@@ -12048,43 +12025,43 @@
       </c>
       <c r="O87" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506086</v>
+        <v/>
       </c>
       <c r="P87" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "the call to someone you don't know" ?</v>
+        <v/>
       </c>
       <c r="Q87" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R87" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S87" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T87" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506086</v>
       </c>
       <c r="U87" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "cold call" ?</v>
       </c>
       <c r="V87" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W87" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X87" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y87" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12318,11 +12295,11 @@
       </c>
       <c r="J90" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="26">
         <f t="shared" si="17"/>
@@ -12336,43 +12313,43 @@
       </c>
       <c r="O90" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506089</v>
+        <v/>
       </c>
       <c r="P90" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "the cheapest, worst, or lowest quality." ?</v>
+        <v/>
       </c>
       <c r="Q90" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R90" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S90" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T90" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506089</v>
       </c>
       <c r="U90" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "bottom of the barrel" ?</v>
       </c>
       <c r="V90" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W90" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X90" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y90" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12388,7 +12365,7 @@
       <c r="AD90" s="13"/>
       <c r="AE90" s="13"/>
     </row>
-    <row r="91" ht="24" spans="1:31">
+    <row r="91" ht="35" spans="1:31">
       <c r="A91" s="2">
         <v>5</v>
       </c>
@@ -12510,11 +12487,11 @@
       </c>
       <c r="J92" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="26">
         <f t="shared" si="17"/>
@@ -12528,43 +12505,43 @@
       </c>
       <c r="O92" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506091</v>
       </c>
       <c r="P92" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "consumption to show off" ?</v>
       </c>
       <c r="Q92" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R92" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S92" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T92" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506091</v>
+        <v/>
       </c>
       <c r="U92" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "conspicuous consumption" ?</v>
+        <v/>
       </c>
       <c r="V92" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W92" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X92" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y92" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12606,11 +12583,11 @@
       </c>
       <c r="J93" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="26">
         <f t="shared" si="17"/>
@@ -12624,43 +12601,43 @@
       </c>
       <c r="O93" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506092</v>
       </c>
       <c r="P93" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Hope is coming" ?</v>
       </c>
       <c r="Q93" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R93" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S93" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T93" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506092</v>
+        <v/>
       </c>
       <c r="U93" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Hope is on the horizon" ?</v>
+        <v/>
       </c>
       <c r="V93" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W93" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X93" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y93" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12676,7 +12653,7 @@
       <c r="AD93" s="14"/>
       <c r="AE93" s="14"/>
     </row>
-    <row r="94" ht="35" spans="1:31">
+    <row r="94" ht="24" spans="1:31">
       <c r="A94" s="2">
         <v>5</v>
       </c>
@@ -12702,11 +12679,11 @@
       </c>
       <c r="J94" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="26">
         <f t="shared" si="17"/>
@@ -12720,43 +12697,43 @@
       </c>
       <c r="O94" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506093</v>
       </c>
       <c r="P94" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "a quick yet thorough tutorial on some topic or process." ?</v>
       </c>
       <c r="Q94" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R94" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S94" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T94" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506093</v>
+        <v/>
       </c>
       <c r="U94" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "a crash course" ?</v>
+        <v/>
       </c>
       <c r="V94" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W94" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X94" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y94" s="26" t="str">
         <f t="shared" si="26"/>
@@ -12868,7 +12845,7 @@
       <c r="AD95" s="14"/>
       <c r="AE95" s="14"/>
     </row>
-    <row r="96" ht="24" spans="1:31">
+    <row r="96" ht="35" spans="1:31">
       <c r="A96" s="2">
         <v>5</v>
       </c>
@@ -12964,7 +12941,7 @@
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
     </row>
-    <row r="97" ht="24" spans="1:31">
+    <row r="97" ht="35" spans="1:31">
       <c r="A97" s="2">
         <v>5</v>
       </c>
@@ -12990,11 +12967,11 @@
       </c>
       <c r="J97" s="25">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="26">
         <f t="shared" si="17"/>
@@ -13008,43 +12985,43 @@
       </c>
       <c r="O97" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506096</v>
+        <v/>
       </c>
       <c r="P97" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "without clear or understandable logic, order, purpose, or meaning." ?</v>
+        <v/>
       </c>
       <c r="Q97" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R97" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S97" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T97" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506096</v>
       </c>
       <c r="U97" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "without rhyme or reason" ?</v>
       </c>
       <c r="V97" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W97" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X97" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y97" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13060,7 +13037,7 @@
       <c r="AD97" s="14"/>
       <c r="AE97" s="14"/>
     </row>
-    <row r="98" ht="35" spans="1:31">
+    <row r="98" ht="24" spans="1:31">
       <c r="A98" s="2">
         <v>5</v>
       </c>
@@ -13444,7 +13421,7 @@
       <c r="AD101" s="13"/>
       <c r="AE101" s="13"/>
     </row>
-    <row r="102" ht="24" spans="1:31">
+    <row r="102" ht="35" spans="1:31">
       <c r="A102" s="2">
         <v>5</v>
       </c>
@@ -13854,11 +13831,11 @@
       </c>
       <c r="J106" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="26">
         <f t="shared" si="17"/>
@@ -13872,43 +13849,43 @@
       </c>
       <c r="O106" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506105</v>
+        <v/>
       </c>
       <c r="P106" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "He writes the best prose" ?</v>
+        <v/>
       </c>
       <c r="Q106" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R106" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S106" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T106" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506105</v>
       </c>
       <c r="U106" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "His prose is peerless" ?</v>
       </c>
       <c r="V106" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W106" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X106" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y106" s="26" t="str">
         <f t="shared" si="26"/>
@@ -13950,11 +13927,11 @@
       </c>
       <c r="J107" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" s="26">
         <f t="shared" si="17"/>
@@ -13968,43 +13945,43 @@
       </c>
       <c r="O107" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506106</v>
       </c>
       <c r="P107" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Her dress is not approprite for her age." ?</v>
       </c>
       <c r="Q107" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R107" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S107" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T107" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506106</v>
+        <v/>
       </c>
       <c r="U107" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Her dress is not age-appropriate" ?</v>
+        <v/>
       </c>
       <c r="V107" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W107" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X107" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y107" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14238,11 +14215,11 @@
       </c>
       <c r="J110" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="26">
         <f t="shared" si="17"/>
@@ -14256,43 +14233,43 @@
       </c>
       <c r="O110" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506109</v>
+        <v/>
       </c>
       <c r="P110" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "a small gift that is meant to be humorous" ?</v>
+        <v/>
       </c>
       <c r="Q110" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R110" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S110" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T110" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506109</v>
       </c>
       <c r="U110" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "a gag gift" ?</v>
       </c>
       <c r="V110" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W110" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X110" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y110" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14334,11 +14311,11 @@
       </c>
       <c r="J111" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="26">
         <f t="shared" si="17"/>
@@ -14352,43 +14329,43 @@
       </c>
       <c r="O111" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506110</v>
       </c>
       <c r="P111" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "out of practice" ?</v>
       </c>
       <c r="Q111" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R111" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S111" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T111" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506110</v>
+        <v/>
       </c>
       <c r="U111" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "ring rust" ?</v>
+        <v/>
       </c>
       <c r="V111" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W111" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X111" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y111" s="26" t="str">
         <f t="shared" si="26"/>
@@ -14526,11 +14503,11 @@
       </c>
       <c r="J113" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" s="26">
         <f t="shared" si="17"/>
@@ -14544,43 +14521,43 @@
       </c>
       <c r="O113" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506112</v>
+        <v/>
       </c>
       <c r="P113" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "most important point for something, the moment of truth" ?</v>
+        <v/>
       </c>
       <c r="Q113" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R113" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S113" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T113" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506112</v>
       </c>
       <c r="U113" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "where the rubber meets the road" ?</v>
       </c>
       <c r="V113" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W113" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X113" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y113" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15102,11 +15079,11 @@
       </c>
       <c r="J119" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="26">
         <f t="shared" si="17"/>
@@ -15120,43 +15097,43 @@
       </c>
       <c r="O119" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506118</v>
       </c>
       <c r="P119" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "She is captivated by famous people. " ?</v>
       </c>
       <c r="Q119" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R119" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S119" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T119" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506118</v>
+        <v/>
       </c>
       <c r="U119" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "She is star-struck" ?</v>
+        <v/>
       </c>
       <c r="V119" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W119" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X119" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y119" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15364,7 +15341,7 @@
       <c r="AD121" s="14"/>
       <c r="AE121" s="14"/>
     </row>
-    <row r="122" ht="24" spans="1:31">
+    <row r="122" ht="35" spans="1:31">
       <c r="A122" s="2">
         <v>5</v>
       </c>
@@ -15486,11 +15463,11 @@
       </c>
       <c r="J123" s="25">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" s="26">
         <f t="shared" si="17"/>
@@ -15504,43 +15481,43 @@
       </c>
       <c r="O123" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L20506122</v>
+        <v/>
       </c>
       <c r="P123" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>What is the concept of "There was criticism from many people." ?</v>
+        <v/>
       </c>
       <c r="Q123" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R123" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S123" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T123" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v/>
+        <v>L30506122</v>
       </c>
       <c r="U123" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>What is the meaning of "There is a chorus of criticism" ?</v>
       </c>
       <c r="V123" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W123" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X123" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y123" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15582,11 +15559,11 @@
       </c>
       <c r="J124" s="25">
         <f ca="1" t="shared" ref="J124:J164" si="31">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="26">
         <f t="shared" si="17"/>
@@ -15600,43 +15577,43 @@
       </c>
       <c r="O124" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506123</v>
       </c>
       <c r="P124" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "an indirect criticism" ?</v>
       </c>
       <c r="Q124" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R124" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S124" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T124" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506123</v>
+        <v/>
       </c>
       <c r="U124" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "a coded criticism" ?</v>
+        <v/>
       </c>
       <c r="V124" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W124" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X124" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y124" s="26" t="str">
         <f t="shared" si="26"/>
@@ -15870,11 +15847,11 @@
       </c>
       <c r="J127" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="26">
         <f ca="1" t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="26">
         <f t="shared" si="17"/>
@@ -15888,43 +15865,43 @@
       </c>
       <c r="O127" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506126</v>
       </c>
       <c r="P127" s="26" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>What is the concept of "Equal pay" ?</v>
       </c>
       <c r="Q127" s="26" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R127" s="26" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S127" s="26" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T127" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506126</v>
+        <v/>
       </c>
       <c r="U127" s="26" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>What is the meaning of "Pay parity" ?</v>
+        <v/>
       </c>
       <c r="V127" s="26" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W127" s="26" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X127" s="26" t="str">
         <f ca="1" t="shared" si="25"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y127" s="26" t="str">
         <f t="shared" si="26"/>
@@ -16228,7 +16205,7 @@
       <c r="AD130" s="14"/>
       <c r="AE130" s="14"/>
     </row>
-    <row r="131" ht="35" spans="1:31">
+    <row r="131" ht="24" spans="1:31">
       <c r="A131" s="2">
         <v>5</v>
       </c>
@@ -16254,11 +16231,11 @@
       </c>
       <c r="J131" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="26">
         <f ca="1" t="shared" ref="K131:K158" si="32">IF(J131&gt;0,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" s="26">
         <f t="shared" ref="L131:L158" si="33">IF(LEN(H131)&gt;30,0,1)</f>
@@ -16272,43 +16249,43 @@
       </c>
       <c r="O131" s="26" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L20506130</v>
       </c>
       <c r="P131" s="26" t="str">
         <f ca="1" t="shared" ref="P131:P133" si="34">IF(J131=1,CONCATENATE("What is the concept of """,H131,""" ?"),"")</f>
-        <v/>
+        <v>What is the concept of "Think carefully before doing something" ?</v>
       </c>
       <c r="Q131" s="26" t="str">
         <f ca="1" t="shared" ref="Q131:Q133" si="35">IF(J131=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R131" s="26" t="str">
         <f ca="1" t="shared" ref="R131:R133" si="36">IF(J131=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S131" s="26" t="str">
         <f ca="1" t="shared" ref="S131:S133" si="37">IF(J131=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T131" s="26" t="str">
         <f ca="1" t="shared" si="29"/>
-        <v>L30506130</v>
+        <v/>
       </c>
       <c r="U131" s="26" t="str">
         <f ca="1" t="shared" ref="U131:U133" si="38">IF(K131=1,CONCATENATE("What is the meaning of """,G131,""" ?"),"")</f>
-        <v>What is the meaning of "Look before you leap" ?</v>
+        <v/>
       </c>
       <c r="V131" s="26" t="str">
         <f ca="1" t="shared" ref="V131:V133" si="39">IF(K131=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W131" s="26" t="str">
         <f ca="1" t="shared" ref="W131:W133" si="40">IF(K131=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X131" s="26" t="str">
         <f ca="1" t="shared" ref="X131:X133" si="41">IF(K131=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y131" s="26" t="str">
         <f t="shared" ref="Y131:Y133" si="42">IF(L131=1,CONCATENATE("L4",$F131),"")</f>
@@ -16324,7 +16301,7 @@
       <c r="AD131" s="13"/>
       <c r="AE131" s="13"/>
     </row>
-    <row r="132" ht="35" spans="1:31">
+    <row r="132" ht="24" spans="1:31">
       <c r="A132" s="2">
         <v>5</v>
       </c>
@@ -16350,11 +16327,11 @@
       </c>
       <c r="J132" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132" s="26">
         <f t="shared" si="33"/>
@@ -16368,43 +16345,43 @@
       </c>
       <c r="O132" s="26" t="str">
         <f ca="1" t="shared" ref="O132:O158" si="44">IF(J132=1,CONCATENATE("L2",$F132),"")</f>
-        <v/>
+        <v>L20506131</v>
       </c>
       <c r="P132" s="26" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>What is the concept of "Your social behavior defines who you are" ?</v>
       </c>
       <c r="Q132" s="26" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R132" s="26" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S132" s="26" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T132" s="26" t="str">
         <f ca="1" t="shared" ref="T132:T133" si="45">IF(K132=1,CONCATENATE("L3",$F132),"")</f>
-        <v>L30506131</v>
+        <v/>
       </c>
       <c r="U132" s="26" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>What is the meaning of "Manners maketh the man" ?</v>
+        <v/>
       </c>
       <c r="V132" s="26" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W132" s="26" t="str">
         <f ca="1" t="shared" si="40"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X132" s="26" t="str">
         <f ca="1" t="shared" si="41"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y132" s="26" t="str">
         <f t="shared" si="42"/>
@@ -16516,7 +16493,7 @@
       <c r="AD133" s="13"/>
       <c r="AE133" s="13"/>
     </row>
-    <row r="134" ht="24" spans="1:31">
+    <row r="134" ht="35" spans="1:31">
       <c r="A134" s="2">
         <v>5</v>
       </c>
@@ -16638,11 +16615,11 @@
       </c>
       <c r="J135" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="26">
         <f t="shared" si="33"/>
@@ -16656,43 +16633,43 @@
       </c>
       <c r="O135" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506134</v>
+        <v/>
       </c>
       <c r="P135" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "The government stopped funding the project" ?</v>
+        <v/>
       </c>
       <c r="Q135" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R135" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S135" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T135" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506134</v>
       </c>
       <c r="U135" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "The government pulled the plug on the project" ?</v>
       </c>
       <c r="V135" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W135" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X135" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y135" s="26" t="str">
         <f t="shared" si="55"/>
@@ -16734,11 +16711,11 @@
       </c>
       <c r="J136" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" s="26">
         <f t="shared" si="33"/>
@@ -16752,43 +16729,43 @@
       </c>
       <c r="O136" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506135</v>
       </c>
       <c r="P136" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "You have lost the opportunity to do somehing" ?</v>
       </c>
       <c r="Q136" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R136" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S136" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T136" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506135</v>
+        <v/>
       </c>
       <c r="U136" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "That ship has sailed" ?</v>
+        <v/>
       </c>
       <c r="V136" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W136" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X136" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y136" s="26" t="str">
         <f t="shared" si="55"/>
@@ -16830,11 +16807,11 @@
       </c>
       <c r="J137" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="26">
         <f t="shared" si="33"/>
@@ -16848,43 +16825,43 @@
       </c>
       <c r="O137" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506136</v>
       </c>
       <c r="P137" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "reach a consensus" ?</v>
       </c>
       <c r="Q137" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R137" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S137" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T137" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506136</v>
+        <v/>
       </c>
       <c r="U137" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "a meeting of minds" ?</v>
+        <v/>
       </c>
       <c r="V137" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W137" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X137" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y137" s="26" t="str">
         <f t="shared" si="55"/>
@@ -16926,11 +16903,11 @@
       </c>
       <c r="J138" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" s="26">
         <f t="shared" si="33"/>
@@ -16944,43 +16921,43 @@
       </c>
       <c r="O138" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506137</v>
+        <v/>
       </c>
       <c r="P138" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Trade threats are just for show" ?</v>
+        <v/>
       </c>
       <c r="Q138" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R138" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S138" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T138" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506137</v>
       </c>
       <c r="U138" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Trade threats are just theatre" ?</v>
       </c>
       <c r="V138" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W138" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X138" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y138" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17022,11 +16999,11 @@
       </c>
       <c r="J139" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="26">
         <f t="shared" si="33"/>
@@ -17040,43 +17017,43 @@
       </c>
       <c r="O139" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506138</v>
+        <v/>
       </c>
       <c r="P139" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "He took the blame for his boss" ?</v>
+        <v/>
       </c>
       <c r="Q139" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R139" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S139" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T139" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506138</v>
       </c>
       <c r="U139" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "He carried the can for his boss" ?</v>
       </c>
       <c r="V139" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W139" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X139" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y139" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17214,11 +17191,11 @@
       </c>
       <c r="J141" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" s="26">
         <f t="shared" si="33"/>
@@ -17232,43 +17209,43 @@
       </c>
       <c r="O141" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506140</v>
       </c>
       <c r="P141" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "The business broke the law" ?</v>
       </c>
       <c r="Q141" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R141" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S141" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T141" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506140</v>
+        <v/>
       </c>
       <c r="U141" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "The business fell foul of the law" ?</v>
+        <v/>
       </c>
       <c r="V141" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W141" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X141" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y141" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17310,11 +17287,11 @@
       </c>
       <c r="J142" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="26">
         <f t="shared" si="33"/>
@@ -17328,43 +17305,43 @@
       </c>
       <c r="O142" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506141</v>
       </c>
       <c r="P142" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "You must accept the situation because it can't be changed." ?</v>
       </c>
       <c r="Q142" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R142" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S142" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T142" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506141</v>
+        <v/>
       </c>
       <c r="U142" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "This is the way the cookie crumbles" ?</v>
+        <v/>
       </c>
       <c r="V142" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W142" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X142" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y142" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17406,11 +17383,11 @@
       </c>
       <c r="J143" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="26">
         <f t="shared" si="33"/>
@@ -17424,43 +17401,43 @@
       </c>
       <c r="O143" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506142</v>
+        <v/>
       </c>
       <c r="P143" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "The choice between Boris and Hunt is to choose blond and bland." ?</v>
+        <v/>
       </c>
       <c r="Q143" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R143" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S143" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T143" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506142</v>
       </c>
       <c r="U143" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "The choice between Boris and Hunt is a choice between blond or bland" ?</v>
       </c>
       <c r="V143" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W143" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X143" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y143" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17502,11 +17479,11 @@
       </c>
       <c r="J144" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" s="26">
         <f t="shared" si="33"/>
@@ -17520,43 +17497,43 @@
       </c>
       <c r="O144" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506143</v>
+        <v/>
       </c>
       <c r="P144" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "He knows how to talk." ?</v>
+        <v/>
       </c>
       <c r="Q144" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R144" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S144" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T144" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506143</v>
       </c>
       <c r="U144" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "He has the gift of the gab" ?</v>
       </c>
       <c r="V144" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W144" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X144" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y144" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17598,11 +17575,11 @@
       </c>
       <c r="J145" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="26">
         <f t="shared" si="33"/>
@@ -17616,43 +17593,43 @@
       </c>
       <c r="O145" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506144</v>
       </c>
       <c r="P145" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Jusitice must come early not late" ?</v>
       </c>
       <c r="Q145" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R145" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S145" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T145" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506144</v>
+        <v/>
       </c>
       <c r="U145" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Justice delayed is justice denied" ?</v>
+        <v/>
       </c>
       <c r="V145" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W145" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X145" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y145" s="26" t="str">
         <f t="shared" si="55"/>
@@ -17860,7 +17837,7 @@
       <c r="AD147" s="14"/>
       <c r="AE147" s="14"/>
     </row>
-    <row r="148" ht="35" spans="1:31">
+    <row r="148" ht="47" spans="1:31">
       <c r="A148" s="2">
         <v>5</v>
       </c>
@@ -17982,11 +17959,11 @@
       </c>
       <c r="J149" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" s="26">
         <f t="shared" si="33"/>
@@ -18000,43 +17977,43 @@
       </c>
       <c r="O149" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506148</v>
+        <v/>
       </c>
       <c r="P149" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "He loses control pf his temper." ?</v>
+        <v/>
       </c>
       <c r="Q149" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R149" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S149" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T149" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506148</v>
       </c>
       <c r="U149" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "He throws a temper tantrum" ?</v>
       </c>
       <c r="V149" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W149" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X149" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y149" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18174,11 +18151,11 @@
       </c>
       <c r="J151" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" s="26">
         <f t="shared" si="33"/>
@@ -18192,43 +18169,43 @@
       </c>
       <c r="O151" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506150</v>
       </c>
       <c r="P151" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "It's a difficult challenge" ?</v>
       </c>
       <c r="Q151" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R151" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S151" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T151" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506150</v>
+        <v/>
       </c>
       <c r="U151" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "It's a tall task" ?</v>
+        <v/>
       </c>
       <c r="V151" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W151" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X151" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y151" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18340,7 +18317,7 @@
       <c r="AD152" s="14"/>
       <c r="AE152" s="14"/>
     </row>
-    <row r="153" ht="35" spans="1:31">
+    <row r="153" ht="47" spans="1:31">
       <c r="A153" s="2">
         <v>5</v>
       </c>
@@ -18436,7 +18413,7 @@
       <c r="AD153" s="14"/>
       <c r="AE153" s="14"/>
     </row>
-    <row r="154" ht="24" spans="1:31">
+    <row r="154" ht="35" spans="1:31">
       <c r="A154" s="2">
         <v>5</v>
       </c>
@@ -18532,7 +18509,7 @@
       <c r="AD154" s="14"/>
       <c r="AE154" s="14"/>
     </row>
-    <row r="155" ht="24" spans="1:31">
+    <row r="155" ht="35" spans="1:31">
       <c r="A155" s="2">
         <v>5</v>
       </c>
@@ -18558,11 +18535,11 @@
       </c>
       <c r="J155" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" s="26">
         <f t="shared" si="33"/>
@@ -18576,43 +18553,43 @@
       </c>
       <c r="O155" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L20506154</v>
+        <v/>
       </c>
       <c r="P155" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "methods that are tested to be good and effective" ?</v>
+        <v/>
       </c>
       <c r="Q155" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R155" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S155" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T155" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506154</v>
       </c>
       <c r="U155" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "tried and true methods" ?</v>
       </c>
       <c r="V155" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W155" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X155" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y155" s="26" t="str">
         <f t="shared" si="55"/>
@@ -18654,11 +18631,11 @@
       </c>
       <c r="J156" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" s="26">
         <f ca="1" t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" s="26">
         <f t="shared" si="33"/>
@@ -18672,43 +18649,43 @@
       </c>
       <c r="O156" s="26" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v/>
+        <v>L20506155</v>
       </c>
       <c r="P156" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "similar in their character or behavior" ?</v>
       </c>
       <c r="Q156" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R156" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S156" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T156" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506155</v>
+        <v/>
       </c>
       <c r="U156" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "cut from the same cloth" ?</v>
+        <v/>
       </c>
       <c r="V156" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W156" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X156" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y156" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19300,7 +19277,7 @@
       <c r="AD162" s="13"/>
       <c r="AE162" s="13"/>
     </row>
-    <row r="163" ht="35" spans="1:31">
+    <row r="163" ht="24" spans="1:31">
       <c r="A163" s="2">
         <v>5</v>
       </c>
@@ -19326,11 +19303,11 @@
       </c>
       <c r="J163" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163" s="26">
         <f t="shared" si="58"/>
@@ -19344,43 +19321,43 @@
       </c>
       <c r="O163" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20506162</v>
       </c>
       <c r="P163" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "pretendig to be the opposite of what you are" ?</v>
       </c>
       <c r="Q163" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R163" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S163" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T163" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506162</v>
+        <v/>
       </c>
       <c r="U163" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "double dealing" ?</v>
+        <v/>
       </c>
       <c r="V163" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W163" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X163" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y163" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19396,7 +19373,7 @@
       <c r="AD163" s="14"/>
       <c r="AE163" s="14"/>
     </row>
-    <row r="164" ht="24" spans="1:31">
+    <row r="164" ht="35" spans="1:31">
       <c r="A164" s="2">
         <v>5</v>
       </c>
@@ -19422,11 +19399,11 @@
       </c>
       <c r="J164" s="25">
         <f ca="1" t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" s="26">
         <f t="shared" si="58"/>
@@ -19440,43 +19417,43 @@
       </c>
       <c r="O164" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20506163</v>
+        <v/>
       </c>
       <c r="P164" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Children hear everything, especially when you least expect them to" ?</v>
+        <v/>
       </c>
       <c r="Q164" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R164" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S164" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T164" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30506163</v>
       </c>
       <c r="U164" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Little pitchers have large ears" ?</v>
       </c>
       <c r="V164" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W164" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X164" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y164" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19518,11 +19495,11 @@
       </c>
       <c r="J165" s="25">
         <f ca="1" t="shared" ref="J165:J192" si="60">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" s="26">
         <f t="shared" si="58"/>
@@ -19536,43 +19513,43 @@
       </c>
       <c r="O165" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20506164</v>
       </c>
       <c r="P165" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Noble people respect other people's time and won't keep them waiting" ?</v>
       </c>
       <c r="Q165" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R165" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S165" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T165" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30506164</v>
+        <v/>
       </c>
       <c r="U165" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Punctuality is the politeness of princes" ?</v>
+        <v/>
       </c>
       <c r="V165" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W165" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X165" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y165" s="26" t="str">
         <f t="shared" si="55"/>
@@ -19998,11 +19975,11 @@
       </c>
       <c r="J170" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170" s="26">
         <f t="shared" si="58"/>
@@ -20016,43 +19993,43 @@
       </c>
       <c r="O170" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507169</v>
       </c>
       <c r="P170" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "I am always in action" ?</v>
       </c>
       <c r="Q170" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R170" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S170" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T170" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507169</v>
+        <v/>
       </c>
       <c r="U170" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "I am a verb" ?</v>
+        <v/>
       </c>
       <c r="V170" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W170" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X170" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y170" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20068,7 +20045,7 @@
       <c r="AD170" s="14"/>
       <c r="AE170" s="14"/>
     </row>
-    <row r="171" ht="24" spans="1:31">
+    <row r="171" ht="35" spans="1:31">
       <c r="A171" s="2">
         <v>5</v>
       </c>
@@ -20286,11 +20263,11 @@
       </c>
       <c r="J173" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" s="26">
         <f t="shared" si="58"/>
@@ -20304,43 +20281,43 @@
       </c>
       <c r="O173" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507172</v>
+        <v/>
       </c>
       <c r="P173" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Denial is not an advisable strategy for pandemic" ?</v>
+        <v/>
       </c>
       <c r="Q173" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R173" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S173" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T173" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507172</v>
       </c>
       <c r="U173" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Denial is not a strategy for dealing with the pandemic" ?</v>
       </c>
       <c r="V173" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W173" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X173" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y173" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20382,11 +20359,11 @@
       </c>
       <c r="J174" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" s="26">
         <f t="shared" si="58"/>
@@ -20400,43 +20377,43 @@
       </c>
       <c r="O174" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507173</v>
       </c>
       <c r="P174" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "People who are powerful are sexually attracitive" ?</v>
       </c>
       <c r="Q174" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R174" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S174" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T174" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507173</v>
+        <v/>
       </c>
       <c r="U174" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Power is the ultimate aphrodisiac" ?</v>
+        <v/>
       </c>
       <c r="V174" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W174" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X174" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y174" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20478,11 +20455,11 @@
       </c>
       <c r="J175" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" s="26">
         <f t="shared" si="58"/>
@@ -20496,43 +20473,43 @@
       </c>
       <c r="O175" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507174</v>
+        <v/>
       </c>
       <c r="P175" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Music is divine" ?</v>
+        <v/>
       </c>
       <c r="Q175" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R175" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S175" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T175" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507174</v>
       </c>
       <c r="U175" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Music is the language of God" ?</v>
       </c>
       <c r="V175" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W175" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X175" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y175" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20548,7 +20525,7 @@
       <c r="AD175" s="14"/>
       <c r="AE175" s="14"/>
     </row>
-    <row r="176" ht="24" spans="1:31">
+    <row r="176" ht="35" spans="1:31">
       <c r="A176" s="2">
         <v>5</v>
       </c>
@@ -20574,11 +20551,11 @@
       </c>
       <c r="J176" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" s="26">
         <f t="shared" si="58"/>
@@ -20592,43 +20569,43 @@
       </c>
       <c r="O176" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507175</v>
+        <v/>
       </c>
       <c r="P176" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Our bodies are composed of what we eat" ?</v>
+        <v/>
       </c>
       <c r="Q176" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R176" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S176" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T176" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507175</v>
       </c>
       <c r="U176" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "You are what you eat" ?</v>
       </c>
       <c r="V176" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W176" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X176" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y176" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20670,11 +20647,11 @@
       </c>
       <c r="J177" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L177" s="26">
         <f t="shared" si="58"/>
@@ -20688,43 +20665,43 @@
       </c>
       <c r="O177" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507176</v>
+        <v/>
       </c>
       <c r="P177" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "You are the result of your work" ?</v>
+        <v/>
       </c>
       <c r="Q177" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R177" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S177" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T177" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507176</v>
       </c>
       <c r="U177" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "You are what you do" ?</v>
       </c>
       <c r="V177" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W177" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X177" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y177" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20766,11 +20743,11 @@
       </c>
       <c r="J178" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178" s="26">
         <f t="shared" si="58"/>
@@ -20784,43 +20761,43 @@
       </c>
       <c r="O178" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507177</v>
       </c>
       <c r="P178" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Good teaching depends more on how to make the lesson come alive than preparation." ?</v>
       </c>
       <c r="Q178" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R178" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S178" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T178" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507177</v>
+        <v/>
       </c>
       <c r="U178" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Good teaching is one quarter preparation and three quarters theatre" ?</v>
+        <v/>
       </c>
       <c r="V178" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W178" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X178" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y178" s="26" t="str">
         <f t="shared" si="55"/>
@@ -20862,11 +20839,11 @@
       </c>
       <c r="J179" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L179" s="26">
         <f t="shared" si="58"/>
@@ -20880,43 +20857,43 @@
       </c>
       <c r="O179" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507178</v>
+        <v/>
       </c>
       <c r="P179" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "To be happy, one should be healthy and forgetful about bad things in the past" ?</v>
+        <v/>
       </c>
       <c r="Q179" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R179" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S179" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T179" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507178</v>
       </c>
       <c r="U179" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Happiness is good health and bad memory" ?</v>
       </c>
       <c r="V179" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W179" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X179" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y179" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21054,11 +21031,11 @@
       </c>
       <c r="J181" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" s="26">
         <f t="shared" si="58"/>
@@ -21072,43 +21049,43 @@
       </c>
       <c r="O181" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507180</v>
       </c>
       <c r="P181" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Having one wife is as bad as having two wives. Best to have no wife." ?</v>
       </c>
       <c r="Q181" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R181" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S181" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T181" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507180</v>
+        <v/>
       </c>
       <c r="U181" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Bigamy is having one wife too many. Monogamy is the same." ?</v>
+        <v/>
       </c>
       <c r="V181" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W181" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X181" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y181" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21124,7 +21101,7 @@
       <c r="AD181" s="14"/>
       <c r="AE181" s="14"/>
     </row>
-    <row r="182" ht="35" spans="1:31">
+    <row r="182" ht="47" spans="1:31">
       <c r="A182" s="2">
         <v>5</v>
       </c>
@@ -21150,11 +21127,11 @@
       </c>
       <c r="J182" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182" s="26">
         <f t="shared" si="58"/>
@@ -21168,43 +21145,43 @@
       </c>
       <c r="O182" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507181</v>
+        <v/>
       </c>
       <c r="P182" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Knowledge shows itself in talking. Wisdom shows itself through listening. " ?</v>
+        <v/>
       </c>
       <c r="Q182" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R182" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S182" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T182" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507181</v>
       </c>
       <c r="U182" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Knowledge speaks. Wisdom listens." ?</v>
       </c>
       <c r="V182" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W182" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X182" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y182" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21342,11 +21319,11 @@
       </c>
       <c r="J184" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" s="26">
         <f t="shared" si="58"/>
@@ -21360,43 +21337,43 @@
       </c>
       <c r="O184" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507183</v>
+        <v/>
       </c>
       <c r="P184" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "Hungre makes everything taste good." ?</v>
+        <v/>
       </c>
       <c r="Q184" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R184" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S184" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T184" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507183</v>
       </c>
       <c r="U184" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "Hunger is the best sauce" ?</v>
       </c>
       <c r="V184" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W184" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X184" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y184" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21630,11 +21607,11 @@
       </c>
       <c r="J187" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187" s="26">
         <f t="shared" si="58"/>
@@ -21648,43 +21625,43 @@
       </c>
       <c r="O187" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507186</v>
       </c>
       <c r="P187" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "The motivation to invent comes from need." ?</v>
       </c>
       <c r="Q187" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R187" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S187" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T187" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507186</v>
+        <v/>
       </c>
       <c r="U187" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Necessity is the mother of invention" ?</v>
+        <v/>
       </c>
       <c r="V187" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W187" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X187" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y187" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21822,11 +21799,11 @@
       </c>
       <c r="J189" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" s="26">
         <f t="shared" si="58"/>
@@ -21840,43 +21817,43 @@
       </c>
       <c r="O189" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507188</v>
+        <v/>
       </c>
       <c r="P189" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "A good paper is the platform for a national dialogue" ?</v>
+        <v/>
       </c>
       <c r="Q189" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R189" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S189" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T189" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507188</v>
       </c>
       <c r="U189" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "A good newspaper is a nation talking to itself" ?</v>
       </c>
       <c r="V189" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W189" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X189" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y189" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21892,7 +21869,7 @@
       <c r="AD189" s="14"/>
       <c r="AE189" s="14"/>
     </row>
-    <row r="190" ht="24" spans="1:31">
+    <row r="190" ht="35" spans="1:31">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -21918,11 +21895,11 @@
       </c>
       <c r="J190" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" s="26">
         <f t="shared" si="58"/>
@@ -21936,43 +21913,43 @@
       </c>
       <c r="O190" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v>L20507189</v>
+        <v/>
       </c>
       <c r="P190" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v>What is the concept of "He only cares about how to look good, not  how things are run." ?</v>
+        <v/>
       </c>
       <c r="Q190" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R190" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S190" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T190" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v/>
+        <v>L30507189</v>
       </c>
       <c r="U190" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v/>
+        <v>What is the meaning of "He is spin over substance" ?</v>
       </c>
       <c r="V190" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W190" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X190" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y190" s="26" t="str">
         <f t="shared" si="55"/>
@@ -21988,7 +21965,7 @@
       <c r="AD190" s="14"/>
       <c r="AE190" s="14"/>
     </row>
-    <row r="191" ht="47" spans="1:31">
+    <row r="191" ht="35" spans="1:31">
       <c r="A191" s="2">
         <v>5</v>
       </c>
@@ -22014,11 +21991,11 @@
       </c>
       <c r="J191" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191" s="26">
         <f t="shared" si="58"/>
@@ -22032,43 +22009,43 @@
       </c>
       <c r="O191" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507190</v>
       </c>
       <c r="P191" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Twitter is a place for the unethical. It makes peolple show their worst in humanity." ?</v>
       </c>
       <c r="Q191" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R191" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S191" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T191" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507190</v>
+        <v/>
       </c>
       <c r="U191" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Twitter is a sewer. It brings out the worst in humanity" ?</v>
+        <v/>
       </c>
       <c r="V191" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W191" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X191" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y191" s="26" t="str">
         <f t="shared" si="55"/>
@@ -22110,11 +22087,11 @@
       </c>
       <c r="J192" s="25">
         <f ca="1" t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" s="26">
         <f ca="1" t="shared" si="57"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" s="26">
         <f t="shared" si="58"/>
@@ -22128,43 +22105,43 @@
       </c>
       <c r="O192" s="26" t="str">
         <f ca="1" t="shared" si="59"/>
-        <v/>
+        <v>L20507191</v>
       </c>
       <c r="P192" s="26" t="str">
         <f ca="1" t="shared" si="46"/>
-        <v/>
+        <v>What is the concept of "Greatness comes from the habit of being attentive to detail." ?</v>
       </c>
       <c r="Q192" s="26" t="str">
         <f ca="1" t="shared" si="47"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R192" s="26" t="str">
         <f ca="1" t="shared" si="48"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S192" s="26" t="str">
         <f ca="1" t="shared" si="49"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T192" s="26" t="str">
         <f ca="1" t="shared" si="50"/>
-        <v>L30507191</v>
+        <v/>
       </c>
       <c r="U192" s="26" t="str">
         <f ca="1" t="shared" si="51"/>
-        <v>What is the meaning of "Greatness is the accumulation of attention to detail - Premier Zhou" ?</v>
+        <v/>
       </c>
       <c r="V192" s="26" t="str">
         <f ca="1" t="shared" si="52"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W192" s="26" t="str">
         <f ca="1" t="shared" si="53"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X192" s="26" t="str">
         <f ca="1" t="shared" si="54"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y192" s="26" t="str">
         <f t="shared" si="55"/>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Lecture 5" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lecture 5'!$Q:$Q</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -3574,7 +3577,7 @@
     <t>这是一个艰难的挑战</t>
   </si>
   <si>
-    <t>L30506150</t>
+    <t>L30506149</t>
   </si>
   <si>
     <t>What is the meaning of "It's a tall task"?</t>
@@ -4504,8 +4507,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -4532,14 +4535,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4552,9 +4564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4562,59 +4573,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4637,7 +4604,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4645,18 +4642,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4666,9 +4662,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4695,19 +4698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4719,55 +4728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4785,7 +4752,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4797,19 +4854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4821,55 +4866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4927,8 +4930,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4937,7 +4955,46 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4966,45 +5023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5015,138 +5033,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5155,28 +5092,94 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5532,8 +5535,8 @@
   <sheetPr/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G51" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J149" workbookViewId="0">
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -3601,7 +3601,7 @@
     <t>他因为花销超支而遭到责备</t>
   </si>
   <si>
-    <t>L20506151</t>
+    <t>L20506150</t>
   </si>
   <si>
     <t>What is the concept of "He was taken to task for the cost overrun"?</t>
@@ -4506,10 +4506,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4535,23 +4535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4559,21 +4543,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4588,18 +4557,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4608,6 +4577,21 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4633,8 +4617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4642,17 +4627,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4664,14 +4672,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4698,7 +4698,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4710,7 +4800,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4722,85 +4842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4812,13 +4854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4830,49 +4872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4930,23 +4930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4954,23 +4939,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4993,8 +4963,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5014,11 +4984,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5038,148 +5038,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5535,8 +5535,8 @@
   <sheetPr/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J149" workbookViewId="0">
-      <selection activeCell="Q150" sqref="Q150"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -3625,7 +3625,7 @@
     <t>How to say "唇枪舌战"?</t>
   </si>
   <si>
-    <t>0506152</t>
+    <t>0506153</t>
   </si>
   <si>
     <t xml:space="preserve">caught in a crossfire in the trade war </t>
@@ -3637,13 +3637,13 @@
     <t>深陷贸易战的战火中</t>
   </si>
   <si>
-    <t>L20506153</t>
+    <t>L20506152</t>
   </si>
   <si>
     <t>What is the concept of "caught in a crossfire in the trade war "?</t>
   </si>
   <si>
-    <t>0506153</t>
+    <t>0506154</t>
   </si>
   <si>
     <t>tried and true methods</t>
@@ -3667,7 +3667,7 @@
     <t>Proven method</t>
   </si>
   <si>
-    <t>0506154</t>
+    <t>0506155</t>
   </si>
   <si>
     <t>cut from the same cloth</t>
@@ -3688,7 +3688,7 @@
     <t>Cut from the same cloth</t>
   </si>
   <si>
-    <t>0506155</t>
+    <t>0506156</t>
   </si>
   <si>
     <t>It goes against the grain</t>
@@ -3718,7 +3718,7 @@
     <t>How to say "背道而驰"?</t>
   </si>
   <si>
-    <t>0506156</t>
+    <t>0506157</t>
   </si>
   <si>
     <t>Am I disturbing your downtime?</t>
@@ -3739,7 +3739,7 @@
     <t>I disturb your down time?</t>
   </si>
   <si>
-    <t>0506157</t>
+    <t>0506158</t>
   </si>
   <si>
     <t>double Dutch</t>
@@ -3769,7 +3769,7 @@
     <t>How to say "难以理解的话"?</t>
   </si>
   <si>
-    <t>0506158</t>
+    <t>0506159</t>
   </si>
   <si>
     <t>Everything is shipshape</t>
@@ -3787,7 +3787,7 @@
     <t>How to say "一切都井井有条"?</t>
   </si>
   <si>
-    <t>0506159</t>
+    <t>0506160</t>
   </si>
   <si>
     <t>He is shell-shocked</t>
@@ -3811,7 +3811,7 @@
     <t>He was shocked by the</t>
   </si>
   <si>
-    <t>0506160</t>
+    <t>0506161</t>
   </si>
   <si>
     <t>double date</t>
@@ -3832,7 +3832,7 @@
     <t>Double date</t>
   </si>
   <si>
-    <t>0506161</t>
+    <t>0506162</t>
   </si>
   <si>
     <t>double dealing</t>
@@ -3856,7 +3856,7 @@
     <t>Doubles dealt</t>
   </si>
   <si>
-    <t>0506162</t>
+    <t>0506163</t>
   </si>
   <si>
     <t>Little pitchers have large ears</t>
@@ -3874,7 +3874,7 @@
     <t>What is the concept of "Little pitchers have large ears"?</t>
   </si>
   <si>
-    <t>0506163</t>
+    <t>0506164</t>
   </si>
   <si>
     <t>Punctuality is the politeness of princes</t>
@@ -3898,7 +3898,7 @@
     <t>Punctuality is the prince's polite</t>
   </si>
   <si>
-    <t>0506164</t>
+    <t>0506165</t>
   </si>
   <si>
     <t>He flies into a fury</t>
@@ -3928,7 +3928,7 @@
     <t>How to say "他勃然大怒"?</t>
   </si>
   <si>
-    <t>0506165</t>
+    <t>0506166</t>
   </si>
   <si>
     <t>Love laughs at locks</t>
@@ -3946,7 +3946,7 @@
     <t>What is the concept of "Love laughs at locks"?</t>
   </si>
   <si>
-    <t>0506166</t>
+    <t>0506167</t>
   </si>
   <si>
     <t>clear the cobwebs</t>
@@ -4507,9 +4507,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4541,23 +4541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4573,7 +4558,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4587,6 +4586,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线 Light"/>
@@ -4595,7 +4601,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4609,9 +4638,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4633,45 +4669,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4698,7 +4698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4710,7 +4728,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4722,7 +4770,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4734,145 +4872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4960,15 +4960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4980,6 +4971,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5013,167 +5033,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5535,8 +5535,8 @@
   <sheetPr/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="O151" sqref="O151"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C150" workbookViewId="0">
+      <selection activeCell="F164" sqref="F153:F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -4506,10 +4506,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4549,16 +4549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4571,8 +4564,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4580,14 +4589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4601,15 +4603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4630,17 +4624,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4648,6 +4649,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4662,16 +4670,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4698,7 +4698,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4710,157 +4860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4872,7 +4872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4945,6 +4945,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4956,6 +4965,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4975,35 +5010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5019,17 +5025,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5041,139 +5041,139 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5535,8 +5535,8 @@
   <sheetPr/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C150" workbookViewId="0">
-      <selection activeCell="F164" sqref="F153:F164"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J189" workbookViewId="0">
+      <selection activeCell="U191" sqref="U191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -14430,7 +14430,9 @@
       <c r="T156" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="U156" s="6"/>
+      <c r="U156" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V156" s="6" t="s">
         <v>1228</v>
       </c>
@@ -14491,7 +14493,9 @@
       <c r="T157" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="U157" s="6"/>
+      <c r="U157" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
     </row>
@@ -14548,7 +14552,9 @@
       <c r="T158" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="U158" s="6"/>
+      <c r="U158" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V158" s="6" t="s">
         <v>1245</v>
       </c>
@@ -14662,7 +14668,9 @@
       <c r="T160" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="U160" s="6"/>
+      <c r="U160" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
     </row>
@@ -14719,7 +14727,9 @@
       <c r="T161" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="U161" s="6"/>
+      <c r="U161" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V161" s="6"/>
       <c r="W161" s="6"/>
     </row>
@@ -14776,7 +14786,9 @@
       <c r="T162" s="6" t="s">
         <v>1275</v>
       </c>
-      <c r="U162" s="6"/>
+      <c r="U162" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
     </row>
@@ -14886,7 +14898,9 @@
       <c r="T164" s="6" t="s">
         <v>1289</v>
       </c>
-      <c r="U164" s="6"/>
+      <c r="U164" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V164" s="6"/>
       <c r="W164" s="6"/>
     </row>
@@ -14943,7 +14957,9 @@
       <c r="T165" s="6" t="s">
         <v>1297</v>
       </c>
-      <c r="U165" s="6"/>
+      <c r="U165" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V165" s="6" t="s">
         <v>1298</v>
       </c>
@@ -15057,7 +15073,9 @@
       <c r="T167" s="6" t="s">
         <v>1313</v>
       </c>
-      <c r="U167" s="6"/>
+      <c r="U167" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
     </row>
@@ -15110,7 +15128,9 @@
       <c r="T168" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="U168" s="6"/>
+      <c r="U168" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V168" s="6" t="s">
         <v>1322</v>
       </c>
@@ -15171,7 +15191,9 @@
       <c r="T169" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="U169" s="6"/>
+      <c r="U169" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V169" s="6" t="s">
         <v>1331</v>
       </c>
@@ -15232,7 +15254,9 @@
       <c r="T170" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="U170" s="6"/>
+      <c r="U170" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V170" s="6"/>
       <c r="W170" s="6"/>
     </row>
@@ -15289,7 +15313,9 @@
       <c r="T171" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="U171" s="6"/>
+      <c r="U171" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
     </row>
@@ -15399,7 +15425,9 @@
       <c r="T173" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="U173" s="6"/>
+      <c r="U173" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
     </row>
@@ -15831,7 +15859,9 @@
       <c r="T181" s="6" t="s">
         <v>1412</v>
       </c>
-      <c r="U181" s="6"/>
+      <c r="U181" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
     </row>
@@ -15945,7 +15975,9 @@
       <c r="T183" s="6" t="s">
         <v>1422</v>
       </c>
-      <c r="U183" s="6"/>
+      <c r="U183" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V183" s="6" t="s">
         <v>1428</v>
       </c>
@@ -16006,7 +16038,9 @@
       <c r="T184" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="U184" s="6"/>
+      <c r="U184" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
     </row>
@@ -16063,7 +16097,9 @@
       <c r="T185" s="6" t="s">
         <v>1438</v>
       </c>
-      <c r="U185" s="6"/>
+      <c r="U185" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
     </row>
@@ -16177,7 +16213,9 @@
       <c r="T187" s="6" t="s">
         <v>1459</v>
       </c>
-      <c r="U187" s="6"/>
+      <c r="U187" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
     </row>
@@ -16234,7 +16272,9 @@
       <c r="T188" s="6" t="s">
         <v>1467</v>
       </c>
-      <c r="U188" s="6"/>
+      <c r="U188" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
     </row>
@@ -16291,7 +16331,9 @@
       <c r="T189" s="6" t="s">
         <v>1475</v>
       </c>
-      <c r="U189" s="6"/>
+      <c r="U189" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
     </row>
@@ -16401,7 +16443,9 @@
       <c r="T191" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="U191" s="6"/>
+      <c r="U191" s="6" t="s">
+        <v>893</v>
+      </c>
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
     </row>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -4508,8 +4508,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4534,21 +4534,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -4557,8 +4542,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4572,7 +4580,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4587,6 +4604,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -4595,11 +4619,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4609,9 +4633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4619,6 +4642,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4632,30 +4662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4664,14 +4672,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4704,19 +4704,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4734,7 +4740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4746,13 +4752,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4764,31 +4812,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4800,67 +4842,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4872,7 +4866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4930,17 +4930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4949,22 +4940,18 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4986,11 +4973,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5011,6 +5005,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5024,162 +5033,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5535,8 +5535,8 @@
   <sheetPr/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J189" workbookViewId="0">
-      <selection activeCell="U191" sqref="U191"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\FYP\data v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24276C3E-7FFB-4304-9E23-E34477A5ED0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1ADDC3-4C79-465E-8A87-2A790DEC8A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture 5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3864,7 +3875,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4533,11 +4544,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4545,7 +4556,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4553,7 +4564,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -4562,7 +4573,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4571,7 +4582,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4580,7 +4591,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4588,7 +4599,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4596,7 +4607,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4604,7 +4615,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4612,7 +4623,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4621,7 +4632,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4630,7 +4641,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4638,7 +4649,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4647,7 +4658,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4655,7 +4666,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4664,7 +4675,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4673,7 +4684,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4681,14 +4692,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4713,7 +4724,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5579,11 +5590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F108" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="9"/>
     <col min="6" max="6" width="8.88671875" style="9"/>
@@ -5592,7 +5603,7 @@
     <col min="16" max="16" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="39.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="144">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -5722,7 +5733,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="86.4">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -5775,7 +5786,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="158.4">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -5828,7 +5839,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="144">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5881,7 +5892,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="86.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5934,7 +5945,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="129.6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="317.39999999999998" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="316.8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -6056,7 +6067,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="115.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6109,7 +6120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="187.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -6168,7 +6179,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="86.4">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -6221,7 +6232,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="100.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -6284,7 +6295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="43.2">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -6337,7 +6348,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="100.8">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -6400,7 +6411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="86.4">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -6463,7 +6474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="100.8">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -6522,7 +6533,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="72">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -6575,7 +6586,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="115.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -6634,7 +6645,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="115.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -6697,7 +6708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="72">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -6752,7 +6763,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="43.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -6807,7 +6818,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="144">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -6868,7 +6879,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="115.2">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -6923,7 +6934,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="72">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -6978,7 +6989,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="72">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -7033,7 +7044,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="129.6">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -7094,7 +7105,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="57.6">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -7149,7 +7160,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="158.4">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -7210,7 +7221,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="57.6">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -7265,7 +7276,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="172.8">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -7324,7 +7335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="115.2">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -7385,7 +7396,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="129.6">
       <c r="A32" s="1">
         <v>5</v>
       </c>
@@ -7446,7 +7457,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="86.4">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -7501,7 +7512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="100.8">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -7562,7 +7573,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="86.4">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="72">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -7672,7 +7683,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="72">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -7727,7 +7738,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="86.4">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -7782,7 +7793,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="115.2">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -7837,7 +7848,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="129.6">
       <c r="A40" s="1">
         <v>5</v>
       </c>
@@ -7902,7 +7913,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="43.2">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -7957,7 +7968,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="86.4">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -8022,7 +8033,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="86.4">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -8081,7 +8092,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="100.8">
       <c r="A44" s="1">
         <v>5</v>
       </c>
@@ -8142,7 +8153,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="57.6">
       <c r="A45" s="1">
         <v>5</v>
       </c>
@@ -8197,7 +8208,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="129.6">
       <c r="A46" s="1">
         <v>5</v>
       </c>
@@ -8258,7 +8269,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="100.8">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -8317,7 +8328,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="158.4">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -8378,7 +8389,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="115.2">
       <c r="A49" s="1">
         <v>5</v>
       </c>
@@ -8439,7 +8450,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="72">
       <c r="A50" s="1">
         <v>5</v>
       </c>
@@ -8494,7 +8505,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="129.6">
       <c r="A51" s="1">
         <v>5</v>
       </c>
@@ -8549,7 +8560,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="115.2">
       <c r="A52" s="1">
         <v>5</v>
       </c>
@@ -8612,7 +8623,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="100.8">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -8665,7 +8676,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="72">
       <c r="A54" s="1">
         <v>5</v>
       </c>
@@ -8722,7 +8733,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="115.2">
       <c r="A55" s="1">
         <v>5</v>
       </c>
@@ -8785,7 +8796,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="86.4">
       <c r="A56" s="1">
         <v>5</v>
       </c>
@@ -8844,7 +8855,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="86.4">
       <c r="A57" s="1">
         <v>5</v>
       </c>
@@ -8901,7 +8912,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="86.4">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -8954,7 +8965,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="43.2">
       <c r="A59" s="1">
         <v>5</v>
       </c>
@@ -9007,7 +9018,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="144">
       <c r="A60" s="1">
         <v>5</v>
       </c>
@@ -9066,7 +9077,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="144">
       <c r="A61" s="1">
         <v>5</v>
       </c>
@@ -9119,7 +9130,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="115.2">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -9182,7 +9193,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="100.8">
       <c r="A63" s="1">
         <v>5</v>
       </c>
@@ -9235,7 +9246,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="100.8">
       <c r="A64" s="1">
         <v>5</v>
       </c>
@@ -9288,7 +9299,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="43.2">
       <c r="A65" s="1">
         <v>5</v>
       </c>
@@ -9341,7 +9352,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="100.8">
       <c r="A66" s="1">
         <v>5</v>
       </c>
@@ -9400,7 +9411,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="86.4">
       <c r="A67" s="1">
         <v>5</v>
       </c>
@@ -9463,7 +9474,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="43.2">
       <c r="A68" s="1">
         <v>5</v>
       </c>
@@ -9516,7 +9527,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="86.4">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -9569,7 +9580,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="86.4">
       <c r="A70" s="1">
         <v>5</v>
       </c>
@@ -9628,7 +9639,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="86.4">
       <c r="A71" s="1">
         <v>5</v>
       </c>
@@ -9681,7 +9692,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="72">
       <c r="A72" s="1">
         <v>5</v>
       </c>
@@ -9734,7 +9745,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="86.4">
       <c r="A73" s="1">
         <v>5</v>
       </c>
@@ -9797,7 +9808,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="86.4">
       <c r="A74" s="1">
         <v>5</v>
       </c>
@@ -9850,7 +9861,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="158.4">
       <c r="A75" s="1">
         <v>5</v>
       </c>
@@ -9909,7 +9920,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="100.8">
       <c r="A76" s="1">
         <v>5</v>
       </c>
@@ -9968,7 +9979,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="100.8">
       <c r="A77" s="1">
         <v>5</v>
       </c>
@@ -10017,7 +10028,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="72">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -10070,7 +10081,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="86.4">
       <c r="A79" s="1">
         <v>5</v>
       </c>
@@ -10123,7 +10134,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="115.2">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -10182,7 +10193,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="100.8">
       <c r="A81" s="1">
         <v>5</v>
       </c>
@@ -10245,7 +10256,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="72">
       <c r="A82" s="1">
         <v>5</v>
       </c>
@@ -10298,7 +10309,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="115.2">
       <c r="A83" s="1">
         <v>5</v>
       </c>
@@ -10357,7 +10368,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="86.4">
       <c r="A84" s="1">
         <v>5</v>
       </c>
@@ -10420,7 +10431,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="72">
       <c r="A85" s="1">
         <v>5</v>
       </c>
@@ -10473,7 +10484,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="72">
       <c r="A86" s="1">
         <v>5</v>
       </c>
@@ -10530,7 +10541,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="72">
       <c r="A87" s="1">
         <v>5</v>
       </c>
@@ -10593,7 +10604,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="72">
       <c r="A88" s="1">
         <v>5</v>
       </c>
@@ -10656,7 +10667,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="72">
       <c r="A89" s="1">
         <v>5</v>
       </c>
@@ -10709,7 +10720,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="100.8">
       <c r="A90" s="1">
         <v>5</v>
       </c>
@@ -10768,7 +10779,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="72">
       <c r="A91" s="1">
         <v>5</v>
       </c>
@@ -10821,7 +10832,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="100.8">
       <c r="A92" s="1">
         <v>5</v>
       </c>
@@ -10874,7 +10885,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="86.4">
       <c r="A93" s="1">
         <v>5</v>
       </c>
@@ -10937,7 +10948,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="86.4">
       <c r="A94" s="1">
         <v>5</v>
       </c>
@@ -10998,7 +11009,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="86.4">
       <c r="A95" s="1">
         <v>5</v>
       </c>
@@ -11051,7 +11062,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="72">
       <c r="A96" s="1">
         <v>5</v>
       </c>
@@ -11104,7 +11115,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="100.8">
       <c r="A97" s="1">
         <v>5</v>
       </c>
@@ -11163,7 +11174,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="72">
       <c r="A98" s="1">
         <v>5</v>
       </c>
@@ -11216,7 +11227,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="115.2">
       <c r="A99" s="1">
         <v>5</v>
       </c>
@@ -11277,7 +11288,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="100.8">
       <c r="A100" s="1">
         <v>5</v>
       </c>
@@ -11334,7 +11345,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="72">
       <c r="A101" s="1">
         <v>5</v>
       </c>
@@ -11387,7 +11398,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="72">
       <c r="A102" s="1">
         <v>5</v>
       </c>
@@ -11440,7 +11451,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="100.8">
       <c r="A103" s="1">
         <v>5</v>
       </c>
@@ -11497,7 +11508,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="72">
       <c r="A104" s="1">
         <v>5</v>
       </c>
@@ -11554,7 +11565,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="86.4">
       <c r="A105" s="1">
         <v>5</v>
       </c>
@@ -11611,7 +11622,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="100.8">
       <c r="A106" s="1">
         <v>5</v>
       </c>
@@ -11668,7 +11679,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="86.4">
       <c r="A107" s="1">
         <v>5</v>
       </c>
@@ -11725,7 +11736,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="100.8">
       <c r="A108" s="1">
         <v>5</v>
       </c>
@@ -11778,7 +11789,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="144">
       <c r="A109" s="1">
         <v>5</v>
       </c>
@@ -11835,7 +11846,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="100.8">
       <c r="A110" s="1">
         <v>5</v>
       </c>
@@ -11892,7 +11903,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="72">
       <c r="A111" s="1">
         <v>5</v>
       </c>
@@ -11953,7 +11964,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="129.6">
       <c r="A112" s="1">
         <v>5</v>
       </c>
@@ -12010,7 +12021,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="72">
       <c r="A113" s="1">
         <v>5</v>
       </c>
@@ -12063,7 +12074,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="86.4">
       <c r="A114" s="1">
         <v>5</v>
       </c>
@@ -12124,7 +12135,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="72">
       <c r="A115" s="1">
         <v>5</v>
       </c>
@@ -12177,7 +12188,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="86.4">
       <c r="A116" s="1">
         <v>5</v>
       </c>
@@ -12234,7 +12245,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="86.4">
       <c r="A117" s="1">
         <v>5</v>
       </c>
@@ -12295,7 +12306,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="72">
       <c r="A118" s="1">
         <v>5</v>
       </c>
@@ -12348,7 +12359,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="86.4">
       <c r="A119" s="1">
         <v>5</v>
       </c>
@@ -12405,7 +12416,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="72">
       <c r="A120" s="1">
         <v>5</v>
       </c>
@@ -12458,7 +12469,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="72">
       <c r="A121" s="1">
         <v>5</v>
       </c>
@@ -12511,7 +12522,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="144">
       <c r="A122" s="1">
         <v>5</v>
       </c>
@@ -12572,7 +12583,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="72">
       <c r="A123" s="1">
         <v>5</v>
       </c>
@@ -12625,7 +12636,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="100.8">
       <c r="A124" s="1">
         <v>5</v>
       </c>
@@ -12682,7 +12693,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="86.4">
       <c r="A125" s="1">
         <v>5</v>
       </c>
@@ -12743,7 +12754,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="100.8">
       <c r="A126" s="1">
         <v>5</v>
       </c>
@@ -12800,7 +12811,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="72">
       <c r="A127" s="1">
         <v>5</v>
       </c>
@@ -12853,7 +12864,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="115.2">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -12914,7 +12925,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="72">
       <c r="A129" s="1">
         <v>5</v>
       </c>
@@ -12967,7 +12978,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="115.2">
       <c r="A130" s="1">
         <v>5</v>
       </c>
@@ -13024,7 +13035,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="100.8">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -13081,7 +13092,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="72">
       <c r="A132" s="1">
         <v>5</v>
       </c>
@@ -13134,7 +13145,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="72">
       <c r="A133" s="1">
         <v>5</v>
       </c>
@@ -13187,7 +13198,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="72">
       <c r="A134" s="1">
         <v>5</v>
       </c>
@@ -13240,7 +13251,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="144">
       <c r="A135" s="1">
         <v>5</v>
       </c>
@@ -13297,7 +13308,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="86.4">
       <c r="A136" s="1">
         <v>5</v>
       </c>
@@ -13354,7 +13365,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="100.8">
       <c r="A137" s="1">
         <v>5</v>
       </c>
@@ -13415,7 +13426,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="100.8">
       <c r="A138" s="1">
         <v>5</v>
       </c>
@@ -13472,7 +13483,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="115.2">
       <c r="A139" s="1">
         <v>5</v>
       </c>
@@ -13529,7 +13540,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="72">
       <c r="A140" s="1">
         <v>5</v>
       </c>
@@ -13582,7 +13593,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="115.2">
       <c r="A141" s="1">
         <v>5</v>
       </c>
@@ -13639,7 +13650,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="129.6">
       <c r="A142" s="1">
         <v>5</v>
       </c>
@@ -13696,7 +13707,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="115.2">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -13749,7 +13760,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="100.8">
       <c r="A144" s="1">
         <v>5</v>
       </c>
@@ -13810,7 +13821,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="72">
       <c r="A145" s="1">
         <v>5</v>
       </c>
@@ -13867,7 +13878,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="86.4">
       <c r="A146" s="1">
         <v>5</v>
       </c>
@@ -13924,7 +13935,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="144">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -13981,7 +13992,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="72">
       <c r="A148" s="1">
         <v>5</v>
       </c>
@@ -14034,7 +14045,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="115.2">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -14091,7 +14102,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="86.4">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -14148,7 +14159,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="72">
       <c r="A151" s="1">
         <v>5</v>
       </c>
@@ -14201,7 +14212,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="72">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -14254,7 +14265,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="72">
       <c r="A153" s="1">
         <v>5</v>
       </c>
@@ -14307,7 +14318,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="100.8">
       <c r="A154" s="1">
         <v>5</v>
       </c>
@@ -14364,7 +14375,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="100.8">
       <c r="A155" s="1">
         <v>5</v>
       </c>
@@ -14421,7 +14432,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="115.2">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -14482,7 +14493,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="115.2">
       <c r="A157" s="1">
         <v>5</v>
       </c>
@@ -14539,7 +14550,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="100.8">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -14600,7 +14611,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="72">
       <c r="A159" s="1">
         <v>5</v>
       </c>
@@ -14653,7 +14664,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="100.8">
       <c r="A160" s="1">
         <v>5</v>
       </c>
@@ -14710,7 +14721,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="115.2">
       <c r="A161" s="1">
         <v>5</v>
       </c>
@@ -14767,7 +14778,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="86.4">
       <c r="A162" s="1">
         <v>5</v>
       </c>
@@ -14824,7 +14835,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="72">
       <c r="A163" s="1">
         <v>5</v>
       </c>
@@ -14877,7 +14888,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="144">
       <c r="A164" s="1">
         <v>5</v>
       </c>
@@ -14934,7 +14945,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="86.4">
       <c r="A165" s="1">
         <v>5</v>
       </c>
@@ -14995,7 +15006,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="72">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -15048,7 +15059,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="100.8">
       <c r="A167" s="1">
         <v>5</v>
       </c>
@@ -15105,7 +15116,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="72">
       <c r="A168" s="1">
         <v>5</v>
       </c>
@@ -15162,7 +15173,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="72">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -15223,7 +15234,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="100.8">
       <c r="A170" s="1">
         <v>5</v>
       </c>
@@ -15280,7 +15291,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="100.8">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -15337,7 +15348,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="86.4">
       <c r="A172" s="1">
         <v>5</v>
       </c>
@@ -15390,7 +15401,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="129.6">
       <c r="A173" s="1">
         <v>5</v>
       </c>
@@ -15447,7 +15458,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="43.2">
       <c r="A174" s="1">
         <v>5</v>
       </c>
@@ -15500,7 +15511,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="57.6">
       <c r="A175" s="1">
         <v>5</v>
       </c>
@@ -15553,7 +15564,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="72">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -15606,7 +15617,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="129.6">
       <c r="A177" s="1">
         <v>5</v>
       </c>
@@ -15659,7 +15670,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="129.6">
       <c r="A178" s="1">
         <v>5</v>
       </c>
@@ -15716,7 +15727,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="144">
       <c r="A179" s="1">
         <v>5</v>
       </c>
@@ -15769,7 +15780,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="115.2">
       <c r="A180" s="1">
         <v>5</v>
       </c>
@@ -15822,7 +15833,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="144">
       <c r="A181" s="1">
         <v>5</v>
       </c>
@@ -15879,7 +15890,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="115.2">
       <c r="A182" s="1">
         <v>5</v>
       </c>
@@ -15936,7 +15947,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="115.2">
       <c r="A183" s="1">
         <v>5</v>
       </c>
@@ -15997,7 +16008,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="129.6">
       <c r="A184" s="1">
         <v>5</v>
       </c>
@@ -16054,7 +16065,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="100.8">
       <c r="A185" s="1">
         <v>5</v>
       </c>
@@ -16111,7 +16122,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="72">
       <c r="A186" s="1">
         <v>5</v>
       </c>
@@ -16168,7 +16179,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="115.2">
       <c r="A187" s="1">
         <v>5</v>
       </c>
@@ -16225,7 +16236,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="144">
       <c r="A188" s="1">
         <v>5</v>
       </c>
@@ -16282,7 +16293,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" ht="138" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="144">
       <c r="A189" s="1">
         <v>5</v>
       </c>
@@ -16339,7 +16350,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="144">
       <c r="A190" s="1">
         <v>5</v>
       </c>
@@ -16392,7 +16403,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="158.4">
       <c r="A191" s="1">
         <v>5</v>
       </c>
@@ -16449,7 +16460,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:8">
       <c r="H195" t="s">
         <v>1277</v>
       </c>

--- a/miniproject/template/Lectures/Lecture 5.xlsx
+++ b/miniproject/template/Lectures/Lecture 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1ADDC3-4C79-465E-8A87-2A790DEC8A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3079FFD-B32A-4F12-95C6-3F078782F3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5590,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F108" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F96" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16469,5 +16469,8 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F98" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>